--- a/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="25005"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +38,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>N</t>
@@ -42,6 +48,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ame</t>
@@ -267,92 +274,87 @@
     <t>0,3|2,3|10,3|21,3</t>
   </si>
   <si>
+    <t>莫桥山庄弟子</t>
+  </si>
+  <si>
+    <t>90,100</t>
+  </si>
+  <si>
+    <t>53,1|171,50|19,3|23,5</t>
+  </si>
+  <si>
+    <t>朱云天</t>
+  </si>
+  <si>
+    <t>55,900</t>
+  </si>
+  <si>
+    <t>1,5|7,6|14,10</t>
+  </si>
+  <si>
+    <t>刘灯剑</t>
+  </si>
+  <si>
+    <t>万烛书苑掌门</t>
+  </si>
+  <si>
+    <t>67,200</t>
+  </si>
+  <si>
+    <t>1,5|8,5|11,5|22,5</t>
+  </si>
+  <si>
+    <t>佟雯</t>
+  </si>
+  <si>
+    <t>罂粟谷掌门</t>
+  </si>
+  <si>
+    <t>20,900|58,900</t>
+  </si>
+  <si>
+    <t>6,5|1,5|23,5|14,10</t>
+  </si>
+  <si>
+    <t>萨擎苍</t>
+  </si>
+  <si>
+    <t>钟鸣阁掌门</t>
+  </si>
+  <si>
+    <t>52,900</t>
+  </si>
+  <si>
+    <t>8,5|20,3|16,10</t>
+  </si>
+  <si>
+    <t>王远</t>
+  </si>
+  <si>
+    <t>将军府大将军</t>
+  </si>
+  <si>
+    <t>47,900</t>
+  </si>
+  <si>
+    <t>3,5|22,5|12,10</t>
+  </si>
+  <si>
+    <t>野狼</t>
+  </si>
+  <si>
+    <t>75,600</t>
+  </si>
+  <si>
     <t>何云多</t>
-  </si>
-  <si>
-    <t>莫桥山庄弟子</t>
-  </si>
-  <si>
-    <t>90,100</t>
-  </si>
-  <si>
-    <t>53,1|171,50|19,3|23,5</t>
-  </si>
-  <si>
-    <t>朱云天</t>
-  </si>
-  <si>
-    <t>55,900</t>
-  </si>
-  <si>
-    <t>1,5|7,6|14,10</t>
-  </si>
-  <si>
-    <t>刘灯剑</t>
-  </si>
-  <si>
-    <t>万烛书苑掌门</t>
-  </si>
-  <si>
-    <t>67,200</t>
-  </si>
-  <si>
-    <t>1,5|8,5|11,5|22,5</t>
-  </si>
-  <si>
-    <t>佟雯</t>
-  </si>
-  <si>
-    <t>罂粟谷掌门</t>
-  </si>
-  <si>
-    <t>20,900|58,900</t>
-  </si>
-  <si>
-    <t>6,5|1,5|23,5|14,10</t>
-  </si>
-  <si>
-    <t>萨擎苍</t>
-  </si>
-  <si>
-    <t>钟鸣阁掌门</t>
-  </si>
-  <si>
-    <t>52,900</t>
-  </si>
-  <si>
-    <t>8,5|20,3|16,10</t>
-  </si>
-  <si>
-    <t>王远</t>
-  </si>
-  <si>
-    <t>将军府大将军</t>
-  </si>
-  <si>
-    <t>47,900</t>
-  </si>
-  <si>
-    <t>3,5|22,5|12,10</t>
-  </si>
-  <si>
-    <t>野狼</t>
-  </si>
-  <si>
-    <t>75,600</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -363,367 +365,45 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -731,263 +411,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,65 +448,21 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="普通" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="普通 2" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="普通 4" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="普通 3" xfId="52"/>
+    <cellStyle name="普通" xfId="1"/>
+    <cellStyle name="普通 2" xfId="2"/>
+    <cellStyle name="普通 3" xfId="4"/>
+    <cellStyle name="普通 4" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1399,31 +793,31 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="39" width="9" customWidth="1"/>
-    <col min="40" max="40" width="41.1238938053097" style="1" customWidth="1"/>
-    <col min="41" max="41" width="22.7522123893805" style="1" customWidth="1"/>
+    <col min="40" max="40" width="41.125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="22.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1518,7 +912,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -1646,7 +1040,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1771,21 +1165,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -1890,16 +1284,16 @@
         <v>0</v>
       </c>
       <c r="AN5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO5" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="AO5" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="AP5">
         <v>952</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1910,10 +1304,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -2018,13 +1412,13 @@
         <v>0</v>
       </c>
       <c r="AN6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="AO6" s="7" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -2035,10 +1429,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -2143,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="AN7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AO7" s="7" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -2160,10 +1554,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -2268,13 +1662,13 @@
         <v>0</v>
       </c>
       <c r="AN8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO8" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AO8" s="7" t="s">
-        <v>92</v>
-      </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -2285,10 +1679,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -2393,13 +1787,13 @@
         <v>0</v>
       </c>
       <c r="AN9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO9" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AO9" s="7" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -2410,10 +1804,10 @@
         <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -2518,13 +1912,13 @@
         <v>0</v>
       </c>
       <c r="AN10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO10" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="AO10" s="7" t="s">
-        <v>100</v>
-      </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -2535,10 +1929,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -2643,15 +2037,16 @@
         <v>0</v>
       </c>
       <c r="AN11" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AO11" s="7">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
@@ -802,7 +802,7 @@
   <dimension ref="A1:AP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25005"/>
+    <workbookView windowWidth="16200" windowHeight="25005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +33,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>N</t>
@@ -48,7 +42,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ame</t>
@@ -274,6 +267,9 @@
     <t>0,3|2,3|10,3|21,3</t>
   </si>
   <si>
+    <t>何云多</t>
+  </si>
+  <si>
     <t>莫桥山庄弟子</t>
   </si>
   <si>
@@ -344,17 +340,19 @@
   </si>
   <si>
     <t>75,600</t>
-  </si>
-  <si>
-    <t>何云多</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -365,45 +363,373 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -411,21 +737,263 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -448,21 +1016,65 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1"/>
-    <cellStyle name="普通 2" xfId="2"/>
-    <cellStyle name="普通 3" xfId="4"/>
-    <cellStyle name="普通 4" xfId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="普通 4" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -793,31 +1405,31 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="6" max="39" width="9" customWidth="1"/>
-    <col min="40" max="40" width="41.125" style="1" customWidth="1"/>
-    <col min="41" max="41" width="22.75" style="1" customWidth="1"/>
+    <col min="40" max="40" width="41.1238938053097" style="1" customWidth="1"/>
+    <col min="41" max="41" width="22.7522123893805" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -912,7 +1524,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -1040,7 +1652,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1165,21 +1777,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42">
       <c r="A5" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -1284,30 +1896,30 @@
         <v>0</v>
       </c>
       <c r="AN5" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO5" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AP5">
         <v>952</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41">
       <c r="A6" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -1412,27 +2024,27 @@
         <v>0</v>
       </c>
       <c r="AN6" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AO6" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41">
       <c r="A7" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3">
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -1537,27 +2149,27 @@
         <v>0</v>
       </c>
       <c r="AN7" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AO7" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41">
       <c r="A8" s="3">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="B8" s="3">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C8" s="3">
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1662,27 +2274,27 @@
         <v>0</v>
       </c>
       <c r="AN8" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO8" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41">
       <c r="A9" s="3">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B9" s="3">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3">
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -1787,27 +2399,27 @@
         <v>0</v>
       </c>
       <c r="AN9" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO9" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41">
       <c r="A10" s="3">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B10" s="3">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C10" s="3">
         <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -1912,27 +2524,27 @@
         <v>0</v>
       </c>
       <c r="AN10" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AO10" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41">
       <c r="A11" s="3">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="B11" s="3">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="C11" s="3">
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -2037,16 +2649,15 @@
         <v>0</v>
       </c>
       <c r="AN11" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AO11" s="7">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="25005"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="103">
   <si>
     <t>Jyx2Configs.Jyx2ConfigCharacter</t>
   </si>
@@ -345,14 +350,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -363,7 +362,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -379,357 +378,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -737,263 +404,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,65 +441,21 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="普通" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="普通 2" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="普通 4" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="普通 3" xfId="52"/>
+    <cellStyle name="普通" xfId="1"/>
+    <cellStyle name="普通 2" xfId="2"/>
+    <cellStyle name="普通 3" xfId="4"/>
+    <cellStyle name="普通 4" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1405,31 +786,31 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AP11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="39" width="9" customWidth="1"/>
-    <col min="40" max="40" width="41.1238938053097" style="1" customWidth="1"/>
-    <col min="41" max="41" width="22.7522123893805" style="1" customWidth="1"/>
+    <col min="40" max="40" width="41.125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="22.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1524,7 +905,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -1652,7 +1033,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1777,7 +1158,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>10</v>
       </c>
@@ -1905,7 +1286,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>11</v>
       </c>
@@ -2030,7 +1411,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>20</v>
       </c>
@@ -2155,7 +1536,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>70</v>
       </c>
@@ -2280,7 +1661,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>40</v>
       </c>
@@ -2405,7 +1786,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>60</v>
       </c>
@@ -2530,7 +1911,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>140</v>
       </c>
@@ -2655,9 +2036,1221 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>141</v>
+      </c>
+      <c r="B12" s="3">
+        <v>140</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I12" s="3">
+        <v>200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>200</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>90</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3">
+        <v>10</v>
+      </c>
+      <c r="S12" s="3">
+        <v>10</v>
+      </c>
+      <c r="T12" s="3">
+        <v>70</v>
+      </c>
+      <c r="U12" s="3">
+        <v>30</v>
+      </c>
+      <c r="V12" s="3">
+        <v>90</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO12" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>142</v>
+      </c>
+      <c r="B13" s="3">
+        <v>140</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I13" s="3">
+        <v>200</v>
+      </c>
+      <c r="J13" s="3">
+        <v>200</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>90</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
+      <c r="R13" s="3">
+        <v>10</v>
+      </c>
+      <c r="S13" s="3">
+        <v>10</v>
+      </c>
+      <c r="T13" s="3">
+        <v>70</v>
+      </c>
+      <c r="U13" s="3">
+        <v>30</v>
+      </c>
+      <c r="V13" s="3">
+        <v>90</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO13" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>143</v>
+      </c>
+      <c r="B14" s="3">
+        <v>140</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I14" s="3">
+        <v>200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>200</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>90</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1</v>
+      </c>
+      <c r="R14" s="3">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3">
+        <v>70</v>
+      </c>
+      <c r="U14" s="3">
+        <v>30</v>
+      </c>
+      <c r="V14" s="3">
+        <v>90</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO14" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>144</v>
+      </c>
+      <c r="B15" s="3">
+        <v>140</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I15" s="3">
+        <v>200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>200</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>90</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1</v>
+      </c>
+      <c r="R15" s="3">
+        <v>10</v>
+      </c>
+      <c r="S15" s="3">
+        <v>10</v>
+      </c>
+      <c r="T15" s="3">
+        <v>70</v>
+      </c>
+      <c r="U15" s="3">
+        <v>30</v>
+      </c>
+      <c r="V15" s="3">
+        <v>90</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO15" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>145</v>
+      </c>
+      <c r="B16" s="3">
+        <v>140</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>10</v>
+      </c>
+      <c r="H16" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I16" s="3">
+        <v>200</v>
+      </c>
+      <c r="J16" s="3">
+        <v>200</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>90</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1</v>
+      </c>
+      <c r="R16" s="3">
+        <v>10</v>
+      </c>
+      <c r="S16" s="3">
+        <v>10</v>
+      </c>
+      <c r="T16" s="3">
+        <v>70</v>
+      </c>
+      <c r="U16" s="3">
+        <v>30</v>
+      </c>
+      <c r="V16" s="3">
+        <v>90</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO16" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>146</v>
+      </c>
+      <c r="B17" s="3">
+        <v>140</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>10</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>90</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1</v>
+      </c>
+      <c r="R17" s="3">
+        <v>10</v>
+      </c>
+      <c r="S17" s="3">
+        <v>10</v>
+      </c>
+      <c r="T17" s="3">
+        <v>70</v>
+      </c>
+      <c r="U17" s="3">
+        <v>30</v>
+      </c>
+      <c r="V17" s="3">
+        <v>90</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO17" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>147</v>
+      </c>
+      <c r="B18" s="3">
+        <v>140</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>10</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I18" s="3">
+        <v>200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>200</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>90</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1</v>
+      </c>
+      <c r="R18" s="3">
+        <v>10</v>
+      </c>
+      <c r="S18" s="3">
+        <v>10</v>
+      </c>
+      <c r="T18" s="3">
+        <v>70</v>
+      </c>
+      <c r="U18" s="3">
+        <v>30</v>
+      </c>
+      <c r="V18" s="3">
+        <v>90</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO18" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>148</v>
+      </c>
+      <c r="B19" s="3">
+        <v>140</v>
+      </c>
+      <c r="C19" s="3">
+        <v>6</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>10</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I19" s="3">
+        <v>200</v>
+      </c>
+      <c r="J19" s="3">
+        <v>200</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>90</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>1</v>
+      </c>
+      <c r="R19" s="3">
+        <v>10</v>
+      </c>
+      <c r="S19" s="3">
+        <v>10</v>
+      </c>
+      <c r="T19" s="3">
+        <v>70</v>
+      </c>
+      <c r="U19" s="3">
+        <v>30</v>
+      </c>
+      <c r="V19" s="3">
+        <v>90</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0</v>
+      </c>
+      <c r="X19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO19" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>149</v>
+      </c>
+      <c r="B20" s="3">
+        <v>140</v>
+      </c>
+      <c r="C20" s="3">
+        <v>6</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>10</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I20" s="3">
+        <v>200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>200</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>90</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>1</v>
+      </c>
+      <c r="R20" s="3">
+        <v>10</v>
+      </c>
+      <c r="S20" s="3">
+        <v>10</v>
+      </c>
+      <c r="T20" s="3">
+        <v>70</v>
+      </c>
+      <c r="U20" s="3">
+        <v>30</v>
+      </c>
+      <c r="V20" s="3">
+        <v>90</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG20" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO20" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="7"/>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="7"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
@@ -794,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25005"/>
+    <workbookView windowWidth="12562" windowHeight="12307"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="105">
   <si>
     <t>Jyx2Configs.Jyx2ConfigCharacter</t>
   </si>
@@ -305,6 +300,30 @@
     <t>1,5|8,5|11,5|22,5</t>
   </si>
   <si>
+    <t>萨擎苍</t>
+  </si>
+  <si>
+    <t>钟鸣阁掌门</t>
+  </si>
+  <si>
+    <t>52,900</t>
+  </si>
+  <si>
+    <t>8,5|20,3|16,10</t>
+  </si>
+  <si>
+    <t>王远</t>
+  </si>
+  <si>
+    <t>将军府大将军</t>
+  </si>
+  <si>
+    <t>47,900</t>
+  </si>
+  <si>
+    <t>3,5|22,5|12,10</t>
+  </si>
+  <si>
     <t>佟雯</t>
   </si>
   <si>
@@ -317,28 +336,10 @@
     <t>6,5|1,5|23,5|14,10</t>
   </si>
   <si>
-    <t>萨擎苍</t>
-  </si>
-  <si>
-    <t>钟鸣阁掌门</t>
-  </si>
-  <si>
-    <t>52,900</t>
-  </si>
-  <si>
-    <t>8,5|20,3|16,10</t>
-  </si>
-  <si>
-    <t>王远</t>
-  </si>
-  <si>
-    <t>将军府大将军</t>
-  </si>
-  <si>
-    <t>47,900</t>
-  </si>
-  <si>
-    <t>3,5|22,5|12,10</t>
+    <t>童四二</t>
+  </si>
+  <si>
+    <t>鸽子楼</t>
   </si>
   <si>
     <t>野狼</t>
@@ -350,8 +351,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -362,7 +369,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -378,25 +385,351 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -404,21 +737,263 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -441,21 +1016,65 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1"/>
-    <cellStyle name="普通 2" xfId="2"/>
-    <cellStyle name="普通 3" xfId="4"/>
-    <cellStyle name="普通 4" xfId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="普通 4" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -786,31 +1405,31 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AP23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="6" max="39" width="9" customWidth="1"/>
-    <col min="40" max="40" width="41.125" style="1" customWidth="1"/>
-    <col min="41" max="41" width="22.75" style="1" customWidth="1"/>
+    <col min="40" max="40" width="41.1238938053097" style="1" customWidth="1"/>
+    <col min="41" max="41" width="22.7522123893805" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -905,7 +1524,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -1033,7 +1652,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1158,7 +1777,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42">
       <c r="A5" s="3">
         <v>10</v>
       </c>
@@ -1286,7 +1905,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41">
       <c r="A6" s="3">
         <v>11</v>
       </c>
@@ -1411,7 +2030,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41">
       <c r="A7" s="3">
         <v>20</v>
       </c>
@@ -1536,15 +2155,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41">
       <c r="A8" s="3">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C8" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>89</v>
@@ -1553,19 +2172,19 @@
         <v>90</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H8" s="3">
-        <v>-9036</v>
+        <v>16250</v>
       </c>
       <c r="I8" s="3">
-        <v>485</v>
+        <v>260</v>
       </c>
       <c r="J8" s="3">
-        <v>485</v>
+        <v>260</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -1574,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -1586,67 +2205,67 @@
         <v>-1</v>
       </c>
       <c r="Q8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="S8" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="T8" s="3">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="U8" s="3">
+        <v>66</v>
+      </c>
+      <c r="V8" s="3">
+        <v>90</v>
+      </c>
+      <c r="W8" s="3">
+        <v>10</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
         <v>70</v>
       </c>
-      <c r="V8" s="3">
-        <v>99</v>
-      </c>
-      <c r="W8" s="3">
-        <v>10</v>
-      </c>
-      <c r="X8" s="3">
-        <v>10</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>15</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>98</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>89</v>
-      </c>
       <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>40</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>60</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="3">
         <v>50</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="3">
-        <v>20</v>
-      </c>
-      <c r="AF8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="3">
-        <v>95</v>
-      </c>
-      <c r="AH8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="3">
-        <v>60</v>
       </c>
       <c r="AL8" s="3">
         <v>-1</v>
@@ -1661,15 +2280,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41">
       <c r="A9" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B9" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C9" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>93</v>
@@ -1681,16 +2300,16 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H9" s="3">
-        <v>16250</v>
+        <v>9250</v>
       </c>
       <c r="I9" s="3">
-        <v>260</v>
+        <v>356</v>
       </c>
       <c r="J9" s="3">
-        <v>260</v>
+        <v>356</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -1714,22 +2333,22 @@
         <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="S9" s="3">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="T9" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="U9" s="3">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="V9" s="3">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W9" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X9" s="3">
         <v>0</v>
@@ -1741,37 +2360,37 @@
         <v>0</v>
       </c>
       <c r="AA9" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB9" s="3">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="AC9" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD9" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE9" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="AF9" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG9" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="3">
         <v>60</v>
-      </c>
-      <c r="AH9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="3">
-        <v>50</v>
       </c>
       <c r="AL9" s="3">
         <v>-1</v>
@@ -1786,15 +2405,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41">
       <c r="A10" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B10" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>97</v>
@@ -1803,19 +2422,19 @@
         <v>98</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="3">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3">
-        <v>9250</v>
+        <v>-9036</v>
       </c>
       <c r="I10" s="3">
-        <v>356</v>
+        <v>485</v>
       </c>
       <c r="J10" s="3">
-        <v>356</v>
+        <v>485</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -1824,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -1836,55 +2455,55 @@
         <v>-1</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="3">
-        <v>360</v>
+        <v>900</v>
       </c>
       <c r="S10" s="3">
-        <v>360</v>
+        <v>900</v>
       </c>
       <c r="T10" s="3">
+        <v>99</v>
+      </c>
+      <c r="U10" s="3">
         <v>70</v>
       </c>
-      <c r="U10" s="3">
-        <v>58</v>
-      </c>
       <c r="V10" s="3">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="W10" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X10" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y10" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z10" s="3">
         <v>0</v>
       </c>
       <c r="AA10" s="3">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="AB10" s="3">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="AC10" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AD10" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AF10" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="3">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="AH10" s="3">
         <v>0</v>
@@ -1911,36 +2530,36 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41">
       <c r="A11" s="3">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="B11" s="3">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="C11" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>101</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="3">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H11" s="3">
-        <v>2250</v>
+        <v>-9036</v>
       </c>
       <c r="I11" s="3">
-        <v>200</v>
+        <v>485</v>
       </c>
       <c r="J11" s="3">
-        <v>200</v>
+        <v>485</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
@@ -1949,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="N11" s="3">
         <v>0</v>
@@ -1964,52 +2583,52 @@
         <v>1</v>
       </c>
       <c r="R11" s="3">
-        <v>10</v>
+        <v>900</v>
       </c>
       <c r="S11" s="3">
-        <v>10</v>
+        <v>900</v>
       </c>
       <c r="T11" s="3">
+        <v>99</v>
+      </c>
+      <c r="U11" s="3">
         <v>70</v>
       </c>
-      <c r="U11" s="3">
-        <v>30</v>
-      </c>
       <c r="V11" s="3">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="W11" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X11" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y11" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z11" s="3">
         <v>0</v>
       </c>
       <c r="AA11" s="3">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="AB11" s="3">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="AC11" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AD11" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AF11" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="3">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="AH11" s="3">
         <v>0</v>
@@ -2030,15 +2649,15 @@
         <v>0</v>
       </c>
       <c r="AN11" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO11" s="7">
-        <v>-1</v>
+        <v>99</v>
+      </c>
+      <c r="AO11" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41">
       <c r="A12" s="3">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" s="3">
         <v>140</v>
@@ -2047,10 +2666,10 @@
         <v>6</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -2155,15 +2774,15 @@
         <v>0</v>
       </c>
       <c r="AN12" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AO12" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41">
       <c r="A13" s="3">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B13" s="3">
         <v>140</v>
@@ -2172,10 +2791,10 @@
         <v>6</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -2280,15 +2899,15 @@
         <v>0</v>
       </c>
       <c r="AN13" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AO13" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41">
       <c r="A14" s="3">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B14" s="3">
         <v>140</v>
@@ -2297,10 +2916,10 @@
         <v>6</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -2405,15 +3024,15 @@
         <v>0</v>
       </c>
       <c r="AN14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AO14" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41">
       <c r="A15" s="3">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B15" s="3">
         <v>140</v>
@@ -2422,10 +3041,10 @@
         <v>6</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -2530,15 +3149,15 @@
         <v>0</v>
       </c>
       <c r="AN15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AO15" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41">
       <c r="A16" s="3">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B16" s="3">
         <v>140</v>
@@ -2547,10 +3166,10 @@
         <v>6</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -2655,15 +3274,15 @@
         <v>0</v>
       </c>
       <c r="AN16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AO16" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41">
       <c r="A17" s="3">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17" s="3">
         <v>140</v>
@@ -2672,10 +3291,10 @@
         <v>6</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -2780,15 +3399,15 @@
         <v>0</v>
       </c>
       <c r="AN17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AO17" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41">
       <c r="A18" s="3">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B18" s="3">
         <v>140</v>
@@ -2797,10 +3416,10 @@
         <v>6</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -2905,15 +3524,15 @@
         <v>0</v>
       </c>
       <c r="AN18" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AO18" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41">
       <c r="A19" s="3">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B19" s="3">
         <v>140</v>
@@ -2922,10 +3541,10 @@
         <v>6</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -3030,15 +3649,15 @@
         <v>0</v>
       </c>
       <c r="AN19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AO19" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41">
       <c r="A20" s="3">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B20" s="3">
         <v>140</v>
@@ -3047,10 +3666,10 @@
         <v>6</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -3155,56 +3774,138 @@
         <v>0</v>
       </c>
       <c r="AN20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AO20" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
-      <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="3"/>
-      <c r="AM21" s="3"/>
-      <c r="AN21" s="7"/>
-      <c r="AO21" s="7"/>
+    <row r="21" spans="1:41">
+      <c r="A21" s="3">
+        <v>149</v>
+      </c>
+      <c r="B21" s="3">
+        <v>140</v>
+      </c>
+      <c r="C21" s="3">
+        <v>6</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>10</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I21" s="3">
+        <v>200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>200</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>90</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>1</v>
+      </c>
+      <c r="R21" s="3">
+        <v>10</v>
+      </c>
+      <c r="S21" s="3">
+        <v>10</v>
+      </c>
+      <c r="T21" s="3">
+        <v>70</v>
+      </c>
+      <c r="U21" s="3">
+        <v>30</v>
+      </c>
+      <c r="V21" s="3">
+        <v>90</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG21" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL21" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO21" s="7">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3247,10 +3948,52 @@
       <c r="AN22" s="7"/>
       <c r="AO22" s="7"/>
     </row>
+    <row r="23" spans="1:41">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="7"/>
+      <c r="AO23" s="7"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12562" windowHeight="12307"/>
+    <workbookView windowWidth="16200" windowHeight="25005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="108">
   <si>
     <t>Jyx2Configs.Jyx2ConfigCharacter</t>
   </si>
@@ -300,6 +300,9 @@
     <t>1,5|8,5|11,5|22,5</t>
   </si>
   <si>
+    <t>虚寂</t>
+  </si>
+  <si>
     <t>萨擎苍</t>
   </si>
   <si>
@@ -339,7 +342,13 @@
     <t>童四二</t>
   </si>
   <si>
-    <t>鸽子楼</t>
+    <t>鸽子楼徐谦收留的弟子</t>
+  </si>
+  <si>
+    <t>牛妞妞</t>
+  </si>
+  <si>
+    <t>牛头岭庄主牛不扭的女儿</t>
   </si>
   <si>
     <t>野狼</t>
@@ -353,8 +362,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -392,6 +401,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -406,76 +423,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,30 +452,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,9 +466,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,7 +553,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,19 +637,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,145 +733,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,39 +744,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -797,26 +773,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,6 +802,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -843,10 +852,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -855,19 +864,19 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -876,121 +885,121 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1411,10 +1420,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AP23"/>
+  <dimension ref="A1:AP25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2157,34 +2166,34 @@
     </row>
     <row r="8" spans="1:41">
       <c r="A8" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H8" s="3">
-        <v>16250</v>
+        <v>300</v>
       </c>
       <c r="I8" s="3">
-        <v>260</v>
+        <v>116</v>
       </c>
       <c r="J8" s="3">
-        <v>260</v>
+        <v>116</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -2205,55 +2214,55 @@
         <v>-1</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="3">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="S8" s="3">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="T8" s="3">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="U8" s="3">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="V8" s="3">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="W8" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="X8" s="3">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="Y8" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z8" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA8" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB8" s="3">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="AC8" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AD8" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE8" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="AF8" s="3">
         <v>0</v>
       </c>
       <c r="AG8" s="3">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AH8" s="3">
         <v>0</v>
@@ -2265,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AL8" s="3">
         <v>-1</v>
@@ -2274,42 +2283,42 @@
         <v>0</v>
       </c>
       <c r="AN8" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AO8" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:41">
       <c r="A9" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B9" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H9" s="3">
-        <v>9250</v>
+        <v>16250</v>
       </c>
       <c r="I9" s="3">
-        <v>356</v>
+        <v>260</v>
       </c>
       <c r="J9" s="3">
-        <v>356</v>
+        <v>260</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -2333,65 +2342,65 @@
         <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="S9" s="3">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="T9" s="3">
+        <v>80</v>
+      </c>
+      <c r="U9" s="3">
+        <v>66</v>
+      </c>
+      <c r="V9" s="3">
+        <v>90</v>
+      </c>
+      <c r="W9" s="3">
+        <v>10</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3">
         <v>70</v>
       </c>
-      <c r="U9" s="3">
-        <v>58</v>
-      </c>
-      <c r="V9" s="3">
-        <v>76</v>
-      </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>10</v>
-      </c>
       <c r="AC9" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AF9" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="3">
+        <v>60</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="3">
         <v>50</v>
       </c>
-      <c r="AH9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="3">
-        <v>60</v>
-      </c>
       <c r="AL9" s="3">
         <v>-1</v>
       </c>
@@ -2399,111 +2408,111 @@
         <v>0</v>
       </c>
       <c r="AN9" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AO9" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:41">
       <c r="A10" s="3">
+        <v>60</v>
+      </c>
+      <c r="B10" s="3">
+        <v>60</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>16</v>
+      </c>
+      <c r="H10" s="3">
+        <v>9250</v>
+      </c>
+      <c r="I10" s="3">
+        <v>356</v>
+      </c>
+      <c r="J10" s="3">
+        <v>356</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>90</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>360</v>
+      </c>
+      <c r="S10" s="3">
+        <v>360</v>
+      </c>
+      <c r="T10" s="3">
         <v>70</v>
       </c>
-      <c r="B10" s="3">
-        <v>70</v>
-      </c>
-      <c r="C10" s="3">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>31</v>
-      </c>
-      <c r="H10" s="3">
-        <v>-9036</v>
-      </c>
-      <c r="I10" s="3">
-        <v>485</v>
-      </c>
-      <c r="J10" s="3">
-        <v>485</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>67</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1</v>
-      </c>
-      <c r="R10" s="3">
-        <v>900</v>
-      </c>
-      <c r="S10" s="3">
-        <v>900</v>
-      </c>
-      <c r="T10" s="3">
-        <v>99</v>
-      </c>
       <c r="U10" s="3">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="V10" s="3">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="W10" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X10" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="3">
         <v>0</v>
       </c>
       <c r="AA10" s="3">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="AB10" s="3">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="AC10" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG10" s="3">
         <v>50</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="3">
-        <v>20</v>
-      </c>
-      <c r="AF10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="3">
-        <v>95</v>
       </c>
       <c r="AH10" s="3">
         <v>0</v>
@@ -2524,27 +2533,27 @@
         <v>0</v>
       </c>
       <c r="AN10" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AO10" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:41">
       <c r="A11" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B11" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3">
         <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -2649,42 +2658,42 @@
         <v>0</v>
       </c>
       <c r="AN11" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AO11" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:41">
       <c r="A12" s="3">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="B12" s="3">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>103</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H12" s="3">
-        <v>2250</v>
+        <v>-9036</v>
       </c>
       <c r="I12" s="3">
-        <v>200</v>
+        <v>485</v>
       </c>
       <c r="J12" s="3">
-        <v>200</v>
+        <v>485</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -2693,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -2708,52 +2717,52 @@
         <v>1</v>
       </c>
       <c r="R12" s="3">
-        <v>10</v>
+        <v>900</v>
       </c>
       <c r="S12" s="3">
-        <v>10</v>
+        <v>900</v>
       </c>
       <c r="T12" s="3">
+        <v>99</v>
+      </c>
+      <c r="U12" s="3">
         <v>70</v>
       </c>
-      <c r="U12" s="3">
-        <v>30</v>
-      </c>
       <c r="V12" s="3">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="W12" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X12" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y12" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z12" s="3">
         <v>0</v>
       </c>
       <c r="AA12" s="3">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="AB12" s="3">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="AC12" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AD12" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AF12" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="3">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="AH12" s="3">
         <v>0</v>
@@ -2774,42 +2783,42 @@
         <v>0</v>
       </c>
       <c r="AN12" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO12" s="7">
-        <v>-1</v>
+        <v>100</v>
+      </c>
+      <c r="AO12" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:41">
       <c r="A13" s="3">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="B13" s="3">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="C13" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H13" s="3">
-        <v>2250</v>
+        <v>-9036</v>
       </c>
       <c r="I13" s="3">
-        <v>200</v>
+        <v>485</v>
       </c>
       <c r="J13" s="3">
-        <v>200</v>
+        <v>485</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
@@ -2818,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="3">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="N13" s="3">
         <v>0</v>
@@ -2833,52 +2842,52 @@
         <v>1</v>
       </c>
       <c r="R13" s="3">
-        <v>10</v>
+        <v>900</v>
       </c>
       <c r="S13" s="3">
-        <v>10</v>
+        <v>900</v>
       </c>
       <c r="T13" s="3">
+        <v>99</v>
+      </c>
+      <c r="U13" s="3">
         <v>70</v>
       </c>
-      <c r="U13" s="3">
-        <v>30</v>
-      </c>
       <c r="V13" s="3">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="W13" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X13" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y13" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z13" s="3">
         <v>0</v>
       </c>
       <c r="AA13" s="3">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="AB13" s="3">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="AC13" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AD13" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AF13" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="3">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="AH13" s="3">
         <v>0</v>
@@ -2899,15 +2908,15 @@
         <v>0</v>
       </c>
       <c r="AN13" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO13" s="7">
-        <v>-1</v>
+        <v>100</v>
+      </c>
+      <c r="AO13" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:41">
       <c r="A14" s="3">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B14" s="3">
         <v>140</v>
@@ -2916,10 +2925,10 @@
         <v>6</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -3024,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="AN14" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AO14" s="7">
         <v>-1</v>
@@ -3032,7 +3041,7 @@
     </row>
     <row r="15" spans="1:41">
       <c r="A15" s="3">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B15" s="3">
         <v>140</v>
@@ -3041,10 +3050,10 @@
         <v>6</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -3149,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="AN15" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AO15" s="7">
         <v>-1</v>
@@ -3157,7 +3166,7 @@
     </row>
     <row r="16" spans="1:41">
       <c r="A16" s="3">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B16" s="3">
         <v>140</v>
@@ -3166,10 +3175,10 @@
         <v>6</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -3274,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="AN16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AO16" s="7">
         <v>-1</v>
@@ -3282,7 +3291,7 @@
     </row>
     <row r="17" spans="1:41">
       <c r="A17" s="3">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B17" s="3">
         <v>140</v>
@@ -3291,10 +3300,10 @@
         <v>6</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -3399,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="AN17" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AO17" s="7">
         <v>-1</v>
@@ -3407,7 +3416,7 @@
     </row>
     <row r="18" spans="1:41">
       <c r="A18" s="3">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B18" s="3">
         <v>140</v>
@@ -3416,10 +3425,10 @@
         <v>6</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -3524,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="AN18" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AO18" s="7">
         <v>-1</v>
@@ -3532,7 +3541,7 @@
     </row>
     <row r="19" spans="1:41">
       <c r="A19" s="3">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B19" s="3">
         <v>140</v>
@@ -3541,10 +3550,10 @@
         <v>6</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -3649,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="AN19" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AO19" s="7">
         <v>-1</v>
@@ -3657,7 +3666,7 @@
     </row>
     <row r="20" spans="1:41">
       <c r="A20" s="3">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B20" s="3">
         <v>140</v>
@@ -3666,10 +3675,10 @@
         <v>6</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -3774,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="AN20" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AO20" s="7">
         <v>-1</v>
@@ -3782,7 +3791,7 @@
     </row>
     <row r="21" spans="1:41">
       <c r="A21" s="3">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B21" s="3">
         <v>140</v>
@@ -3791,10 +3800,10 @@
         <v>6</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -3899,97 +3908,347 @@
         <v>0</v>
       </c>
       <c r="AN21" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AO21" s="7">
         <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:41">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="7"/>
-      <c r="AO22" s="7"/>
+      <c r="A22" s="3">
+        <v>148</v>
+      </c>
+      <c r="B22" s="3">
+        <v>140</v>
+      </c>
+      <c r="C22" s="3">
+        <v>6</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>10</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>90</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P22" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>1</v>
+      </c>
+      <c r="R22" s="3">
+        <v>10</v>
+      </c>
+      <c r="S22" s="3">
+        <v>10</v>
+      </c>
+      <c r="T22" s="3">
+        <v>70</v>
+      </c>
+      <c r="U22" s="3">
+        <v>30</v>
+      </c>
+      <c r="V22" s="3">
+        <v>90</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL22" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO22" s="7">
+        <v>-1</v>
+      </c>
     </row>
     <row r="23" spans="1:41">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="3"/>
-      <c r="AH23" s="3"/>
-      <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
-      <c r="AK23" s="3"/>
-      <c r="AL23" s="3"/>
-      <c r="AM23" s="3"/>
-      <c r="AN23" s="7"/>
-      <c r="AO23" s="7"/>
+      <c r="A23" s="3">
+        <v>149</v>
+      </c>
+      <c r="B23" s="3">
+        <v>140</v>
+      </c>
+      <c r="C23" s="3">
+        <v>6</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>10</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I23" s="3">
+        <v>200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>200</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>90</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>1</v>
+      </c>
+      <c r="R23" s="3">
+        <v>10</v>
+      </c>
+      <c r="S23" s="3">
+        <v>10</v>
+      </c>
+      <c r="T23" s="3">
+        <v>70</v>
+      </c>
+      <c r="U23" s="3">
+        <v>30</v>
+      </c>
+      <c r="V23" s="3">
+        <v>90</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL23" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO23" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="7"/>
+      <c r="AO24" s="7"/>
+    </row>
+    <row r="25" spans="1:41">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="7"/>
+      <c r="AO25" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="25005"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="107">
   <si>
     <t>Jyx2Configs.Jyx2ConfigCharacter</t>
   </si>
@@ -33,6 +38,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>N</t>
@@ -42,6 +48,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ame</t>
@@ -261,45 +268,21 @@
     <t>莫桥山庄掌门</t>
   </si>
   <si>
-    <t>1,0</t>
-  </si>
-  <si>
-    <t>0,3|2,3|10,3|21,3</t>
-  </si>
-  <si>
     <t>何云多</t>
   </si>
   <si>
     <t>莫桥山庄弟子</t>
   </si>
   <si>
-    <t>90,100</t>
-  </si>
-  <si>
-    <t>53,1|171,50|19,3|23,5</t>
-  </si>
-  <si>
     <t>朱云天</t>
   </si>
   <si>
-    <t>55,900</t>
-  </si>
-  <si>
-    <t>1,5|7,6|14,10</t>
-  </si>
-  <si>
     <t>刘灯剑</t>
   </si>
   <si>
     <t>万烛书苑掌门</t>
   </si>
   <si>
-    <t>67,200</t>
-  </si>
-  <si>
-    <t>1,5|8,5|11,5|22,5</t>
-  </si>
-  <si>
     <t>虚寂</t>
   </si>
   <si>
@@ -309,36 +292,18 @@
     <t>钟鸣阁掌门</t>
   </si>
   <si>
-    <t>52,900</t>
-  </si>
-  <si>
-    <t>8,5|20,3|16,10</t>
-  </si>
-  <si>
     <t>王远</t>
   </si>
   <si>
     <t>将军府大将军</t>
   </si>
   <si>
-    <t>47,900</t>
-  </si>
-  <si>
-    <t>3,5|22,5|12,10</t>
-  </si>
-  <si>
     <t>佟雯</t>
   </si>
   <si>
     <t>罂粟谷掌门</t>
   </si>
   <si>
-    <t>20,900|58,900</t>
-  </si>
-  <si>
-    <t>6,5|1,5|23,5|14,10</t>
-  </si>
-  <si>
     <t>童四二</t>
   </si>
   <si>
@@ -354,20 +319,67 @@
     <t>野狼</t>
   </si>
   <si>
-    <t>75,600</t>
+    <t>-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,400</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,200</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,900</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,100</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,800|41,800</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>140,600</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,700|61,900</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,300</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,500|71,400</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -378,367 +390,45 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -746,263 +436,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,65 +473,21 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="普通" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="普通 2" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="普通 4" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="普通 3" xfId="52"/>
+    <cellStyle name="普通" xfId="1"/>
+    <cellStyle name="普通 2" xfId="2"/>
+    <cellStyle name="普通 3" xfId="4"/>
+    <cellStyle name="普通 4" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1414,31 +818,31 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="W11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="39" width="9" customWidth="1"/>
-    <col min="40" max="40" width="41.1238938053097" style="1" customWidth="1"/>
-    <col min="41" max="41" width="22.7522123893805" style="1" customWidth="1"/>
+    <col min="40" max="40" width="41.125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="22.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1533,7 +937,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -1661,7 +1065,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1780,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="AN4" s="7" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AO4" s="7" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>10</v>
       </c>
@@ -1797,10 +1201,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -1905,16 +1309,16 @@
         <v>0</v>
       </c>
       <c r="AN5" s="7" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="AO5" s="7" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AP5">
         <v>952</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>11</v>
       </c>
@@ -1925,10 +1329,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -2033,13 +1437,13 @@
         <v>0</v>
       </c>
       <c r="AN6" s="7" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="AO6" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>20</v>
       </c>
@@ -2050,10 +1454,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -2158,13 +1562,13 @@
         <v>0</v>
       </c>
       <c r="AN7" s="7" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AO7" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>30</v>
       </c>
@@ -2175,10 +1579,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -2283,13 +1687,13 @@
         <v>0</v>
       </c>
       <c r="AN8" s="7" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AO8" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>40</v>
       </c>
@@ -2300,10 +1704,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -2408,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="AN9" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AO9" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>60</v>
       </c>
@@ -2425,10 +1829,10 @@
         <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -2533,13 +1937,13 @@
         <v>0</v>
       </c>
       <c r="AN10" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AO10" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>70</v>
       </c>
@@ -2550,10 +1954,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -2658,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="AN11" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AO11" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>80</v>
       </c>
@@ -2675,13 +2079,13 @@
         <v>5</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
         <v>31</v>
@@ -2783,13 +2187,13 @@
         <v>0</v>
       </c>
       <c r="AN12" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AO12" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>90</v>
       </c>
@@ -2800,10 +2204,10 @@
         <v>5</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -2908,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="AN13" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AO13" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>140</v>
       </c>
@@ -2925,10 +2329,10 @@
         <v>6</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -3033,13 +2437,13 @@
         <v>0</v>
       </c>
       <c r="AN14" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO14" s="7">
-        <v>-1</v>
+        <v>101</v>
+      </c>
+      <c r="AO14" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>141</v>
       </c>
@@ -3050,10 +2454,10 @@
         <v>6</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -3158,13 +2562,13 @@
         <v>0</v>
       </c>
       <c r="AN15" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AO15" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>142</v>
       </c>
@@ -3175,10 +2579,10 @@
         <v>6</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -3283,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="AN16" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AO16" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>143</v>
       </c>
@@ -3300,10 +2704,10 @@
         <v>6</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -3408,13 +2812,13 @@
         <v>0</v>
       </c>
       <c r="AN17" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AO17" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>144</v>
       </c>
@@ -3425,10 +2829,10 @@
         <v>6</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -3533,13 +2937,13 @@
         <v>0</v>
       </c>
       <c r="AN18" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AO18" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>145</v>
       </c>
@@ -3550,10 +2954,10 @@
         <v>6</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -3658,13 +3062,13 @@
         <v>0</v>
       </c>
       <c r="AN19" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AO19" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>146</v>
       </c>
@@ -3675,10 +3079,10 @@
         <v>6</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -3783,13 +3187,13 @@
         <v>0</v>
       </c>
       <c r="AN20" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AO20" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>147</v>
       </c>
@@ -3800,10 +3204,10 @@
         <v>6</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -3908,13 +3312,13 @@
         <v>0</v>
       </c>
       <c r="AN21" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AO21" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>148</v>
       </c>
@@ -3925,10 +3329,10 @@
         <v>6</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -4033,13 +3437,13 @@
         <v>0</v>
       </c>
       <c r="AN22" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AO22" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>149</v>
       </c>
@@ -4050,10 +3454,10 @@
         <v>6</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -4158,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="AN23" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AO23" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4207,7 +3611,7 @@
       <c r="AN24" s="7"/>
       <c r="AO24" s="7"/>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4251,8 +3655,9 @@
       <c r="AO25" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25005"/>
+    <workbookView windowWidth="16200" windowHeight="25005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="110">
   <si>
     <t>Jyx2Configs.Jyx2ConfigCharacter</t>
   </si>
@@ -38,7 +33,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>N</t>
@@ -48,7 +42,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ame</t>
@@ -268,42 +261,78 @@
     <t>莫桥山庄掌门</t>
   </si>
   <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
     <t>何云多</t>
   </si>
   <si>
     <t>莫桥山庄弟子</t>
   </si>
   <si>
+    <t>10,400</t>
+  </si>
+  <si>
     <t>朱云天</t>
   </si>
   <si>
+    <t>10,200</t>
+  </si>
+  <si>
     <t>刘灯剑</t>
   </si>
   <si>
     <t>万烛书苑掌门</t>
   </si>
   <si>
+    <t>20,900</t>
+  </si>
+  <si>
     <t>虚寂</t>
   </si>
   <si>
+    <t>30,100</t>
+  </si>
+  <si>
+    <t>寿眉大师</t>
+  </si>
+  <si>
+    <t>茶恩寺住持方丈</t>
+  </si>
+  <si>
+    <t>30,900|31,900|32,900</t>
+  </si>
+  <si>
     <t>萨擎苍</t>
   </si>
   <si>
     <t>钟鸣阁掌门</t>
   </si>
   <si>
+    <t>40,800|41,800</t>
+  </si>
+  <si>
     <t>王远</t>
   </si>
   <si>
     <t>将军府大将军</t>
   </si>
   <si>
+    <t>60,700|61,900</t>
+  </si>
+  <si>
     <t>佟雯</t>
   </si>
   <si>
     <t>罂粟谷掌门</t>
   </si>
   <si>
+    <t>70,500|71,400</t>
+  </si>
+  <si>
     <t>童四二</t>
   </si>
   <si>
@@ -313,73 +342,38 @@
     <t>牛妞妞</t>
   </si>
   <si>
+    <t>牛头岭庄主女儿</t>
+  </si>
+  <si>
+    <t>90,300</t>
+  </si>
+  <si>
+    <t>牛不三</t>
+  </si>
+  <si>
     <t>牛头岭庄主牛不扭的女儿</t>
   </si>
   <si>
+    <t>90,800</t>
+  </si>
+  <si>
     <t>野狼</t>
   </si>
   <si>
-    <t>-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,400</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,200</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,900</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,100</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,800|41,800</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>140,600</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,700|61,900</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>90,300</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>70,500|71,400</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -390,45 +384,373 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -436,21 +758,263 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -473,21 +1037,65 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1"/>
-    <cellStyle name="普通 2" xfId="2"/>
-    <cellStyle name="普通 3" xfId="4"/>
-    <cellStyle name="普通 4" xfId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="普通 4" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -818,31 +1426,31 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AP27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W11" sqref="A11:XFD11"/>
+      <selection activeCell="AC15" sqref="$A15:$XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="6" max="39" width="9" customWidth="1"/>
-    <col min="40" max="40" width="41.125" style="1" customWidth="1"/>
-    <col min="41" max="41" width="22.75" style="1" customWidth="1"/>
+    <col min="40" max="40" width="41.1238938053097" style="1" customWidth="1"/>
+    <col min="41" max="41" width="22.7522123893805" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -937,7 +1545,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -1065,7 +1673,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1184,13 +1792,13 @@
         <v>0</v>
       </c>
       <c r="AN4" s="7" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AO4" s="7" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42">
       <c r="A5" s="3">
         <v>10</v>
       </c>
@@ -1201,10 +1809,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -1309,16 +1917,16 @@
         <v>0</v>
       </c>
       <c r="AN5" s="7" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="AO5" s="7" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="AP5">
         <v>952</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41">
       <c r="A6" s="3">
         <v>11</v>
       </c>
@@ -1329,10 +1937,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -1437,13 +2045,13 @@
         <v>0</v>
       </c>
       <c r="AN6" s="7" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AO6" s="7" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41">
       <c r="A7" s="3">
         <v>20</v>
       </c>
@@ -1454,10 +2062,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -1562,13 +2170,13 @@
         <v>0</v>
       </c>
       <c r="AN7" s="7" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="AO7" s="7" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41">
       <c r="A8" s="3">
         <v>30</v>
       </c>
@@ -1579,10 +2187,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -1687,27 +2295,27 @@
         <v>0</v>
       </c>
       <c r="AN8" s="7" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="AO8" s="7" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41">
       <c r="A9" s="3">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3">
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -1812,42 +2420,42 @@
         <v>0</v>
       </c>
       <c r="AN9" s="7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AO9" s="7" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41">
       <c r="A10" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B10" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C10" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H10" s="3">
-        <v>9250</v>
+        <v>16250</v>
       </c>
       <c r="I10" s="3">
-        <v>356</v>
+        <v>260</v>
       </c>
       <c r="J10" s="3">
-        <v>356</v>
+        <v>260</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -1871,177 +2479,177 @@
         <v>0</v>
       </c>
       <c r="R10" s="3">
+        <v>400</v>
+      </c>
+      <c r="S10" s="3">
+        <v>400</v>
+      </c>
+      <c r="T10" s="3">
+        <v>80</v>
+      </c>
+      <c r="U10" s="3">
+        <v>66</v>
+      </c>
+      <c r="V10" s="3">
+        <v>90</v>
+      </c>
+      <c r="W10" s="3">
+        <v>10</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>70</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>40</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>60</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="3">
+        <v>50</v>
+      </c>
+      <c r="AL10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO10" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="A11" s="3">
+        <v>60</v>
+      </c>
+      <c r="B11" s="3">
+        <v>60</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>16</v>
+      </c>
+      <c r="H11" s="3">
+        <v>9250</v>
+      </c>
+      <c r="I11" s="3">
+        <v>356</v>
+      </c>
+      <c r="J11" s="3">
+        <v>356</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>90</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
         <v>360</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S11" s="3">
         <v>360</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T11" s="3">
         <v>70</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U11" s="3">
         <v>58</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V11" s="3">
         <v>76</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>10</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>10</v>
-      </c>
-      <c r="AE10" s="3">
-        <v>10</v>
-      </c>
-      <c r="AF10" s="3">
-        <v>10</v>
-      </c>
-      <c r="AG10" s="3">
+      <c r="W11" s="3">
+        <v>0</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG11" s="3">
         <v>50</v>
-      </c>
-      <c r="AH10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="3">
-        <v>60</v>
-      </c>
-      <c r="AL10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AM10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO10" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>70</v>
-      </c>
-      <c r="B11" s="3">
-        <v>70</v>
-      </c>
-      <c r="C11" s="3">
-        <v>5</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>31</v>
-      </c>
-      <c r="H11" s="3">
-        <v>-9036</v>
-      </c>
-      <c r="I11" s="3">
-        <v>485</v>
-      </c>
-      <c r="J11" s="3">
-        <v>485</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
-        <v>67</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>1</v>
-      </c>
-      <c r="R11" s="3">
-        <v>900</v>
-      </c>
-      <c r="S11" s="3">
-        <v>900</v>
-      </c>
-      <c r="T11" s="3">
-        <v>99</v>
-      </c>
-      <c r="U11" s="3">
-        <v>70</v>
-      </c>
-      <c r="V11" s="3">
-        <v>99</v>
-      </c>
-      <c r="W11" s="3">
-        <v>10</v>
-      </c>
-      <c r="X11" s="3">
-        <v>10</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>15</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>98</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>89</v>
-      </c>
-      <c r="AC11" s="3">
-        <v>50</v>
-      </c>
-      <c r="AD11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="3">
-        <v>20</v>
-      </c>
-      <c r="AF11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="3">
-        <v>95</v>
       </c>
       <c r="AH11" s="3">
         <v>0</v>
@@ -2062,30 +2670,30 @@
         <v>0</v>
       </c>
       <c r="AN11" s="7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="AO11" s="7" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41">
       <c r="A12" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B12" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C12" s="3">
         <v>5</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="3">
         <v>31</v>
@@ -2187,30 +2795,30 @@
         <v>0</v>
       </c>
       <c r="AN12" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="AO12" s="7" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41">
       <c r="A13" s="3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B13" s="3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C13" s="3">
         <v>5</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="3">
         <v>31</v>
@@ -2312,42 +2920,42 @@
         <v>0</v>
       </c>
       <c r="AN13" s="7" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="AO13" s="7" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41">
       <c r="A14" s="3">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="B14" s="3">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="C14" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H14" s="3">
-        <v>2250</v>
+        <v>-9036</v>
       </c>
       <c r="I14" s="3">
-        <v>200</v>
+        <v>485</v>
       </c>
       <c r="J14" s="3">
-        <v>200</v>
+        <v>485</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -2356,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -2371,52 +2979,52 @@
         <v>1</v>
       </c>
       <c r="R14" s="3">
-        <v>10</v>
+        <v>900</v>
       </c>
       <c r="S14" s="3">
-        <v>10</v>
+        <v>900</v>
       </c>
       <c r="T14" s="3">
+        <v>99</v>
+      </c>
+      <c r="U14" s="3">
         <v>70</v>
       </c>
-      <c r="U14" s="3">
-        <v>30</v>
-      </c>
       <c r="V14" s="3">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="W14" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X14" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y14" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
       <c r="AA14" s="3">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="AB14" s="3">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="AC14" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AD14" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AF14" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="3">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="AH14" s="3">
         <v>0</v>
@@ -2437,42 +3045,42 @@
         <v>0</v>
       </c>
       <c r="AN14" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AO14" s="7" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41">
       <c r="A15" s="3">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="B15" s="3">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="C15" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H15" s="3">
-        <v>2250</v>
+        <v>9250</v>
       </c>
       <c r="I15" s="3">
-        <v>200</v>
+        <v>356</v>
       </c>
       <c r="J15" s="3">
-        <v>200</v>
+        <v>356</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -2493,22 +3101,22 @@
         <v>-1</v>
       </c>
       <c r="Q15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>10</v>
+        <v>360</v>
       </c>
       <c r="S15" s="3">
-        <v>10</v>
+        <v>360</v>
       </c>
       <c r="T15" s="3">
         <v>70</v>
       </c>
       <c r="U15" s="3">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="V15" s="3">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -2562,15 +3170,15 @@
         <v>0</v>
       </c>
       <c r="AN15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO15" s="7">
-        <v>-1</v>
+        <v>107</v>
+      </c>
+      <c r="AO15" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41">
       <c r="A16" s="3">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B16" s="3">
         <v>140</v>
@@ -2579,10 +3187,10 @@
         <v>6</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -2687,15 +3295,15 @@
         <v>0</v>
       </c>
       <c r="AN16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO16" s="7">
-        <v>-1</v>
+        <v>109</v>
+      </c>
+      <c r="AO16" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41">
       <c r="A17" s="3">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B17" s="3">
         <v>140</v>
@@ -2704,10 +3312,10 @@
         <v>6</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -2812,15 +3420,15 @@
         <v>0</v>
       </c>
       <c r="AN17" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="AO17" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41">
       <c r="A18" s="3">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B18" s="3">
         <v>140</v>
@@ -2829,10 +3437,10 @@
         <v>6</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -2937,15 +3545,15 @@
         <v>0</v>
       </c>
       <c r="AN18" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="AO18" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41">
       <c r="A19" s="3">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B19" s="3">
         <v>140</v>
@@ -2954,10 +3562,10 @@
         <v>6</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -3062,15 +3670,15 @@
         <v>0</v>
       </c>
       <c r="AN19" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="AO19" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41">
       <c r="A20" s="3">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B20" s="3">
         <v>140</v>
@@ -3079,10 +3687,10 @@
         <v>6</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -3187,15 +3795,15 @@
         <v>0</v>
       </c>
       <c r="AN20" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="AO20" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41">
       <c r="A21" s="3">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B21" s="3">
         <v>140</v>
@@ -3204,10 +3812,10 @@
         <v>6</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -3312,15 +3920,15 @@
         <v>0</v>
       </c>
       <c r="AN21" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="AO21" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41">
       <c r="A22" s="3">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B22" s="3">
         <v>140</v>
@@ -3329,10 +3937,10 @@
         <v>6</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -3437,15 +4045,15 @@
         <v>0</v>
       </c>
       <c r="AN22" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="AO22" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41">
       <c r="A23" s="3">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B23" s="3">
         <v>140</v>
@@ -3454,10 +4062,10 @@
         <v>6</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -3562,102 +4170,351 @@
         <v>0</v>
       </c>
       <c r="AN23" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="AO23" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="3"/>
-      <c r="AH24" s="3"/>
-      <c r="AI24" s="3"/>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="3"/>
-      <c r="AL24" s="3"/>
-      <c r="AM24" s="3"/>
-      <c r="AN24" s="7"/>
-      <c r="AO24" s="7"/>
+    <row r="24" spans="1:41">
+      <c r="A24" s="3">
+        <v>148</v>
+      </c>
+      <c r="B24" s="3">
+        <v>140</v>
+      </c>
+      <c r="C24" s="3">
+        <v>6</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>10</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I24" s="3">
+        <v>200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>200</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>90</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P24" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>1</v>
+      </c>
+      <c r="R24" s="3">
+        <v>10</v>
+      </c>
+      <c r="S24" s="3">
+        <v>10</v>
+      </c>
+      <c r="T24" s="3">
+        <v>70</v>
+      </c>
+      <c r="U24" s="3">
+        <v>30</v>
+      </c>
+      <c r="V24" s="3">
+        <v>90</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL24" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO24" s="7">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
-      <c r="AH25" s="3"/>
-      <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="3"/>
-      <c r="AM25" s="3"/>
-      <c r="AN25" s="7"/>
-      <c r="AO25" s="7"/>
+    <row r="25" spans="1:41">
+      <c r="A25" s="3">
+        <v>149</v>
+      </c>
+      <c r="B25" s="3">
+        <v>140</v>
+      </c>
+      <c r="C25" s="3">
+        <v>6</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>10</v>
+      </c>
+      <c r="H25" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I25" s="3">
+        <v>200</v>
+      </c>
+      <c r="J25" s="3">
+        <v>200</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>90</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P25" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>1</v>
+      </c>
+      <c r="R25" s="3">
+        <v>10</v>
+      </c>
+      <c r="S25" s="3">
+        <v>10</v>
+      </c>
+      <c r="T25" s="3">
+        <v>70</v>
+      </c>
+      <c r="U25" s="3">
+        <v>30</v>
+      </c>
+      <c r="V25" s="3">
+        <v>90</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL25" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO25" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="7"/>
+      <c r="AO26" s="7"/>
+    </row>
+    <row r="27" spans="1:41">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="7"/>
+      <c r="AO27" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="25005"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="118">
   <si>
     <t>Jyx2Configs.Jyx2ConfigCharacter</t>
   </si>
@@ -336,44 +341,71 @@
     <t>童四二</t>
   </si>
   <si>
+    <t>牛妞妞</t>
+  </si>
+  <si>
+    <t>牛头岭庄主女儿</t>
+  </si>
+  <si>
+    <t>90,300</t>
+  </si>
+  <si>
+    <t>牛不三</t>
+  </si>
+  <si>
+    <t>牛头岭庄主牛不扭的女儿</t>
+  </si>
+  <si>
+    <t>90,800</t>
+  </si>
+  <si>
+    <t>野狼</t>
+  </si>
+  <si>
+    <t>140,600</t>
+  </si>
+  <si>
+    <t>钟鸣阁弟子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟鸣阁弟子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>42,800</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周璟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏格多</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>鸽子楼徐谦收留的弟子</t>
-  </si>
-  <si>
-    <t>牛妞妞</t>
-  </si>
-  <si>
-    <t>牛头岭庄主女儿</t>
-  </si>
-  <si>
-    <t>90,300</t>
-  </si>
-  <si>
-    <t>牛不三</t>
-  </si>
-  <si>
-    <t>牛头岭庄主牛不扭的女儿</t>
-  </si>
-  <si>
-    <t>90,800</t>
-  </si>
-  <si>
-    <t>野狼</t>
-  </si>
-  <si>
-    <t>140,600</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终boss</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>62,900</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -384,7 +416,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -399,358 +431,33 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -758,267 +465,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1036,66 +501,23 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="普通" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="普通 2" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="普通 4" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="普通 3" xfId="52"/>
+    <cellStyle name="普通" xfId="1"/>
+    <cellStyle name="普通 2" xfId="2"/>
+    <cellStyle name="普通 3" xfId="4"/>
+    <cellStyle name="普通 4" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1426,31 +848,31 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AP27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC15" sqref="$A15:$XFD15"/>
+      <selection activeCell="W14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="39" width="9" customWidth="1"/>
-    <col min="40" max="40" width="41.1238938053097" style="1" customWidth="1"/>
-    <col min="41" max="41" width="22.7522123893805" style="1" customWidth="1"/>
+    <col min="40" max="40" width="41.125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="22.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1545,7 +967,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -1673,7 +1095,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1798,7 +1220,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>10</v>
       </c>
@@ -1926,7 +1348,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>11</v>
       </c>
@@ -2051,7 +1473,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>20</v>
       </c>
@@ -2176,7 +1598,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>30</v>
       </c>
@@ -2301,7 +1723,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>31</v>
       </c>
@@ -2426,7 +1848,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>40</v>
       </c>
@@ -2551,36 +1973,36 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B11" s="3">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3">
-        <v>7</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>95</v>
+        <v>4</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H11" s="3">
-        <v>9250</v>
+        <v>16250</v>
       </c>
       <c r="I11" s="3">
-        <v>356</v>
+        <v>260</v>
       </c>
       <c r="J11" s="3">
-        <v>356</v>
+        <v>260</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
@@ -2604,65 +2026,65 @@
         <v>0</v>
       </c>
       <c r="R11" s="3">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="S11" s="3">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="T11" s="3">
+        <v>80</v>
+      </c>
+      <c r="U11" s="3">
+        <v>66</v>
+      </c>
+      <c r="V11" s="3">
+        <v>90</v>
+      </c>
+      <c r="W11" s="3">
+        <v>10</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="3">
         <v>70</v>
       </c>
-      <c r="U11" s="3">
-        <v>58</v>
-      </c>
-      <c r="V11" s="3">
-        <v>76</v>
-      </c>
-      <c r="W11" s="3">
-        <v>0</v>
-      </c>
-      <c r="X11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>10</v>
-      </c>
       <c r="AC11" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AF11" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="3">
+        <v>60</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="3">
         <v>50</v>
       </c>
-      <c r="AH11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="3">
-        <v>60</v>
-      </c>
       <c r="AL11" s="3">
         <v>-1</v>
       </c>
@@ -2670,124 +2092,124 @@
         <v>0</v>
       </c>
       <c r="AN11" s="7" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="AO11" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
+        <v>42</v>
+      </c>
+      <c r="B12" s="3">
+        <v>42</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>20</v>
+      </c>
+      <c r="H12" s="3">
+        <v>16250</v>
+      </c>
+      <c r="I12" s="3">
+        <v>260</v>
+      </c>
+      <c r="J12" s="3">
+        <v>260</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>90</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>400</v>
+      </c>
+      <c r="S12" s="3">
+        <v>400</v>
+      </c>
+      <c r="T12" s="3">
+        <v>80</v>
+      </c>
+      <c r="U12" s="3">
+        <v>66</v>
+      </c>
+      <c r="V12" s="3">
+        <v>90</v>
+      </c>
+      <c r="W12" s="3">
+        <v>10</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3">
         <v>70</v>
       </c>
-      <c r="B12" s="3">
-        <v>70</v>
-      </c>
-      <c r="C12" s="3">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>31</v>
-      </c>
-      <c r="H12" s="3">
-        <v>-9036</v>
-      </c>
-      <c r="I12" s="3">
-        <v>485</v>
-      </c>
-      <c r="J12" s="3">
-        <v>485</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>67</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1</v>
-      </c>
-      <c r="R12" s="3">
-        <v>900</v>
-      </c>
-      <c r="S12" s="3">
-        <v>900</v>
-      </c>
-      <c r="T12" s="3">
-        <v>99</v>
-      </c>
-      <c r="U12" s="3">
-        <v>70</v>
-      </c>
-      <c r="V12" s="3">
-        <v>99</v>
-      </c>
-      <c r="W12" s="3">
-        <v>10</v>
-      </c>
-      <c r="X12" s="3">
-        <v>10</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>15</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>98</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>89</v>
-      </c>
       <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>40</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>60</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="3">
         <v>50</v>
       </c>
-      <c r="AD12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="3">
-        <v>20</v>
-      </c>
-      <c r="AF12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="3">
-        <v>95</v>
-      </c>
-      <c r="AH12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="3">
-        <v>60</v>
-      </c>
       <c r="AL12" s="3">
         <v>-1</v>
       </c>
@@ -2795,42 +2217,42 @@
         <v>0</v>
       </c>
       <c r="AN12" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="AO12" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B13" s="3">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C13" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H13" s="3">
-        <v>-9036</v>
+        <v>9250</v>
       </c>
       <c r="I13" s="3">
-        <v>485</v>
+        <v>356</v>
       </c>
       <c r="J13" s="3">
-        <v>485</v>
+        <v>356</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
@@ -2839,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="3">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="N13" s="3">
         <v>0</v>
@@ -2851,55 +2273,55 @@
         <v>-1</v>
       </c>
       <c r="Q13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="3">
-        <v>900</v>
+        <v>360</v>
       </c>
       <c r="S13" s="3">
-        <v>900</v>
+        <v>360</v>
       </c>
       <c r="T13" s="3">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="U13" s="3">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="V13" s="3">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="W13" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X13" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="3">
         <v>0</v>
       </c>
       <c r="AA13" s="3">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="AB13" s="3">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="AC13" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG13" s="3">
         <v>50</v>
-      </c>
-      <c r="AD13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="3">
-        <v>20</v>
-      </c>
-      <c r="AF13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="3">
-        <v>95</v>
       </c>
       <c r="AH13" s="3">
         <v>0</v>
@@ -2920,33 +2342,33 @@
         <v>0</v>
       </c>
       <c r="AN13" s="7" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AO13" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B14" s="3">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C14" s="3">
         <v>5</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>103</v>
+      <c r="D14" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="3">
         <v>-9036</v>
@@ -3045,42 +2467,42 @@
         <v>0</v>
       </c>
       <c r="AN14" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="AO14" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B15" s="3">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C15" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="3">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H15" s="3">
-        <v>9250</v>
+        <v>-9036</v>
       </c>
       <c r="I15" s="3">
-        <v>356</v>
+        <v>485</v>
       </c>
       <c r="J15" s="3">
-        <v>356</v>
+        <v>485</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -3089,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -3101,55 +2523,55 @@
         <v>-1</v>
       </c>
       <c r="Q15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="3">
-        <v>360</v>
+        <v>900</v>
       </c>
       <c r="S15" s="3">
-        <v>360</v>
+        <v>900</v>
       </c>
       <c r="T15" s="3">
+        <v>99</v>
+      </c>
+      <c r="U15" s="3">
         <v>70</v>
       </c>
-      <c r="U15" s="3">
-        <v>58</v>
-      </c>
       <c r="V15" s="3">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="W15" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X15" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y15" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
       </c>
       <c r="AA15" s="3">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="AB15" s="3">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="AC15" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AD15" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AF15" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="3">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="AH15" s="3">
         <v>0</v>
@@ -3170,42 +2592,42 @@
         <v>0</v>
       </c>
       <c r="AN15" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="AO15" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="B16" s="3">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="C16" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H16" s="3">
-        <v>2250</v>
+        <v>-9036</v>
       </c>
       <c r="I16" s="3">
-        <v>200</v>
+        <v>485</v>
       </c>
       <c r="J16" s="3">
-        <v>200</v>
+        <v>485</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
@@ -3214,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="3">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="N16" s="3">
         <v>0</v>
@@ -3229,52 +2651,52 @@
         <v>1</v>
       </c>
       <c r="R16" s="3">
-        <v>10</v>
+        <v>900</v>
       </c>
       <c r="S16" s="3">
-        <v>10</v>
+        <v>900</v>
       </c>
       <c r="T16" s="3">
+        <v>99</v>
+      </c>
+      <c r="U16" s="3">
         <v>70</v>
       </c>
-      <c r="U16" s="3">
-        <v>30</v>
-      </c>
       <c r="V16" s="3">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="W16" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X16" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y16" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z16" s="3">
         <v>0</v>
       </c>
       <c r="AA16" s="3">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="AB16" s="3">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="AC16" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AD16" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AF16" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="3">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="AH16" s="3">
         <v>0</v>
@@ -3295,42 +2717,42 @@
         <v>0</v>
       </c>
       <c r="AN16" s="7" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AO16" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="B17" s="3">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="C17" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H17" s="3">
-        <v>2250</v>
+        <v>-9036</v>
       </c>
       <c r="I17" s="3">
-        <v>200</v>
+        <v>485</v>
       </c>
       <c r="J17" s="3">
-        <v>200</v>
+        <v>485</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -3339,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
@@ -3354,52 +2776,52 @@
         <v>1</v>
       </c>
       <c r="R17" s="3">
-        <v>10</v>
+        <v>900</v>
       </c>
       <c r="S17" s="3">
-        <v>10</v>
+        <v>900</v>
       </c>
       <c r="T17" s="3">
+        <v>99</v>
+      </c>
+      <c r="U17" s="3">
         <v>70</v>
       </c>
-      <c r="U17" s="3">
-        <v>30</v>
-      </c>
       <c r="V17" s="3">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="W17" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X17" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y17" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z17" s="3">
         <v>0</v>
       </c>
       <c r="AA17" s="3">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="AB17" s="3">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="AC17" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AD17" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AF17" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="3">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="AH17" s="3">
         <v>0</v>
@@ -3420,42 +2842,42 @@
         <v>0</v>
       </c>
       <c r="AN17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO17" s="7">
-        <v>-1</v>
+        <v>103</v>
+      </c>
+      <c r="AO17" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="B18" s="3">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H18" s="3">
-        <v>2250</v>
+        <v>9250</v>
       </c>
       <c r="I18" s="3">
-        <v>200</v>
+        <v>356</v>
       </c>
       <c r="J18" s="3">
-        <v>200</v>
+        <v>356</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -3476,22 +2898,22 @@
         <v>-1</v>
       </c>
       <c r="Q18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>10</v>
+        <v>360</v>
       </c>
       <c r="S18" s="3">
-        <v>10</v>
+        <v>360</v>
       </c>
       <c r="T18" s="3">
         <v>70</v>
       </c>
       <c r="U18" s="3">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="V18" s="3">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="W18" s="3">
         <v>0</v>
@@ -3545,15 +2967,15 @@
         <v>0</v>
       </c>
       <c r="AN18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO18" s="7">
-        <v>-1</v>
+        <v>106</v>
+      </c>
+      <c r="AO18" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B19" s="3">
         <v>140</v>
@@ -3562,10 +2984,10 @@
         <v>6</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -3670,15 +3092,15 @@
         <v>0</v>
       </c>
       <c r="AN19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO19" s="7">
-        <v>-1</v>
+        <v>108</v>
+      </c>
+      <c r="AO19" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B20" s="3">
         <v>140</v>
@@ -3687,10 +3109,10 @@
         <v>6</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -3795,15 +3217,15 @@
         <v>0</v>
       </c>
       <c r="AN20" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AO20" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B21" s="3">
         <v>140</v>
@@ -3812,10 +3234,10 @@
         <v>6</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -3920,15 +3342,15 @@
         <v>0</v>
       </c>
       <c r="AN21" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AO21" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B22" s="3">
         <v>140</v>
@@ -3937,10 +3359,10 @@
         <v>6</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -4045,15 +3467,15 @@
         <v>0</v>
       </c>
       <c r="AN22" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AO22" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B23" s="3">
         <v>140</v>
@@ -4062,10 +3484,10 @@
         <v>6</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -4170,15 +3592,15 @@
         <v>0</v>
       </c>
       <c r="AN23" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AO23" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B24" s="3">
         <v>140</v>
@@ -4187,10 +3609,10 @@
         <v>6</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -4295,15 +3717,15 @@
         <v>0</v>
       </c>
       <c r="AN24" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AO24" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B25" s="3">
         <v>140</v>
@@ -4312,10 +3734,10 @@
         <v>6</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
@@ -4420,101 +3842,477 @@
         <v>0</v>
       </c>
       <c r="AN25" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AO25" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3"/>
-      <c r="AJ26" s="3"/>
-      <c r="AK26" s="3"/>
-      <c r="AL26" s="3"/>
-      <c r="AM26" s="3"/>
-      <c r="AN26" s="7"/>
-      <c r="AO26" s="7"/>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>147</v>
+      </c>
+      <c r="B26" s="3">
+        <v>140</v>
+      </c>
+      <c r="C26" s="3">
+        <v>6</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>10</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I26" s="3">
+        <v>200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>200</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>90</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>1</v>
+      </c>
+      <c r="R26" s="3">
+        <v>10</v>
+      </c>
+      <c r="S26" s="3">
+        <v>10</v>
+      </c>
+      <c r="T26" s="3">
+        <v>70</v>
+      </c>
+      <c r="U26" s="3">
+        <v>30</v>
+      </c>
+      <c r="V26" s="3">
+        <v>90</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL26" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO26" s="7">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="27" spans="1:41">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="3"/>
-      <c r="AH27" s="3"/>
-      <c r="AI27" s="3"/>
-      <c r="AJ27" s="3"/>
-      <c r="AK27" s="3"/>
-      <c r="AL27" s="3"/>
-      <c r="AM27" s="3"/>
-      <c r="AN27" s="7"/>
-      <c r="AO27" s="7"/>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>148</v>
+      </c>
+      <c r="B27" s="3">
+        <v>140</v>
+      </c>
+      <c r="C27" s="3">
+        <v>6</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>10</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I27" s="3">
+        <v>200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>200</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>90</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>1</v>
+      </c>
+      <c r="R27" s="3">
+        <v>10</v>
+      </c>
+      <c r="S27" s="3">
+        <v>10</v>
+      </c>
+      <c r="T27" s="3">
+        <v>70</v>
+      </c>
+      <c r="U27" s="3">
+        <v>30</v>
+      </c>
+      <c r="V27" s="3">
+        <v>90</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL27" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO27" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>149</v>
+      </c>
+      <c r="B28" s="3">
+        <v>140</v>
+      </c>
+      <c r="C28" s="3">
+        <v>6</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>10</v>
+      </c>
+      <c r="H28" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I28" s="3">
+        <v>200</v>
+      </c>
+      <c r="J28" s="3">
+        <v>200</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>90</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>1</v>
+      </c>
+      <c r="R28" s="3">
+        <v>10</v>
+      </c>
+      <c r="S28" s="3">
+        <v>10</v>
+      </c>
+      <c r="T28" s="3">
+        <v>70</v>
+      </c>
+      <c r="U28" s="3">
+        <v>30</v>
+      </c>
+      <c r="V28" s="3">
+        <v>90</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG28" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO28" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="7"/>
+      <c r="AO29" s="7"/>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="7"/>
+      <c r="AO30" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25005"/>
+    <workbookView windowWidth="16200" windowHeight="25005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="119">
   <si>
     <t>Jyx2Configs.Jyx2ConfigCharacter</t>
   </si>
@@ -299,6 +294,9 @@
     <t>虚寂</t>
   </si>
   <si>
+    <t>茶恩寺弟子</t>
+  </si>
+  <si>
     <t>30,100</t>
   </si>
   <si>
@@ -317,7 +315,22 @@
     <t>钟鸣阁掌门</t>
   </si>
   <si>
-    <t>40,800|41,800</t>
+    <t>40,900|41,900</t>
+  </si>
+  <si>
+    <t>周理</t>
+  </si>
+  <si>
+    <t>钟鸣阁弟子</t>
+  </si>
+  <si>
+    <t>42,900</t>
+  </si>
+  <si>
+    <t>周璟</t>
+  </si>
+  <si>
+    <t>42,800</t>
   </si>
   <si>
     <t>王远</t>
@@ -329,6 +342,15 @@
     <t>60,700|61,900</t>
   </si>
   <si>
+    <t>伏格多</t>
+  </si>
+  <si>
+    <t>最终boss</t>
+  </si>
+  <si>
+    <t>62,900</t>
+  </si>
+  <si>
     <t>佟雯</t>
   </si>
   <si>
@@ -341,6 +363,9 @@
     <t>童四二</t>
   </si>
   <si>
+    <t>鸽子楼徐谦收留的弟子</t>
+  </si>
+  <si>
     <t>牛妞妞</t>
   </si>
   <si>
@@ -363,49 +388,19 @@
   </si>
   <si>
     <t>140,600</t>
-  </si>
-  <si>
-    <t>钟鸣阁弟子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>钟鸣阁弟子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>42,800</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>周理</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>周璟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>伏格多</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸽子楼徐谦收留的弟子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终boss</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>62,900</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -416,7 +411,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -431,33 +426,352 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -465,25 +779,267 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -501,23 +1057,66 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1"/>
-    <cellStyle name="普通 2" xfId="2"/>
-    <cellStyle name="普通 3" xfId="4"/>
-    <cellStyle name="普通 4" xfId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="普通 4" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -848,31 +1447,31 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AP30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="6" max="39" width="9" customWidth="1"/>
-    <col min="40" max="40" width="41.125" style="1" customWidth="1"/>
-    <col min="41" max="41" width="22.75" style="1" customWidth="1"/>
+    <col min="40" max="40" width="41.1238938053097" style="1" customWidth="1"/>
+    <col min="41" max="41" width="22.7522123893805" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -967,7 +1566,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -1095,7 +1694,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1220,7 +1819,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42">
       <c r="A5" s="3">
         <v>10</v>
       </c>
@@ -1240,16 +1839,16 @@
         <v>0</v>
       </c>
       <c r="G5" s="3">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H5" s="3">
-        <v>50</v>
+        <v>9250</v>
       </c>
       <c r="I5" s="3">
-        <v>26</v>
+        <v>308</v>
       </c>
       <c r="J5" s="3">
-        <v>26</v>
+        <v>308</v>
       </c>
       <c r="K5" s="3">
         <v>0</v>
@@ -1273,37 +1872,37 @@
         <v>0</v>
       </c>
       <c r="R5" s="3">
-        <v>16</v>
+        <v>350</v>
       </c>
       <c r="S5" s="3">
-        <v>16</v>
+        <v>350</v>
       </c>
       <c r="T5" s="3">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="U5" s="3">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="V5" s="3">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="W5" s="3">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="X5" s="3">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="3">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="3">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="3">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AC5" s="3">
         <v>0</v>
@@ -1312,13 +1911,13 @@
         <v>0</v>
       </c>
       <c r="AE5" s="3">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="AF5" s="3">
         <v>0</v>
       </c>
       <c r="AG5" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AH5" s="3">
         <v>0</v>
@@ -1330,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="3">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AL5" s="3">
         <v>-1</v>
@@ -1348,7 +1947,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41">
       <c r="A6" s="3">
         <v>11</v>
       </c>
@@ -1368,16 +1967,16 @@
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H6" s="3">
-        <v>28150</v>
+        <v>2250</v>
       </c>
       <c r="I6" s="3">
-        <v>380</v>
+        <v>110</v>
       </c>
       <c r="J6" s="3">
-        <v>380</v>
+        <v>110</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
@@ -1398,67 +1997,67 @@
         <v>-1</v>
       </c>
       <c r="Q6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="3">
-        <v>520</v>
+        <v>88</v>
       </c>
       <c r="S6" s="3">
-        <v>520</v>
+        <v>88</v>
       </c>
       <c r="T6" s="3">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="U6" s="3">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="V6" s="3">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="W6" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X6" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="3">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="AB6" s="3">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="AC6" s="3">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AD6" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="3">
+        <v>14</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="3">
         <v>40</v>
-      </c>
-      <c r="AF6" s="3">
-        <v>5</v>
-      </c>
-      <c r="AG6" s="3">
-        <v>90</v>
-      </c>
-      <c r="AH6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="3">
-        <v>50</v>
       </c>
       <c r="AL6" s="3">
         <v>-1</v>
@@ -1473,7 +2072,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41">
       <c r="A7" s="3">
         <v>20</v>
       </c>
@@ -1493,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="H7" s="3">
-        <v>300</v>
+        <v>-30036</v>
       </c>
       <c r="I7" s="3">
-        <v>116</v>
+        <v>722</v>
       </c>
       <c r="J7" s="3">
-        <v>116</v>
+        <v>722</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
@@ -1523,55 +2122,55 @@
         <v>-1</v>
       </c>
       <c r="Q7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="3">
-        <v>40</v>
+        <v>860</v>
       </c>
       <c r="S7" s="3">
-        <v>40</v>
+        <v>860</v>
       </c>
       <c r="T7" s="3">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="U7" s="3">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="V7" s="3">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="W7" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="X7" s="3">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AB7" s="3">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="AC7" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="AD7" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE7" s="3">
         <v>10</v>
       </c>
       <c r="AF7" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG7" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AH7" s="3">
         <v>0</v>
@@ -1583,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="3">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="AL7" s="3">
         <v>-1</v>
@@ -1598,7 +2197,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41">
       <c r="A8" s="3">
         <v>30</v>
       </c>
@@ -1612,22 +2211,22 @@
         <v>86</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H8" s="3">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="I8" s="3">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="J8" s="3">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -1648,55 +2247,55 @@
         <v>-1</v>
       </c>
       <c r="Q8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R8" s="3">
-        <v>40</v>
+        <v>386</v>
       </c>
       <c r="S8" s="3">
-        <v>40</v>
+        <v>386</v>
       </c>
       <c r="T8" s="3">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="U8" s="3">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="V8" s="3">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="W8" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="X8" s="3">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="3">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="AB8" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AC8" s="3">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="AD8" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE8" s="3">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AF8" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG8" s="3">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AH8" s="3">
         <v>0</v>
@@ -1708,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="3">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="AL8" s="3">
         <v>-1</v>
@@ -1717,13 +2316,13 @@
         <v>0</v>
       </c>
       <c r="AN8" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AO8" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41">
       <c r="A9" s="3">
         <v>31</v>
       </c>
@@ -1734,25 +2333,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H9" s="3">
-        <v>16250</v>
+        <v>-9036</v>
       </c>
       <c r="I9" s="3">
-        <v>260</v>
+        <v>992</v>
       </c>
       <c r="J9" s="3">
-        <v>260</v>
+        <v>992</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -1776,65 +2375,65 @@
         <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>400</v>
+        <v>999</v>
       </c>
       <c r="S9" s="3">
-        <v>400</v>
+        <v>999</v>
       </c>
       <c r="T9" s="3">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="U9" s="3">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="V9" s="3">
+        <v>99</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>99</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>95</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="3">
         <v>90</v>
       </c>
-      <c r="W9" s="3">
-        <v>10</v>
-      </c>
-      <c r="X9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>70</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="3">
-        <v>40</v>
-      </c>
-      <c r="AF9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="3">
-        <v>60</v>
-      </c>
-      <c r="AH9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="3">
-        <v>50</v>
-      </c>
       <c r="AL9" s="3">
         <v>-1</v>
       </c>
@@ -1842,13 +2441,13 @@
         <v>0</v>
       </c>
       <c r="AN9" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO9" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41">
       <c r="A10" s="3">
         <v>40</v>
       </c>
@@ -1859,25 +2458,25 @@
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3">
-        <v>16250</v>
+        <v>-9036</v>
       </c>
       <c r="I10" s="3">
-        <v>260</v>
+        <v>885</v>
       </c>
       <c r="J10" s="3">
-        <v>260</v>
+        <v>885</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -1901,65 +2500,65 @@
         <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="S10" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="T10" s="3">
+        <v>79</v>
+      </c>
+      <c r="U10" s="3">
+        <v>70</v>
+      </c>
+      <c r="V10" s="3">
+        <v>79</v>
+      </c>
+      <c r="W10" s="3">
+        <v>10</v>
+      </c>
+      <c r="X10" s="3">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>15</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>98</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>50</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>89</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>20</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="3">
         <v>80</v>
       </c>
-      <c r="U10" s="3">
-        <v>66</v>
-      </c>
-      <c r="V10" s="3">
-        <v>90</v>
-      </c>
-      <c r="W10" s="3">
-        <v>10</v>
-      </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>70</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="3">
-        <v>40</v>
-      </c>
-      <c r="AF10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="3">
-        <v>60</v>
-      </c>
-      <c r="AH10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="3">
-        <v>50</v>
-      </c>
       <c r="AL10" s="3">
         <v>-1</v>
       </c>
@@ -1967,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="AN10" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AO10" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41">
       <c r="A11" s="3">
         <v>41</v>
       </c>
@@ -1983,26 +2582,26 @@
       <c r="C11" s="3">
         <v>4</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>109</v>
+      <c r="D11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H11" s="3">
-        <v>16250</v>
+        <v>6350</v>
       </c>
       <c r="I11" s="3">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="J11" s="3">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
@@ -2026,22 +2625,22 @@
         <v>0</v>
       </c>
       <c r="R11" s="3">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="S11" s="3">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="T11" s="3">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="U11" s="3">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="V11" s="3">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="W11" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X11" s="3">
         <v>0</v>
@@ -2053,38 +2652,38 @@
         <v>0</v>
       </c>
       <c r="AA11" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB11" s="3">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="AC11" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD11" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AE11" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AF11" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG11" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="3">
         <v>60</v>
       </c>
-      <c r="AH11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="3">
-        <v>50</v>
-      </c>
       <c r="AL11" s="3">
         <v>-1</v>
       </c>
@@ -2092,13 +2691,13 @@
         <v>0</v>
       </c>
       <c r="AN11" s="7" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="AO11" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41">
       <c r="A12" s="3">
         <v>42</v>
       </c>
@@ -2108,26 +2707,26 @@
       <c r="C12" s="3">
         <v>4</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>110</v>
+      <c r="D12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H12" s="3">
-        <v>16250</v>
+        <v>2250</v>
       </c>
       <c r="I12" s="3">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="J12" s="3">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -2151,22 +2750,22 @@
         <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="S12" s="3">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="T12" s="3">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="U12" s="3">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="V12" s="3">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="W12" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X12" s="3">
         <v>0</v>
@@ -2178,38 +2777,38 @@
         <v>0</v>
       </c>
       <c r="AA12" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB12" s="3">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="AC12" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD12" s="3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AE12" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AF12" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG12" s="3">
+        <v>20</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="3">
         <v>60</v>
       </c>
-      <c r="AH12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="3">
-        <v>50</v>
-      </c>
       <c r="AL12" s="3">
         <v>-1</v>
       </c>
@@ -2217,13 +2816,13 @@
         <v>0</v>
       </c>
       <c r="AN12" s="7" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="AO12" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41">
       <c r="A13" s="3">
         <v>60</v>
       </c>
@@ -2234,25 +2833,25 @@
         <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H13" s="3">
-        <v>9250</v>
+        <v>-22086</v>
       </c>
       <c r="I13" s="3">
-        <v>356</v>
+        <v>999</v>
       </c>
       <c r="J13" s="3">
-        <v>356</v>
+        <v>999</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
@@ -2273,22 +2872,22 @@
         <v>-1</v>
       </c>
       <c r="Q13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="3">
-        <v>360</v>
+        <v>900</v>
       </c>
       <c r="S13" s="3">
-        <v>360</v>
+        <v>900</v>
       </c>
       <c r="T13" s="3">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="U13" s="3">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="V13" s="3">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="W13" s="3">
         <v>0</v>
@@ -2303,25 +2902,25 @@
         <v>0</v>
       </c>
       <c r="AA13" s="3">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="AB13" s="3">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="AC13" s="3">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="AD13" s="3">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="AE13" s="3">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="AF13" s="3">
         <v>10</v>
       </c>
       <c r="AG13" s="3">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AH13" s="3">
         <v>0</v>
@@ -2333,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="3">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="AL13" s="3">
         <v>-1</v>
@@ -2342,13 +2941,13 @@
         <v>0</v>
       </c>
       <c r="AN13" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AO13" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41">
       <c r="A14" s="3">
         <v>61</v>
       </c>
@@ -2358,26 +2957,26 @@
       <c r="C14" s="3">
         <v>5</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>116</v>
+      <c r="D14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="F14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H14" s="3">
         <v>-9036</v>
       </c>
       <c r="I14" s="3">
-        <v>485</v>
+        <v>999</v>
       </c>
       <c r="J14" s="3">
-        <v>485</v>
+        <v>999</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -2386,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -2398,58 +2997,58 @@
         <v>-1</v>
       </c>
       <c r="Q14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="3">
-        <v>900</v>
+        <v>999</v>
       </c>
       <c r="S14" s="3">
-        <v>900</v>
+        <v>999</v>
       </c>
       <c r="T14" s="3">
         <v>99</v>
       </c>
       <c r="U14" s="3">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="V14" s="3">
         <v>99</v>
       </c>
       <c r="W14" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X14" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AA14" s="3">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AB14" s="3">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="AC14" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AD14" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE14" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG14" s="3">
         <v>20</v>
       </c>
-      <c r="AF14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="3">
-        <v>95</v>
-      </c>
       <c r="AH14" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI14" s="3">
         <v>0</v>
@@ -2458,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="3">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AL14" s="3">
         <v>-1</v>
@@ -2467,13 +3066,13 @@
         <v>0</v>
       </c>
       <c r="AN14" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AO14" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41">
       <c r="A15" s="3">
         <v>70</v>
       </c>
@@ -2484,25 +3083,25 @@
         <v>5</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
       </c>
       <c r="G15" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H15" s="3">
-        <v>-9036</v>
+        <v>2250</v>
       </c>
       <c r="I15" s="3">
-        <v>485</v>
+        <v>170</v>
       </c>
       <c r="J15" s="3">
-        <v>485</v>
+        <v>170</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -2511,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -2523,58 +3122,58 @@
         <v>-1</v>
       </c>
       <c r="Q15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>900</v>
+        <v>102</v>
       </c>
       <c r="S15" s="3">
-        <v>900</v>
+        <v>102</v>
       </c>
       <c r="T15" s="3">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="U15" s="3">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="V15" s="3">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="W15" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X15" s="3">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="Y15" s="3">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="Z15" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA15" s="3">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="AB15" s="3">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="AC15" s="3">
+        <v>12</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>56</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>46</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG15" s="3">
         <v>50</v>
       </c>
-      <c r="AD15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="3">
-        <v>20</v>
-      </c>
-      <c r="AF15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="3">
-        <v>95</v>
-      </c>
       <c r="AH15" s="3">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AI15" s="3">
         <v>0</v>
@@ -2583,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="3">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="AL15" s="3">
         <v>-1</v>
@@ -2592,13 +3191,13 @@
         <v>0</v>
       </c>
       <c r="AN15" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="AO15" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41">
       <c r="A16" s="3">
         <v>80</v>
       </c>
@@ -2609,25 +3208,25 @@
         <v>5</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H16" s="3">
-        <v>-9036</v>
+        <v>50</v>
       </c>
       <c r="I16" s="3">
-        <v>485</v>
+        <v>68</v>
       </c>
       <c r="J16" s="3">
-        <v>485</v>
+        <v>68</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
@@ -2636,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="3">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="N16" s="3">
         <v>0</v>
@@ -2648,55 +3247,55 @@
         <v>-1</v>
       </c>
       <c r="Q16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="3">
-        <v>900</v>
+        <v>25</v>
       </c>
       <c r="S16" s="3">
-        <v>900</v>
+        <v>25</v>
       </c>
       <c r="T16" s="3">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="U16" s="3">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="V16" s="3">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="W16" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X16" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="3">
         <v>0</v>
       </c>
       <c r="AA16" s="3">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="AB16" s="3">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="AC16" s="3">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="AD16" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE16" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF16" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG16" s="3">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="AH16" s="3">
         <v>0</v>
@@ -2708,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="3">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AL16" s="3">
         <v>-1</v>
@@ -2723,7 +3322,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41">
       <c r="A17" s="3">
         <v>90</v>
       </c>
@@ -2734,25 +3333,25 @@
         <v>5</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
       </c>
       <c r="G17" s="3">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H17" s="3">
-        <v>-9036</v>
+        <v>50</v>
       </c>
       <c r="I17" s="3">
-        <v>485</v>
+        <v>38</v>
       </c>
       <c r="J17" s="3">
-        <v>485</v>
+        <v>38</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -2761,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
@@ -2776,53 +3375,53 @@
         <v>1</v>
       </c>
       <c r="R17" s="3">
-        <v>900</v>
+        <v>21</v>
       </c>
       <c r="S17" s="3">
-        <v>900</v>
+        <v>21</v>
       </c>
       <c r="T17" s="3">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="U17" s="3">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="V17" s="3">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="W17" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X17" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="3">
         <v>0</v>
       </c>
       <c r="AA17" s="3">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="AB17" s="3">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="AC17" s="3">
+        <v>7</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>26</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG17" s="3">
         <v>50</v>
       </c>
-      <c r="AD17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="3">
-        <v>20</v>
-      </c>
-      <c r="AF17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="3">
-        <v>95</v>
-      </c>
       <c r="AH17" s="3">
         <v>0</v>
       </c>
@@ -2833,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="3">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AL17" s="3">
         <v>-1</v>
@@ -2842,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="AN17" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="AO17" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41">
       <c r="A18" s="3">
         <v>91</v>
       </c>
@@ -2859,10 +3458,10 @@
         <v>7</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -2874,10 +3473,10 @@
         <v>9250</v>
       </c>
       <c r="I18" s="3">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="J18" s="3">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -2898,22 +3497,22 @@
         <v>-1</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="3">
-        <v>360</v>
+        <v>590</v>
       </c>
       <c r="S18" s="3">
-        <v>360</v>
+        <v>590</v>
       </c>
       <c r="T18" s="3">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="U18" s="3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V18" s="3">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W18" s="3">
         <v>0</v>
@@ -2928,25 +3527,25 @@
         <v>0</v>
       </c>
       <c r="AA18" s="3">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="AB18" s="3">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="AC18" s="3">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="AD18" s="3">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AE18" s="3">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="AF18" s="3">
         <v>10</v>
       </c>
       <c r="AG18" s="3">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="AH18" s="3">
         <v>0</v>
@@ -2967,13 +3566,13 @@
         <v>0</v>
       </c>
       <c r="AN18" s="7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="AO18" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41">
       <c r="A19" s="3">
         <v>140</v>
       </c>
@@ -2984,10 +3583,10 @@
         <v>6</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -3092,13 +3691,13 @@
         <v>0</v>
       </c>
       <c r="AN19" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="AO19" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41">
       <c r="A20" s="3">
         <v>141</v>
       </c>
@@ -3109,10 +3708,10 @@
         <v>6</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -3217,13 +3816,13 @@
         <v>0</v>
       </c>
       <c r="AN20" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="AO20" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41">
       <c r="A21" s="3">
         <v>142</v>
       </c>
@@ -3234,10 +3833,10 @@
         <v>6</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -3342,13 +3941,13 @@
         <v>0</v>
       </c>
       <c r="AN21" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="AO21" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41">
       <c r="A22" s="3">
         <v>143</v>
       </c>
@@ -3359,10 +3958,10 @@
         <v>6</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -3467,13 +4066,13 @@
         <v>0</v>
       </c>
       <c r="AN22" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="AO22" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41">
       <c r="A23" s="3">
         <v>144</v>
       </c>
@@ -3484,10 +4083,10 @@
         <v>6</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -3592,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="AN23" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="AO23" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:41">
       <c r="A24" s="3">
         <v>145</v>
       </c>
@@ -3609,10 +4208,10 @@
         <v>6</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -3717,13 +4316,13 @@
         <v>0</v>
       </c>
       <c r="AN24" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="AO24" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:41">
       <c r="A25" s="3">
         <v>146</v>
       </c>
@@ -3734,10 +4333,10 @@
         <v>6</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
@@ -3842,13 +4441,13 @@
         <v>0</v>
       </c>
       <c r="AN25" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="AO25" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:41">
       <c r="A26" s="3">
         <v>147</v>
       </c>
@@ -3859,10 +4458,10 @@
         <v>6</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -3967,13 +4566,13 @@
         <v>0</v>
       </c>
       <c r="AN26" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="AO26" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:41">
       <c r="A27" s="3">
         <v>148</v>
       </c>
@@ -3984,10 +4583,10 @@
         <v>6</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -4092,13 +4691,13 @@
         <v>0</v>
       </c>
       <c r="AN27" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="AO27" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:41">
       <c r="A28" s="3">
         <v>149</v>
       </c>
@@ -4109,10 +4708,10 @@
         <v>6</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
@@ -4217,13 +4816,13 @@
         <v>0</v>
       </c>
       <c r="AN28" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="AO28" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:41">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4266,7 +4865,7 @@
       <c r="AN29" s="7"/>
       <c r="AO29" s="7"/>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:41">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4310,9 +4909,8 @@
       <c r="AO30" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="25005"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="128">
   <si>
     <t>Jyx2Configs.Jyx2ConfigCharacter</t>
   </si>
@@ -389,18 +394,48 @@
   <si>
     <t>140,600</t>
   </si>
+  <si>
+    <t>隋青竹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>隋仙堂神医</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>120,800</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑熊</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>160,500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨型黑熊</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨型黑熊</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>160,800</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -411,7 +446,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -426,352 +461,33 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -779,267 +495,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1057,66 +531,23 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="普通" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="普通 2" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="普通 4" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="普通 3" xfId="52"/>
+    <cellStyle name="普通" xfId="1"/>
+    <cellStyle name="普通 2" xfId="2"/>
+    <cellStyle name="普通 3" xfId="4"/>
+    <cellStyle name="普通 4" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1447,31 +878,31 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AP30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AN33" sqref="AN33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="39" width="9" customWidth="1"/>
-    <col min="40" max="40" width="41.1238938053097" style="1" customWidth="1"/>
-    <col min="41" max="41" width="22.7522123893805" style="1" customWidth="1"/>
+    <col min="40" max="40" width="41.125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="22.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1566,7 +997,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -1694,7 +1125,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1819,7 +1250,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>10</v>
       </c>
@@ -1947,7 +1378,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>11</v>
       </c>
@@ -2072,7 +1503,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>20</v>
       </c>
@@ -2197,7 +1628,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>30</v>
       </c>
@@ -2322,7 +1753,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>31</v>
       </c>
@@ -2447,7 +1878,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>40</v>
       </c>
@@ -2572,7 +2003,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>41</v>
       </c>
@@ -2697,7 +2128,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>42</v>
       </c>
@@ -2822,7 +2253,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>60</v>
       </c>
@@ -2947,7 +2378,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>61</v>
       </c>
@@ -3072,7 +2503,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>70</v>
       </c>
@@ -3197,7 +2628,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>80</v>
       </c>
@@ -3322,7 +2753,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>90</v>
       </c>
@@ -3447,7 +2878,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>91</v>
       </c>
@@ -3572,36 +3003,36 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B19" s="3">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C19" s="3">
-        <v>6</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>117</v>
+        <v>7</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H19" s="3">
-        <v>2250</v>
+        <v>500</v>
       </c>
       <c r="I19" s="3">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="J19" s="3">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="K19" s="3">
         <v>0</v>
@@ -3625,46 +3056,46 @@
         <v>1</v>
       </c>
       <c r="R19" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="S19" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="T19" s="3">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="U19" s="3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="V19" s="3">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="W19" s="3">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="X19" s="3">
         <v>0</v>
       </c>
       <c r="Y19" s="3">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Z19" s="3">
         <v>0</v>
       </c>
       <c r="AA19" s="3">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AB19" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AC19" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AD19" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF19" s="3">
         <v>10</v>
@@ -3691,15 +3122,15 @@
         <v>0</v>
       </c>
       <c r="AN19" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AO19" s="7" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B20" s="3">
         <v>140</v>
@@ -3762,7 +3193,7 @@
         <v>30</v>
       </c>
       <c r="V20" s="3">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
@@ -3818,13 +3249,13 @@
       <c r="AN20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="AO20" s="7">
-        <v>-1</v>
+      <c r="AO20" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B21" s="3">
         <v>140</v>
@@ -3887,7 +3318,7 @@
         <v>30</v>
       </c>
       <c r="V21" s="3">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="W21" s="3">
         <v>0</v>
@@ -3947,9 +3378,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="3">
         <v>140</v>
@@ -4012,7 +3443,7 @@
         <v>30</v>
       </c>
       <c r="V22" s="3">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -4072,9 +3503,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" s="3">
         <v>140</v>
@@ -4137,7 +3568,7 @@
         <v>30</v>
       </c>
       <c r="V23" s="3">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="W23" s="3">
         <v>0</v>
@@ -4197,9 +3628,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B24" s="3">
         <v>140</v>
@@ -4262,7 +3693,7 @@
         <v>30</v>
       </c>
       <c r="V24" s="3">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
@@ -4322,9 +3753,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B25" s="3">
         <v>140</v>
@@ -4387,7 +3818,7 @@
         <v>30</v>
       </c>
       <c r="V25" s="3">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="W25" s="3">
         <v>0</v>
@@ -4447,9 +3878,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B26" s="3">
         <v>140</v>
@@ -4512,7 +3943,7 @@
         <v>30</v>
       </c>
       <c r="V26" s="3">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="W26" s="3">
         <v>0</v>
@@ -4572,9 +4003,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B27" s="3">
         <v>140</v>
@@ -4637,7 +4068,7 @@
         <v>30</v>
       </c>
       <c r="V27" s="3">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="W27" s="3">
         <v>0</v>
@@ -4697,9 +4128,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B28" s="3">
         <v>140</v>
@@ -4762,7 +4193,7 @@
         <v>30</v>
       </c>
       <c r="V28" s="3">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="W28" s="3">
         <v>0</v>
@@ -4822,95 +4253,385 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:41">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="3"/>
-      <c r="AH29" s="3"/>
-      <c r="AI29" s="3"/>
-      <c r="AJ29" s="3"/>
-      <c r="AK29" s="3"/>
-      <c r="AL29" s="3"/>
-      <c r="AM29" s="3"/>
-      <c r="AN29" s="7"/>
-      <c r="AO29" s="7"/>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>149</v>
+      </c>
+      <c r="B29" s="3">
+        <v>140</v>
+      </c>
+      <c r="C29" s="3">
+        <v>6</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>10</v>
+      </c>
+      <c r="H29" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I29" s="3">
+        <v>200</v>
+      </c>
+      <c r="J29" s="3">
+        <v>200</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>90</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>1</v>
+      </c>
+      <c r="R29" s="3">
+        <v>10</v>
+      </c>
+      <c r="S29" s="3">
+        <v>10</v>
+      </c>
+      <c r="T29" s="3">
+        <v>70</v>
+      </c>
+      <c r="U29" s="3">
+        <v>30</v>
+      </c>
+      <c r="V29" s="3">
+        <v>30</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG29" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO29" s="7">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="30" spans="1:41">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
-      <c r="AF30" s="3"/>
-      <c r="AG30" s="3"/>
-      <c r="AH30" s="3"/>
-      <c r="AI30" s="3"/>
-      <c r="AJ30" s="3"/>
-      <c r="AK30" s="3"/>
-      <c r="AL30" s="3"/>
-      <c r="AM30" s="3"/>
-      <c r="AN30" s="7"/>
-      <c r="AO30" s="7"/>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>160</v>
+      </c>
+      <c r="B30" s="3">
+        <v>160</v>
+      </c>
+      <c r="C30" s="3">
+        <v>6</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>10</v>
+      </c>
+      <c r="H30" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I30" s="3">
+        <v>200</v>
+      </c>
+      <c r="J30" s="3">
+        <v>200</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>90</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>1</v>
+      </c>
+      <c r="R30" s="3">
+        <v>10</v>
+      </c>
+      <c r="S30" s="3">
+        <v>10</v>
+      </c>
+      <c r="T30" s="3">
+        <v>30</v>
+      </c>
+      <c r="U30" s="3">
+        <v>30</v>
+      </c>
+      <c r="V30" s="3">
+        <v>90</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG30" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO30" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>161</v>
+      </c>
+      <c r="B31" s="3">
+        <v>161</v>
+      </c>
+      <c r="C31" s="3">
+        <v>6</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>20</v>
+      </c>
+      <c r="H31" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I31" s="3">
+        <v>400</v>
+      </c>
+      <c r="J31" s="3">
+        <v>400</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>90</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>1</v>
+      </c>
+      <c r="R31" s="3">
+        <v>10</v>
+      </c>
+      <c r="S31" s="3">
+        <v>10</v>
+      </c>
+      <c r="T31" s="3">
+        <v>50</v>
+      </c>
+      <c r="U31" s="3">
+        <v>30</v>
+      </c>
+      <c r="V31" s="3">
+        <v>90</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO31" s="7">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="129">
   <si>
     <t>Jyx2Configs.Jyx2ConfigCharacter</t>
   </si>
@@ -428,6 +428,10 @@
   </si>
   <si>
     <t>160,800</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>罂粟谷弟子</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -884,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP31"/>
+  <dimension ref="A1:AP33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AN33" sqref="AN33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2630,34 +2634,34 @@
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B16" s="3">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C16" s="3">
         <v>5</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>110</v>
+      <c r="D16" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H16" s="3">
-        <v>50</v>
+        <v>2250</v>
       </c>
       <c r="I16" s="3">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="J16" s="3">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
@@ -2681,55 +2685,55 @@
         <v>0</v>
       </c>
       <c r="R16" s="3">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="S16" s="3">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="T16" s="3">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="U16" s="3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="V16" s="3">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="W16" s="3">
         <v>0</v>
       </c>
       <c r="X16" s="3">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="Y16" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Z16" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA16" s="3">
+        <v>52</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>44</v>
+      </c>
+      <c r="AC16" s="3">
         <v>12</v>
       </c>
-      <c r="AB16" s="3">
-        <v>36</v>
-      </c>
-      <c r="AC16" s="3">
-        <v>6</v>
-      </c>
       <c r="AD16" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="AE16" s="3">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="AF16" s="3">
         <v>10</v>
       </c>
       <c r="AG16" s="3">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AH16" s="3">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AI16" s="3">
         <v>0</v>
@@ -2738,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="3">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="AL16" s="3">
         <v>-1</v>
@@ -2747,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="AN16" s="7" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AO16" s="7" t="s">
         <v>77</v>
@@ -2755,34 +2759,34 @@
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B17" s="3">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C17" s="3">
         <v>5</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>112</v>
+      <c r="D17" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="F17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H17" s="3">
-        <v>50</v>
+        <v>2250</v>
       </c>
       <c r="I17" s="3">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="J17" s="3">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -2803,49 +2807,49 @@
         <v>-1</v>
       </c>
       <c r="Q17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="3">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="S17" s="3">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="T17" s="3">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="U17" s="3">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="V17" s="3">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="W17" s="3">
         <v>0</v>
       </c>
       <c r="X17" s="3">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="Y17" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Z17" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA17" s="3">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="AB17" s="3">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="AC17" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AD17" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="AE17" s="3">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AF17" s="3">
         <v>10</v>
@@ -2854,7 +2858,7 @@
         <v>50</v>
       </c>
       <c r="AH17" s="3">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AI17" s="3">
         <v>0</v>
@@ -2863,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="3">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="AL17" s="3">
         <v>-1</v>
@@ -2872,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="AN17" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AO17" s="7" t="s">
         <v>77</v>
@@ -2880,34 +2884,34 @@
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B18" s="3">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C18" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H18" s="3">
-        <v>9250</v>
+        <v>50</v>
       </c>
       <c r="I18" s="3">
-        <v>308</v>
+        <v>68</v>
       </c>
       <c r="J18" s="3">
-        <v>308</v>
+        <v>68</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -2928,22 +2932,22 @@
         <v>-1</v>
       </c>
       <c r="Q18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>590</v>
+        <v>25</v>
       </c>
       <c r="S18" s="3">
-        <v>590</v>
+        <v>25</v>
       </c>
       <c r="T18" s="3">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="U18" s="3">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="V18" s="3">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="W18" s="3">
         <v>0</v>
@@ -2958,25 +2962,25 @@
         <v>0</v>
       </c>
       <c r="AA18" s="3">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="AB18" s="3">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="AC18" s="3">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="AD18" s="3">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="AE18" s="3">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="AF18" s="3">
         <v>10</v>
       </c>
       <c r="AG18" s="3">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="AH18" s="3">
         <v>0</v>
@@ -2988,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="3">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AL18" s="3">
         <v>-1</v>
@@ -2997,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="AN18" s="7" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AO18" s="7" t="s">
         <v>77</v>
@@ -3005,34 +3009,34 @@
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="B19" s="3">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="C19" s="3">
-        <v>7</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>120</v>
+        <v>5</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H19" s="3">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="I19" s="3">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="J19" s="3">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="K19" s="3">
         <v>0</v>
@@ -3056,46 +3060,46 @@
         <v>1</v>
       </c>
       <c r="R19" s="3">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="S19" s="3">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="T19" s="3">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="U19" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="V19" s="3">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="W19" s="3">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="X19" s="3">
         <v>0</v>
       </c>
       <c r="Y19" s="3">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="3">
         <v>0</v>
       </c>
       <c r="AA19" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB19" s="3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AC19" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD19" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE19" s="3">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AF19" s="3">
         <v>10</v>
@@ -3113,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="3">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AL19" s="3">
         <v>-1</v>
@@ -3122,42 +3126,42 @@
         <v>0</v>
       </c>
       <c r="AN19" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="AO19" s="7" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="B20" s="3">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="C20" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H20" s="3">
-        <v>2250</v>
+        <v>9250</v>
       </c>
       <c r="I20" s="3">
-        <v>200</v>
+        <v>308</v>
       </c>
       <c r="J20" s="3">
-        <v>200</v>
+        <v>308</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -3181,19 +3185,19 @@
         <v>1</v>
       </c>
       <c r="R20" s="3">
-        <v>10</v>
+        <v>590</v>
       </c>
       <c r="S20" s="3">
-        <v>10</v>
+        <v>590</v>
       </c>
       <c r="T20" s="3">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="U20" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V20" s="3">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
@@ -3208,25 +3212,25 @@
         <v>0</v>
       </c>
       <c r="AA20" s="3">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="AB20" s="3">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="AC20" s="3">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="AD20" s="3">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AE20" s="3">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="AF20" s="3">
         <v>10</v>
       </c>
       <c r="AG20" s="3">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="AH20" s="3">
         <v>0</v>
@@ -3247,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="AN20" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AO20" s="7" t="s">
         <v>77</v>
@@ -3255,34 +3259,34 @@
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B21" s="3">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C21" s="3">
-        <v>6</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>117</v>
+        <v>7</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H21" s="3">
-        <v>2250</v>
+        <v>500</v>
       </c>
       <c r="I21" s="3">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="J21" s="3">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
@@ -3306,46 +3310,46 @@
         <v>1</v>
       </c>
       <c r="R21" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="S21" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="T21" s="3">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="U21" s="3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="V21" s="3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="W21" s="3">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="X21" s="3">
         <v>0</v>
       </c>
       <c r="Y21" s="3">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Z21" s="3">
         <v>0</v>
       </c>
       <c r="AA21" s="3">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AB21" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AC21" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AD21" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF21" s="3">
         <v>10</v>
@@ -3372,15 +3376,15 @@
         <v>0</v>
       </c>
       <c r="AN21" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AO21" s="7">
-        <v>-1</v>
+        <v>121</v>
+      </c>
+      <c r="AO21" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B22" s="3">
         <v>140</v>
@@ -3499,13 +3503,13 @@
       <c r="AN22" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="AO22" s="7">
-        <v>-1</v>
+      <c r="AO22" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B23" s="3">
         <v>140</v>
@@ -3630,7 +3634,7 @@
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B24" s="3">
         <v>140</v>
@@ -3755,7 +3759,7 @@
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="3">
         <v>140</v>
@@ -3880,7 +3884,7 @@
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B26" s="3">
         <v>140</v>
@@ -4005,7 +4009,7 @@
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B27" s="3">
         <v>140</v>
@@ -4130,7 +4134,7 @@
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B28" s="3">
         <v>140</v>
@@ -4255,7 +4259,7 @@
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B29" s="3">
         <v>140</v>
@@ -4380,19 +4384,19 @@
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B30" s="3">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C30" s="3">
         <v>6</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
@@ -4437,13 +4441,13 @@
         <v>10</v>
       </c>
       <c r="T30" s="3">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="U30" s="3">
         <v>30</v>
       </c>
       <c r="V30" s="3">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="W30" s="3">
         <v>0</v>
@@ -4497,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="AN30" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="AO30" s="7">
         <v>-1</v>
@@ -4505,34 +4509,34 @@
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B31" s="3">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="C31" s="3">
         <v>6</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
       </c>
       <c r="G31" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H31" s="3">
         <v>2250</v>
       </c>
       <c r="I31" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J31" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K31" s="3">
         <v>0</v>
@@ -4562,13 +4566,13 @@
         <v>10</v>
       </c>
       <c r="T31" s="3">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="U31" s="3">
         <v>30</v>
       </c>
       <c r="V31" s="3">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="W31" s="3">
         <v>0</v>
@@ -4622,9 +4626,259 @@
         <v>0</v>
       </c>
       <c r="AN31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO31" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>160</v>
+      </c>
+      <c r="B32" s="3">
+        <v>160</v>
+      </c>
+      <c r="C32" s="3">
+        <v>6</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>10</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I32" s="3">
+        <v>200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>200</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>90</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>1</v>
+      </c>
+      <c r="R32" s="3">
+        <v>10</v>
+      </c>
+      <c r="S32" s="3">
+        <v>10</v>
+      </c>
+      <c r="T32" s="3">
+        <v>30</v>
+      </c>
+      <c r="U32" s="3">
+        <v>30</v>
+      </c>
+      <c r="V32" s="3">
+        <v>90</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG32" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL32" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO32" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>161</v>
+      </c>
+      <c r="B33" s="3">
+        <v>161</v>
+      </c>
+      <c r="C33" s="3">
+        <v>6</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>20</v>
+      </c>
+      <c r="H33" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I33" s="3">
+        <v>400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>400</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>90</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>1</v>
+      </c>
+      <c r="R33" s="3">
+        <v>10</v>
+      </c>
+      <c r="S33" s="3">
+        <v>10</v>
+      </c>
+      <c r="T33" s="3">
+        <v>50</v>
+      </c>
+      <c r="U33" s="3">
+        <v>30</v>
+      </c>
+      <c r="V33" s="3">
+        <v>90</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF33" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG33" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL33" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="AO31" s="7">
+      <c r="AO33" s="7">
         <v>-1</v>
       </c>
     </row>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="132">
   <si>
     <t>Jyx2Configs.Jyx2ConfigCharacter</t>
   </si>
@@ -38,6 +38,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>N</t>
@@ -47,6 +48,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ame</t>
@@ -403,10 +405,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>120,800</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>-1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -432,6 +430,22 @@
   </si>
   <si>
     <t>罂粟谷弟子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0|120,800</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>91,1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -456,23 +470,27 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -890,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1754,7 +1772,7 @@
         <v>88</v>
       </c>
       <c r="AO8" s="7" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.2">
@@ -2643,10 +2661,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -2742,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="3">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="AL16" s="3">
         <v>-1</v>
@@ -2768,10 +2786,10 @@
         <v>5</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -2867,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="3">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="AL17" s="3">
         <v>-1</v>
@@ -2980,7 +2998,7 @@
         <v>10</v>
       </c>
       <c r="AG18" s="3">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AH18" s="3">
         <v>0</v>
@@ -2992,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="3">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="AL18" s="3">
         <v>-1</v>
@@ -3001,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="AN18" s="7" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AO18" s="7" t="s">
         <v>77</v>
@@ -3045,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N19" s="3">
         <v>0</v>
@@ -3117,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="3">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AL19" s="3">
         <v>-1</v>
@@ -3129,7 +3147,7 @@
         <v>113</v>
       </c>
       <c r="AO19" s="7" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.2">
@@ -3376,10 +3394,10 @@
         <v>0</v>
       </c>
       <c r="AN21" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO21" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="AO21" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.2">
@@ -4643,10 +4661,10 @@
         <v>6</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -4751,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="AN32" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AO32" s="7">
         <v>-1</v>
@@ -4768,10 +4786,10 @@
         <v>6</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -4876,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="AN33" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AO33" s="7">
         <v>-1</v>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="134">
   <si>
     <t>Jyx2Configs.Jyx2ConfigCharacter</t>
   </si>
@@ -446,6 +446,14 @@
   </si>
   <si>
     <t>34,1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒蛇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>180,600</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -906,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP33"/>
+  <dimension ref="A1:AP38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X34" sqref="X34:X38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4900,6 +4908,631 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>180</v>
+      </c>
+      <c r="B34" s="3">
+        <v>180</v>
+      </c>
+      <c r="C34" s="3">
+        <v>6</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>10</v>
+      </c>
+      <c r="H34" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I34" s="3">
+        <v>200</v>
+      </c>
+      <c r="J34" s="3">
+        <v>200</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>90</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P34" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>1</v>
+      </c>
+      <c r="R34" s="3">
+        <v>10</v>
+      </c>
+      <c r="S34" s="3">
+        <v>10</v>
+      </c>
+      <c r="T34" s="3">
+        <v>80</v>
+      </c>
+      <c r="U34" s="3">
+        <v>30</v>
+      </c>
+      <c r="V34" s="3">
+        <v>30</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>80</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG34" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL34" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO34" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>181</v>
+      </c>
+      <c r="B35" s="3">
+        <v>181</v>
+      </c>
+      <c r="C35" s="3">
+        <v>6</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>10</v>
+      </c>
+      <c r="H35" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I35" s="3">
+        <v>200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>90</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>1</v>
+      </c>
+      <c r="R35" s="3">
+        <v>10</v>
+      </c>
+      <c r="S35" s="3">
+        <v>10</v>
+      </c>
+      <c r="T35" s="3">
+        <v>80</v>
+      </c>
+      <c r="U35" s="3">
+        <v>30</v>
+      </c>
+      <c r="V35" s="3">
+        <v>30</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>80</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF35" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG35" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO35" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>182</v>
+      </c>
+      <c r="B36" s="3">
+        <v>182</v>
+      </c>
+      <c r="C36" s="3">
+        <v>6</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>10</v>
+      </c>
+      <c r="H36" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I36" s="3">
+        <v>200</v>
+      </c>
+      <c r="J36" s="3">
+        <v>200</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <v>90</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0</v>
+      </c>
+      <c r="O36" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P36" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>1</v>
+      </c>
+      <c r="R36" s="3">
+        <v>10</v>
+      </c>
+      <c r="S36" s="3">
+        <v>10</v>
+      </c>
+      <c r="T36" s="3">
+        <v>80</v>
+      </c>
+      <c r="U36" s="3">
+        <v>30</v>
+      </c>
+      <c r="V36" s="3">
+        <v>30</v>
+      </c>
+      <c r="W36" s="3">
+        <v>0</v>
+      </c>
+      <c r="X36" s="3">
+        <v>80</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC36" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD36" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE36" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF36" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG36" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL36" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO36" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>183</v>
+      </c>
+      <c r="B37" s="3">
+        <v>183</v>
+      </c>
+      <c r="C37" s="3">
+        <v>6</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>10</v>
+      </c>
+      <c r="H37" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I37" s="3">
+        <v>200</v>
+      </c>
+      <c r="J37" s="3">
+        <v>200</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
+        <v>90</v>
+      </c>
+      <c r="N37" s="3">
+        <v>0</v>
+      </c>
+      <c r="O37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>1</v>
+      </c>
+      <c r="R37" s="3">
+        <v>10</v>
+      </c>
+      <c r="S37" s="3">
+        <v>10</v>
+      </c>
+      <c r="T37" s="3">
+        <v>80</v>
+      </c>
+      <c r="U37" s="3">
+        <v>30</v>
+      </c>
+      <c r="V37" s="3">
+        <v>30</v>
+      </c>
+      <c r="W37" s="3">
+        <v>0</v>
+      </c>
+      <c r="X37" s="3">
+        <v>80</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB37" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC37" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD37" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE37" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF37" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG37" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO37" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>184</v>
+      </c>
+      <c r="B38" s="3">
+        <v>184</v>
+      </c>
+      <c r="C38" s="3">
+        <v>6</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>10</v>
+      </c>
+      <c r="H38" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I38" s="3">
+        <v>200</v>
+      </c>
+      <c r="J38" s="3">
+        <v>200</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
+        <v>90</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0</v>
+      </c>
+      <c r="O38" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P38" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>1</v>
+      </c>
+      <c r="R38" s="3">
+        <v>10</v>
+      </c>
+      <c r="S38" s="3">
+        <v>10</v>
+      </c>
+      <c r="T38" s="3">
+        <v>80</v>
+      </c>
+      <c r="U38" s="3">
+        <v>30</v>
+      </c>
+      <c r="V38" s="3">
+        <v>30</v>
+      </c>
+      <c r="W38" s="3">
+        <v>0</v>
+      </c>
+      <c r="X38" s="3">
+        <v>80</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD38" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE38" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF38" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG38" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL38" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN38" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO38" s="7">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="135">
   <si>
     <t>Jyx2Configs.Jyx2ConfigCharacter</t>
   </si>
@@ -454,6 +454,10 @@
   </si>
   <si>
     <t>180,600</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaveStoryId</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -916,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X34" sqref="X34:X38"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="W21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1026,6 +1030,9 @@
       <c r="AO2" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="AP2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1404,9 +1411,6 @@
       <c r="AO5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AP5">
-        <v>952</v>
-      </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -1532,6 +1536,9 @@
       <c r="AO6" s="7" t="s">
         <v>77</v>
       </c>
+      <c r="AP6" s="3">
+        <v>115</v>
+      </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1782,6 +1789,9 @@
       <c r="AO8" s="7" t="s">
         <v>131</v>
       </c>
+      <c r="AP8" s="3">
+        <v>310</v>
+      </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -2657,6 +2667,9 @@
       <c r="AO15" s="7" t="s">
         <v>77</v>
       </c>
+      <c r="AP15" s="3">
+        <v>714</v>
+      </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -2783,7 +2796,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>72</v>
       </c>
@@ -2908,7 +2921,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>80</v>
       </c>
@@ -3032,8 +3045,11 @@
       <c r="AO18" s="7" t="s">
         <v>77</v>
       </c>
+      <c r="AP18" s="3">
+        <v>813</v>
+      </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>90</v>
       </c>
@@ -3157,8 +3173,11 @@
       <c r="AO19" s="7" t="s">
         <v>130</v>
       </c>
+      <c r="AP19" s="3">
+        <v>96</v>
+      </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>91</v>
       </c>
@@ -3283,7 +3302,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>123</v>
       </c>
@@ -3407,8 +3426,11 @@
       <c r="AO21" s="7" t="s">
         <v>121</v>
       </c>
+      <c r="AP21" s="3">
+        <v>128</v>
+      </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>140</v>
       </c>
@@ -3533,7 +3555,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>141</v>
       </c>
@@ -3658,7 +3680,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>142</v>
       </c>
@@ -3783,7 +3805,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>143</v>
       </c>
@@ -3908,7 +3930,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>144</v>
       </c>
@@ -4033,7 +4055,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>145</v>
       </c>
@@ -4158,7 +4180,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>146</v>
       </c>
@@ -4283,7 +4305,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>147</v>
       </c>
@@ -4408,7 +4430,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>148</v>
       </c>
@@ -4533,7 +4555,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>149</v>
       </c>
@@ -4658,7 +4680,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>160</v>
       </c>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="142">
   <si>
     <t>Jyx2Configs.Jyx2ConfigCharacter</t>
   </si>
@@ -343,12 +343,6 @@
     <t>王远</t>
   </si>
   <si>
-    <t>将军府大将军</t>
-  </si>
-  <si>
-    <t>60,700|61,900</t>
-  </si>
-  <si>
     <t>伏格多</t>
   </si>
   <si>
@@ -458,6 +452,42 @@
   </si>
   <si>
     <t>LeaveStoryId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>将军府大将军</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>将军府士兵</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,700|61,900</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>61,500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>61,700</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>将军府士兵</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>将军府士兵</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝隼士兵</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝隼士兵</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -918,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP38"/>
+  <dimension ref="A1:AP56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="W21" sqref="A21:XFD21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1031,7 +1061,7 @@
         <v>31</v>
       </c>
       <c r="AP2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.2">
@@ -1337,7 +1367,7 @@
         <v>-1</v>
       </c>
       <c r="Q5" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R5" s="3">
         <v>350</v>
@@ -1382,7 +1412,7 @@
         <v>30</v>
       </c>
       <c r="AF5" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AG5" s="3">
         <v>50</v>
@@ -1462,7 +1492,7 @@
         <v>-1</v>
       </c>
       <c r="Q6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="3">
         <v>88</v>
@@ -1507,7 +1537,7 @@
         <v>14</v>
       </c>
       <c r="AF6" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AG6" s="3">
         <v>50</v>
@@ -1590,7 +1620,7 @@
         <v>-1</v>
       </c>
       <c r="Q7" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R7" s="3">
         <v>860</v>
@@ -1635,7 +1665,7 @@
         <v>10</v>
       </c>
       <c r="AF7" s="3">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="AG7" s="3">
         <v>25</v>
@@ -1715,7 +1745,7 @@
         <v>-1</v>
       </c>
       <c r="Q8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R8" s="3">
         <v>386</v>
@@ -1760,7 +1790,7 @@
         <v>17</v>
       </c>
       <c r="AF8" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AG8" s="3">
         <v>38</v>
@@ -1787,7 +1817,7 @@
         <v>88</v>
       </c>
       <c r="AO8" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AP8" s="3">
         <v>310</v>
@@ -1843,7 +1873,7 @@
         <v>-1</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="3">
         <v>999</v>
@@ -1888,7 +1918,7 @@
         <v>10</v>
       </c>
       <c r="AF9" s="3">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="AG9" s="3">
         <v>95</v>
@@ -1968,7 +1998,7 @@
         <v>-1</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="3">
         <v>900</v>
@@ -2013,7 +2043,7 @@
         <v>20</v>
       </c>
       <c r="AF10" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AG10" s="3">
         <v>50</v>
@@ -2093,7 +2123,7 @@
         <v>-1</v>
       </c>
       <c r="Q11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="3">
         <v>290</v>
@@ -2138,7 +2168,7 @@
         <v>50</v>
       </c>
       <c r="AF11" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AG11" s="3">
         <v>50</v>
@@ -2218,7 +2248,7 @@
         <v>-1</v>
       </c>
       <c r="Q12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="3">
         <v>280</v>
@@ -2263,7 +2293,7 @@
         <v>30</v>
       </c>
       <c r="AF12" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AG12" s="3">
         <v>20</v>
@@ -2307,7 +2337,7 @@
         <v>100</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -2388,7 +2418,7 @@
         <v>44</v>
       </c>
       <c r="AF13" s="3">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="AG13" s="3">
         <v>90</v>
@@ -2412,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AN13" s="7" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="AO13" s="7" t="s">
         <v>77</v>
@@ -2429,10 +2459,10 @@
         <v>5</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -2468,7 +2498,7 @@
         <v>-1</v>
       </c>
       <c r="Q14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="3">
         <v>999</v>
@@ -2513,7 +2543,7 @@
         <v>10</v>
       </c>
       <c r="AF14" s="3">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="AG14" s="3">
         <v>20</v>
@@ -2537,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="AN14" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AO14" s="7" t="s">
         <v>77</v>
@@ -2545,34 +2575,34 @@
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B15" s="3">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="F15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H15" s="3">
-        <v>2250</v>
+        <v>6350</v>
       </c>
       <c r="I15" s="3">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="J15" s="3">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -2593,68 +2623,68 @@
         <v>-1</v>
       </c>
       <c r="Q15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="3">
-        <v>102</v>
+        <v>290</v>
       </c>
       <c r="S15" s="3">
-        <v>102</v>
+        <v>290</v>
       </c>
       <c r="T15" s="3">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="U15" s="3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="V15" s="3">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
       <c r="X15" s="3">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>50</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>50</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>50</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="3">
         <v>60</v>
       </c>
-      <c r="Z15" s="3">
-        <v>50</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>52</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>44</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>12</v>
-      </c>
-      <c r="AD15" s="3">
-        <v>56</v>
-      </c>
-      <c r="AE15" s="3">
-        <v>46</v>
-      </c>
-      <c r="AF15" s="3">
-        <v>10</v>
-      </c>
-      <c r="AG15" s="3">
-        <v>50</v>
-      </c>
-      <c r="AH15" s="3">
-        <v>65</v>
-      </c>
-      <c r="AI15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="3">
-        <v>84</v>
-      </c>
       <c r="AL15" s="3">
         <v>-1</v>
       </c>
@@ -2662,45 +2692,42 @@
         <v>0</v>
       </c>
       <c r="AN15" s="7" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="AO15" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="AP15" s="3">
-        <v>714</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B16" s="3">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C16" s="3">
-        <v>5</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>127</v>
+        <v>4</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H16" s="3">
-        <v>2250</v>
+        <v>6350</v>
       </c>
       <c r="I16" s="3">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="J16" s="3">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
@@ -2721,68 +2748,68 @@
         <v>-1</v>
       </c>
       <c r="Q16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="3">
-        <v>102</v>
+        <v>290</v>
       </c>
       <c r="S16" s="3">
-        <v>102</v>
+        <v>290</v>
       </c>
       <c r="T16" s="3">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="U16" s="3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="V16" s="3">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="W16" s="3">
         <v>0</v>
       </c>
       <c r="X16" s="3">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>50</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>50</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>50</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="3">
         <v>60</v>
       </c>
-      <c r="Z16" s="3">
-        <v>50</v>
-      </c>
-      <c r="AA16" s="3">
-        <v>52</v>
-      </c>
-      <c r="AB16" s="3">
-        <v>44</v>
-      </c>
-      <c r="AC16" s="3">
-        <v>12</v>
-      </c>
-      <c r="AD16" s="3">
-        <v>56</v>
-      </c>
-      <c r="AE16" s="3">
-        <v>46</v>
-      </c>
-      <c r="AF16" s="3">
-        <v>10</v>
-      </c>
-      <c r="AG16" s="3">
-        <v>50</v>
-      </c>
-      <c r="AH16" s="3">
-        <v>65</v>
-      </c>
-      <c r="AI16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="3">
-        <v>50</v>
-      </c>
       <c r="AL16" s="3">
         <v>-1</v>
       </c>
@@ -2790,42 +2817,42 @@
         <v>0</v>
       </c>
       <c r="AN16" s="7" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="AO16" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B17" s="3">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C17" s="3">
-        <v>5</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>127</v>
+        <v>4</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H17" s="3">
-        <v>2250</v>
+        <v>6350</v>
       </c>
       <c r="I17" s="3">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="J17" s="3">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -2846,68 +2873,68 @@
         <v>-1</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="3">
-        <v>102</v>
+        <v>290</v>
       </c>
       <c r="S17" s="3">
-        <v>102</v>
+        <v>290</v>
       </c>
       <c r="T17" s="3">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="U17" s="3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="V17" s="3">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="W17" s="3">
         <v>0</v>
       </c>
       <c r="X17" s="3">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>50</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>50</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>50</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="3">
         <v>60</v>
       </c>
-      <c r="Z17" s="3">
-        <v>50</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>52</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>44</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>12</v>
-      </c>
-      <c r="AD17" s="3">
-        <v>56</v>
-      </c>
-      <c r="AE17" s="3">
-        <v>46</v>
-      </c>
-      <c r="AF17" s="3">
-        <v>10</v>
-      </c>
-      <c r="AG17" s="3">
-        <v>50</v>
-      </c>
-      <c r="AH17" s="3">
-        <v>65</v>
-      </c>
-      <c r="AI17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="3">
-        <v>50</v>
-      </c>
       <c r="AL17" s="3">
         <v>-1</v>
       </c>
@@ -2915,42 +2942,42 @@
         <v>0</v>
       </c>
       <c r="AN17" s="7" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="AO17" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B18" s="3">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H18" s="3">
-        <v>50</v>
+        <v>6350</v>
       </c>
       <c r="I18" s="3">
-        <v>68</v>
+        <v>230</v>
       </c>
       <c r="J18" s="3">
-        <v>68</v>
+        <v>230</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -2971,22 +2998,22 @@
         <v>-1</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="3">
-        <v>25</v>
+        <v>290</v>
       </c>
       <c r="S18" s="3">
-        <v>25</v>
+        <v>290</v>
       </c>
       <c r="T18" s="3">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="U18" s="3">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="V18" s="3">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="W18" s="3">
         <v>0</v>
@@ -3001,22 +3028,22 @@
         <v>0</v>
       </c>
       <c r="AA18" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB18" s="3">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="AC18" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AD18" s="3">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="AE18" s="3">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AF18" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AG18" s="3">
         <v>50</v>
@@ -3031,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="3">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AL18" s="3">
         <v>-1</v>
@@ -3040,54 +3067,51 @@
         <v>0</v>
       </c>
       <c r="AN18" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="AO18" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AP18" s="3">
-        <v>813</v>
-      </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
+        <v>66</v>
+      </c>
+      <c r="B19" s="3">
+        <v>62</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>14</v>
+      </c>
+      <c r="H19" s="3">
+        <v>6350</v>
+      </c>
+      <c r="I19" s="3">
+        <v>330</v>
+      </c>
+      <c r="J19" s="3">
+        <v>330</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
         <v>90</v>
-      </c>
-      <c r="B19" s="3">
-        <v>90</v>
-      </c>
-      <c r="C19" s="3">
-        <v>5</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>2</v>
-      </c>
-      <c r="H19" s="3">
-        <v>50</v>
-      </c>
-      <c r="I19" s="3">
-        <v>38</v>
-      </c>
-      <c r="J19" s="3">
-        <v>38</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3">
-        <v>100</v>
       </c>
       <c r="N19" s="3">
         <v>0</v>
@@ -3102,19 +3126,19 @@
         <v>1</v>
       </c>
       <c r="R19" s="3">
-        <v>21</v>
+        <v>300</v>
       </c>
       <c r="S19" s="3">
-        <v>21</v>
+        <v>300</v>
       </c>
       <c r="T19" s="3">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="U19" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V19" s="3">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="W19" s="3">
         <v>0</v>
@@ -3129,22 +3153,22 @@
         <v>0</v>
       </c>
       <c r="AA19" s="3">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AB19" s="3">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AC19" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AD19" s="3">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="AE19" s="3">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="AF19" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AG19" s="3">
         <v>50</v>
@@ -3168,45 +3192,42 @@
         <v>0</v>
       </c>
       <c r="AN19" s="7" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="AO19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP19" s="3">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B20" s="3">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C20" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H20" s="3">
-        <v>9250</v>
+        <v>6350</v>
       </c>
       <c r="I20" s="3">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="J20" s="3">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -3230,19 +3251,19 @@
         <v>1</v>
       </c>
       <c r="R20" s="3">
-        <v>590</v>
+        <v>300</v>
       </c>
       <c r="S20" s="3">
-        <v>590</v>
+        <v>300</v>
       </c>
       <c r="T20" s="3">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="U20" s="3">
         <v>60</v>
       </c>
       <c r="V20" s="3">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
@@ -3257,25 +3278,25 @@
         <v>0</v>
       </c>
       <c r="AA20" s="3">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="AB20" s="3">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="AC20" s="3">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="AD20" s="3">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AE20" s="3">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AF20" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AG20" s="3">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="AH20" s="3">
         <v>0</v>
@@ -3296,42 +3317,42 @@
         <v>0</v>
       </c>
       <c r="AN20" s="7" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="AO20" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="B21" s="3">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="C21" s="3">
-        <v>7</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>120</v>
+        <v>4</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H21" s="3">
-        <v>500</v>
+        <v>6350</v>
       </c>
       <c r="I21" s="3">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="J21" s="3">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
@@ -3355,49 +3376,49 @@
         <v>1</v>
       </c>
       <c r="R21" s="3">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="S21" s="3">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="T21" s="3">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="U21" s="3">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="V21" s="3">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="W21" s="3">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="X21" s="3">
         <v>0</v>
       </c>
       <c r="Y21" s="3">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="3">
         <v>0</v>
       </c>
       <c r="AA21" s="3">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AB21" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AC21" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AD21" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AE21" s="3">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AF21" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AG21" s="3">
         <v>50</v>
@@ -3421,45 +3442,42 @@
         <v>0</v>
       </c>
       <c r="AN21" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="AO21" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP21" s="3">
-        <v>128</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="B22" s="3">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="C22" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H22" s="3">
-        <v>2250</v>
+        <v>6350</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -3483,19 +3501,19 @@
         <v>1</v>
       </c>
       <c r="R22" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="S22" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T22" s="3">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U22" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V22" s="3">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -3519,13 +3537,13 @@
         <v>10</v>
       </c>
       <c r="AD22" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AE22" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AF22" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AG22" s="3">
         <v>50</v>
@@ -3549,42 +3567,42 @@
         <v>0</v>
       </c>
       <c r="AN22" s="7" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="AO22" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
+        <v>610</v>
+      </c>
+      <c r="B23" s="3">
+        <v>610</v>
+      </c>
+      <c r="C23" s="3">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B23" s="3">
-        <v>140</v>
-      </c>
-      <c r="C23" s="3">
-        <v>6</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H23" s="3">
-        <v>2250</v>
+        <v>6350</v>
       </c>
       <c r="I23" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="J23" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -3608,19 +3626,19 @@
         <v>1</v>
       </c>
       <c r="R23" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="S23" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T23" s="3">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U23" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V23" s="3">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="W23" s="3">
         <v>0</v>
@@ -3644,13 +3662,13 @@
         <v>10</v>
       </c>
       <c r="AD23" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AE23" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AF23" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AG23" s="3">
         <v>50</v>
@@ -3674,42 +3692,42 @@
         <v>0</v>
       </c>
       <c r="AN23" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AO23" s="7">
-        <v>-1</v>
+        <v>137</v>
+      </c>
+      <c r="AO23" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>142</v>
+        <v>611</v>
       </c>
       <c r="B24" s="3">
+        <v>610</v>
+      </c>
+      <c r="C24" s="3">
+        <v>4</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="3">
-        <v>6</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="E24" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H24" s="3">
-        <v>2250</v>
+        <v>6350</v>
       </c>
       <c r="I24" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="J24" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -3733,19 +3751,19 @@
         <v>1</v>
       </c>
       <c r="R24" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="S24" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T24" s="3">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U24" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V24" s="3">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
@@ -3769,13 +3787,13 @@
         <v>10</v>
       </c>
       <c r="AD24" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AE24" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AF24" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AG24" s="3">
         <v>50</v>
@@ -3799,42 +3817,42 @@
         <v>0</v>
       </c>
       <c r="AN24" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AO24" s="7">
-        <v>-1</v>
+        <v>137</v>
+      </c>
+      <c r="AO24" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>143</v>
+        <v>612</v>
       </c>
       <c r="B25" s="3">
+        <v>610</v>
+      </c>
+      <c r="C25" s="3">
+        <v>4</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="3">
-        <v>6</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="E25" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
       </c>
       <c r="G25" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H25" s="3">
-        <v>2250</v>
+        <v>6350</v>
       </c>
       <c r="I25" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="J25" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="K25" s="3">
         <v>0</v>
@@ -3858,19 +3876,19 @@
         <v>1</v>
       </c>
       <c r="R25" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="S25" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T25" s="3">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U25" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V25" s="3">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="W25" s="3">
         <v>0</v>
@@ -3894,13 +3912,13 @@
         <v>10</v>
       </c>
       <c r="AD25" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AE25" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AF25" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AG25" s="3">
         <v>50</v>
@@ -3924,42 +3942,42 @@
         <v>0</v>
       </c>
       <c r="AN25" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AO25" s="7">
-        <v>-1</v>
+        <v>137</v>
+      </c>
+      <c r="AO25" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>144</v>
+        <v>613</v>
       </c>
       <c r="B26" s="3">
+        <v>610</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C26" s="3">
-        <v>6</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="E26" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H26" s="3">
-        <v>2250</v>
+        <v>6350</v>
       </c>
       <c r="I26" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="J26" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -3983,19 +4001,19 @@
         <v>1</v>
       </c>
       <c r="R26" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="S26" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T26" s="3">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U26" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V26" s="3">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="W26" s="3">
         <v>0</v>
@@ -4019,13 +4037,13 @@
         <v>10</v>
       </c>
       <c r="AD26" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AE26" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AF26" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AG26" s="3">
         <v>50</v>
@@ -4049,42 +4067,42 @@
         <v>0</v>
       </c>
       <c r="AN26" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AO26" s="7">
-        <v>-1</v>
+        <v>137</v>
+      </c>
+      <c r="AO26" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>145</v>
+        <v>614</v>
       </c>
       <c r="B27" s="3">
+        <v>610</v>
+      </c>
+      <c r="C27" s="3">
+        <v>4</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="3">
-        <v>6</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="E27" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H27" s="3">
-        <v>2250</v>
+        <v>6350</v>
       </c>
       <c r="I27" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="J27" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -4108,19 +4126,19 @@
         <v>1</v>
       </c>
       <c r="R27" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="S27" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T27" s="3">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U27" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V27" s="3">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="W27" s="3">
         <v>0</v>
@@ -4144,13 +4162,13 @@
         <v>10</v>
       </c>
       <c r="AD27" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AE27" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AF27" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AG27" s="3">
         <v>50</v>
@@ -4174,42 +4192,42 @@
         <v>0</v>
       </c>
       <c r="AN27" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AO27" s="7">
-        <v>-1</v>
+        <v>137</v>
+      </c>
+      <c r="AO27" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>146</v>
+        <v>615</v>
       </c>
       <c r="B28" s="3">
+        <v>610</v>
+      </c>
+      <c r="C28" s="3">
+        <v>4</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="3">
-        <v>6</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="E28" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H28" s="3">
-        <v>2250</v>
+        <v>6350</v>
       </c>
       <c r="I28" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="J28" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="K28" s="3">
         <v>0</v>
@@ -4233,19 +4251,19 @@
         <v>1</v>
       </c>
       <c r="R28" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="S28" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T28" s="3">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U28" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V28" s="3">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="W28" s="3">
         <v>0</v>
@@ -4269,13 +4287,13 @@
         <v>10</v>
       </c>
       <c r="AD28" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AE28" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AF28" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AG28" s="3">
         <v>50</v>
@@ -4299,42 +4317,42 @@
         <v>0</v>
       </c>
       <c r="AN28" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AO28" s="7">
-        <v>-1</v>
+        <v>137</v>
+      </c>
+      <c r="AO28" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>147</v>
+        <v>616</v>
       </c>
       <c r="B29" s="3">
+        <v>610</v>
+      </c>
+      <c r="C29" s="3">
+        <v>4</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="3">
-        <v>6</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="E29" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H29" s="3">
-        <v>2250</v>
+        <v>6350</v>
       </c>
       <c r="I29" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="J29" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -4358,19 +4376,19 @@
         <v>1</v>
       </c>
       <c r="R29" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="S29" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T29" s="3">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U29" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V29" s="3">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
@@ -4394,13 +4412,13 @@
         <v>10</v>
       </c>
       <c r="AD29" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AE29" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AF29" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AG29" s="3">
         <v>50</v>
@@ -4424,42 +4442,42 @@
         <v>0</v>
       </c>
       <c r="AN29" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AO29" s="7">
-        <v>-1</v>
+        <v>137</v>
+      </c>
+      <c r="AO29" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>148</v>
+        <v>617</v>
       </c>
       <c r="B30" s="3">
+        <v>610</v>
+      </c>
+      <c r="C30" s="3">
+        <v>4</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C30" s="3">
-        <v>6</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="E30" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
       </c>
       <c r="G30" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H30" s="3">
-        <v>2250</v>
+        <v>6350</v>
       </c>
       <c r="I30" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="J30" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="K30" s="3">
         <v>0</v>
@@ -4483,19 +4501,19 @@
         <v>1</v>
       </c>
       <c r="R30" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="S30" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T30" s="3">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U30" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V30" s="3">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="W30" s="3">
         <v>0</v>
@@ -4519,13 +4537,13 @@
         <v>10</v>
       </c>
       <c r="AD30" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AE30" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AF30" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AG30" s="3">
         <v>50</v>
@@ -4549,42 +4567,42 @@
         <v>0</v>
       </c>
       <c r="AN30" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AO30" s="7">
-        <v>-1</v>
+        <v>137</v>
+      </c>
+      <c r="AO30" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>149</v>
+        <v>618</v>
       </c>
       <c r="B31" s="3">
+        <v>610</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="3">
-        <v>6</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="E31" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
       </c>
       <c r="G31" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H31" s="3">
-        <v>2250</v>
+        <v>6350</v>
       </c>
       <c r="I31" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="J31" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="K31" s="3">
         <v>0</v>
@@ -4608,19 +4626,19 @@
         <v>1</v>
       </c>
       <c r="R31" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="S31" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T31" s="3">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U31" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V31" s="3">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="W31" s="3">
         <v>0</v>
@@ -4644,13 +4662,13 @@
         <v>10</v>
       </c>
       <c r="AD31" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AE31" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AF31" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AG31" s="3">
         <v>50</v>
@@ -4674,42 +4692,42 @@
         <v>0</v>
       </c>
       <c r="AN31" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AO31" s="7">
-        <v>-1</v>
+        <v>137</v>
+      </c>
+      <c r="AO31" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>160</v>
+        <v>619</v>
       </c>
       <c r="B32" s="3">
-        <v>160</v>
+        <v>610</v>
       </c>
       <c r="C32" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H32" s="3">
-        <v>2250</v>
+        <v>6350</v>
       </c>
       <c r="I32" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="J32" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -4733,19 +4751,19 @@
         <v>1</v>
       </c>
       <c r="R32" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="S32" s="3">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="T32" s="3">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="U32" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V32" s="3">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
@@ -4769,13 +4787,13 @@
         <v>10</v>
       </c>
       <c r="AD32" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AE32" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AF32" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AG32" s="3">
         <v>50</v>
@@ -4799,42 +4817,42 @@
         <v>0</v>
       </c>
       <c r="AN32" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AO32" s="7">
-        <v>-1</v>
+        <v>137</v>
+      </c>
+      <c r="AO32" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="B33" s="3">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="C33" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H33" s="3">
         <v>2250</v>
       </c>
       <c r="I33" s="3">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="J33" s="3">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -4855,58 +4873,58 @@
         <v>-1</v>
       </c>
       <c r="Q33" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="S33" s="3">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="T33" s="3">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="U33" s="3">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="V33" s="3">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="W33" s="3">
         <v>0</v>
       </c>
       <c r="X33" s="3">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="Y33" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Z33" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA33" s="3">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="AB33" s="3">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="AC33" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD33" s="3">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="AE33" s="3">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="AF33" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AG33" s="3">
         <v>50</v>
       </c>
       <c r="AH33" s="3">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AI33" s="3">
         <v>0</v>
@@ -4915,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="3">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="AL33" s="3">
         <v>-1</v>
@@ -4924,27 +4942,30 @@
         <v>0</v>
       </c>
       <c r="AN33" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="AO33" s="7">
-        <v>-1</v>
+        <v>106</v>
+      </c>
+      <c r="AO33" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP33" s="3">
+        <v>714</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>180</v>
+        <v>71</v>
       </c>
       <c r="B34" s="3">
-        <v>180</v>
+        <v>71</v>
       </c>
       <c r="C34" s="3">
-        <v>6</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>132</v>
+        <v>5</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
@@ -4956,10 +4977,10 @@
         <v>2250</v>
       </c>
       <c r="I34" s="3">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="J34" s="3">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="K34" s="3">
         <v>0</v>
@@ -4980,58 +5001,58 @@
         <v>-1</v>
       </c>
       <c r="Q34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" s="3">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="S34" s="3">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="T34" s="3">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="U34" s="3">
+        <v>55</v>
+      </c>
+      <c r="V34" s="3">
+        <v>51</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>75</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>60</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>50</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>52</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>44</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>12</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>56</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>46</v>
+      </c>
+      <c r="AF34" s="3">
         <v>30</v>
       </c>
-      <c r="V34" s="3">
-        <v>30</v>
-      </c>
-      <c r="W34" s="3">
-        <v>0</v>
-      </c>
-      <c r="X34" s="3">
-        <v>80</v>
-      </c>
-      <c r="Y34" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB34" s="3">
-        <v>10</v>
-      </c>
-      <c r="AC34" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD34" s="3">
-        <v>10</v>
-      </c>
-      <c r="AE34" s="3">
-        <v>10</v>
-      </c>
-      <c r="AF34" s="3">
-        <v>10</v>
-      </c>
       <c r="AG34" s="3">
         <v>50</v>
       </c>
       <c r="AH34" s="3">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AI34" s="3">
         <v>0</v>
@@ -5040,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AL34" s="3">
         <v>-1</v>
@@ -5049,27 +5070,27 @@
         <v>0</v>
       </c>
       <c r="AN34" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AO34" s="7">
-        <v>-1</v>
+        <v>106</v>
+      </c>
+      <c r="AO34" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="B35" s="3">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="C35" s="3">
-        <v>6</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>132</v>
+        <v>5</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -5081,10 +5102,10 @@
         <v>2250</v>
       </c>
       <c r="I35" s="3">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="J35" s="3">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -5105,111 +5126,111 @@
         <v>-1</v>
       </c>
       <c r="Q35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="S35" s="3">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="T35" s="3">
+        <v>62</v>
+      </c>
+      <c r="U35" s="3">
+        <v>55</v>
+      </c>
+      <c r="V35" s="3">
+        <v>51</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>75</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>60</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>50</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>52</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>44</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>12</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>56</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>46</v>
+      </c>
+      <c r="AF35" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG35" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH35" s="3">
+        <v>65</v>
+      </c>
+      <c r="AI35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="3">
+        <v>50</v>
+      </c>
+      <c r="AL35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO35" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
         <v>80</v>
       </c>
-      <c r="U35" s="3">
-        <v>30</v>
-      </c>
-      <c r="V35" s="3">
-        <v>30</v>
-      </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="B36" s="3">
         <v>80</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>10</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD35" s="3">
-        <v>10</v>
-      </c>
-      <c r="AE35" s="3">
-        <v>10</v>
-      </c>
-      <c r="AF35" s="3">
-        <v>10</v>
-      </c>
-      <c r="AG35" s="3">
-        <v>50</v>
-      </c>
-      <c r="AH35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="3">
-        <v>60</v>
-      </c>
-      <c r="AL35" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AM35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN35" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AO35" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
-        <v>182</v>
-      </c>
-      <c r="B36" s="3">
-        <v>182</v>
-      </c>
       <c r="C36" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H36" s="3">
-        <v>2250</v>
+        <v>50</v>
       </c>
       <c r="I36" s="3">
-        <v>200</v>
+        <v>68</v>
       </c>
       <c r="J36" s="3">
-        <v>200</v>
+        <v>68</v>
       </c>
       <c r="K36" s="3">
         <v>0</v>
@@ -5230,111 +5251,114 @@
         <v>-1</v>
       </c>
       <c r="Q36" s="3">
+        <v>2</v>
+      </c>
+      <c r="R36" s="3">
+        <v>25</v>
+      </c>
+      <c r="S36" s="3">
+        <v>25</v>
+      </c>
+      <c r="T36" s="3">
+        <v>21</v>
+      </c>
+      <c r="U36" s="3">
+        <v>43</v>
+      </c>
+      <c r="V36" s="3">
+        <v>18</v>
+      </c>
+      <c r="W36" s="3">
+        <v>0</v>
+      </c>
+      <c r="X36" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>12</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>36</v>
+      </c>
+      <c r="AC36" s="3">
+        <v>6</v>
+      </c>
+      <c r="AD36" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE36" s="3">
+        <v>21</v>
+      </c>
+      <c r="AF36" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG36" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="3">
+        <v>90</v>
+      </c>
+      <c r="AL36" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO36" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP36" s="3">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>90</v>
+      </c>
+      <c r="B37" s="3">
+        <v>90</v>
+      </c>
+      <c r="C37" s="3">
+        <v>5</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="3">
         <v>1</v>
       </c>
-      <c r="R36" s="3">
-        <v>10</v>
-      </c>
-      <c r="S36" s="3">
-        <v>10</v>
-      </c>
-      <c r="T36" s="3">
-        <v>80</v>
-      </c>
-      <c r="U36" s="3">
-        <v>30</v>
-      </c>
-      <c r="V36" s="3">
-        <v>30</v>
-      </c>
-      <c r="W36" s="3">
-        <v>0</v>
-      </c>
-      <c r="X36" s="3">
-        <v>80</v>
-      </c>
-      <c r="Y36" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB36" s="3">
-        <v>10</v>
-      </c>
-      <c r="AC36" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD36" s="3">
-        <v>10</v>
-      </c>
-      <c r="AE36" s="3">
-        <v>10</v>
-      </c>
-      <c r="AF36" s="3">
-        <v>10</v>
-      </c>
-      <c r="AG36" s="3">
-        <v>50</v>
-      </c>
-      <c r="AH36" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK36" s="3">
-        <v>60</v>
-      </c>
-      <c r="AL36" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AM36" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN36" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AO36" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
-        <v>183</v>
-      </c>
-      <c r="B37" s="3">
-        <v>183</v>
-      </c>
-      <c r="C37" s="3">
-        <v>6</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
       <c r="G37" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H37" s="3">
-        <v>2250</v>
+        <v>50</v>
       </c>
       <c r="I37" s="3">
-        <v>200</v>
+        <v>38</v>
       </c>
       <c r="J37" s="3">
-        <v>200</v>
+        <v>38</v>
       </c>
       <c r="K37" s="3">
         <v>0</v>
@@ -5343,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N37" s="3">
         <v>0</v>
@@ -5355,28 +5379,28 @@
         <v>-1</v>
       </c>
       <c r="Q37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" s="3">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="S37" s="3">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="T37" s="3">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="U37" s="3">
         <v>30</v>
       </c>
       <c r="V37" s="3">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="W37" s="3">
         <v>0</v>
       </c>
       <c r="X37" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="3">
         <v>0</v>
@@ -5385,19 +5409,19 @@
         <v>0</v>
       </c>
       <c r="AA37" s="3">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AB37" s="3">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AC37" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AD37" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AE37" s="3">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="AF37" s="3">
         <v>10</v>
@@ -5424,42 +5448,45 @@
         <v>0</v>
       </c>
       <c r="AN37" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AO37" s="7">
-        <v>-1</v>
+        <v>111</v>
+      </c>
+      <c r="AO37" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP37" s="3">
+        <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>184</v>
+        <v>91</v>
       </c>
       <c r="B38" s="3">
-        <v>184</v>
+        <v>91</v>
       </c>
       <c r="C38" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
       </c>
       <c r="G38" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H38" s="3">
-        <v>2250</v>
+        <v>9250</v>
       </c>
       <c r="I38" s="3">
-        <v>200</v>
+        <v>308</v>
       </c>
       <c r="J38" s="3">
-        <v>200</v>
+        <v>308</v>
       </c>
       <c r="K38" s="3">
         <v>0</v>
@@ -5483,52 +5510,52 @@
         <v>1</v>
       </c>
       <c r="R38" s="3">
-        <v>10</v>
+        <v>590</v>
       </c>
       <c r="S38" s="3">
-        <v>10</v>
+        <v>590</v>
       </c>
       <c r="T38" s="3">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="U38" s="3">
+        <v>60</v>
+      </c>
+      <c r="V38" s="3">
+        <v>72</v>
+      </c>
+      <c r="W38" s="3">
+        <v>0</v>
+      </c>
+      <c r="X38" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>75</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>56</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>43</v>
+      </c>
+      <c r="AD38" s="3">
+        <v>34</v>
+      </c>
+      <c r="AE38" s="3">
+        <v>54</v>
+      </c>
+      <c r="AF38" s="3">
         <v>30</v>
       </c>
-      <c r="V38" s="3">
-        <v>30</v>
-      </c>
-      <c r="W38" s="3">
-        <v>0</v>
-      </c>
-      <c r="X38" s="3">
-        <v>80</v>
-      </c>
-      <c r="Y38" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB38" s="3">
-        <v>10</v>
-      </c>
-      <c r="AC38" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD38" s="3">
-        <v>10</v>
-      </c>
-      <c r="AE38" s="3">
-        <v>10</v>
-      </c>
-      <c r="AF38" s="3">
-        <v>10</v>
-      </c>
       <c r="AG38" s="3">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="AH38" s="3">
         <v>0</v>
@@ -5549,9 +5576,2262 @@
         <v>0</v>
       </c>
       <c r="AN38" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AO38" s="7">
+        <v>114</v>
+      </c>
+      <c r="AO38" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>123</v>
+      </c>
+      <c r="B39" s="3">
+        <v>123</v>
+      </c>
+      <c r="C39" s="3">
+        <v>7</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>5</v>
+      </c>
+      <c r="H39" s="3">
+        <v>500</v>
+      </c>
+      <c r="I39" s="3">
+        <v>95</v>
+      </c>
+      <c r="J39" s="3">
+        <v>95</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
+        <v>90</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0</v>
+      </c>
+      <c r="O39" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P39" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>2</v>
+      </c>
+      <c r="R39" s="3">
+        <v>35</v>
+      </c>
+      <c r="S39" s="3">
+        <v>35</v>
+      </c>
+      <c r="T39" s="3">
+        <v>35</v>
+      </c>
+      <c r="U39" s="3">
+        <v>35</v>
+      </c>
+      <c r="V39" s="3">
+        <v>35</v>
+      </c>
+      <c r="W39" s="3">
+        <v>74</v>
+      </c>
+      <c r="X39" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>56</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>21</v>
+      </c>
+      <c r="AB39" s="3">
+        <v>8</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>6</v>
+      </c>
+      <c r="AD39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="3">
+        <v>12</v>
+      </c>
+      <c r="AF39" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG39" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL39" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO39" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP39" s="3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>140</v>
+      </c>
+      <c r="B40" s="3">
+        <v>140</v>
+      </c>
+      <c r="C40" s="3">
+        <v>6</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>10</v>
+      </c>
+      <c r="H40" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I40" s="3">
+        <v>200</v>
+      </c>
+      <c r="J40" s="3">
+        <v>200</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0</v>
+      </c>
+      <c r="M40" s="3">
+        <v>90</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0</v>
+      </c>
+      <c r="O40" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P40" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>1</v>
+      </c>
+      <c r="R40" s="3">
+        <v>10</v>
+      </c>
+      <c r="S40" s="3">
+        <v>10</v>
+      </c>
+      <c r="T40" s="3">
+        <v>70</v>
+      </c>
+      <c r="U40" s="3">
+        <v>30</v>
+      </c>
+      <c r="V40" s="3">
+        <v>30</v>
+      </c>
+      <c r="W40" s="3">
+        <v>0</v>
+      </c>
+      <c r="X40" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD40" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE40" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF40" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG40" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL40" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO40" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>141</v>
+      </c>
+      <c r="B41" s="3">
+        <v>140</v>
+      </c>
+      <c r="C41" s="3">
+        <v>6</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>10</v>
+      </c>
+      <c r="H41" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I41" s="3">
+        <v>200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>200</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>90</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P41" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>1</v>
+      </c>
+      <c r="R41" s="3">
+        <v>10</v>
+      </c>
+      <c r="S41" s="3">
+        <v>10</v>
+      </c>
+      <c r="T41" s="3">
+        <v>70</v>
+      </c>
+      <c r="U41" s="3">
+        <v>30</v>
+      </c>
+      <c r="V41" s="3">
+        <v>30</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG41" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL41" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO41" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>142</v>
+      </c>
+      <c r="B42" s="3">
+        <v>140</v>
+      </c>
+      <c r="C42" s="3">
+        <v>6</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>10</v>
+      </c>
+      <c r="H42" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I42" s="3">
+        <v>200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>200</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>90</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P42" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>1</v>
+      </c>
+      <c r="R42" s="3">
+        <v>10</v>
+      </c>
+      <c r="S42" s="3">
+        <v>10</v>
+      </c>
+      <c r="T42" s="3">
+        <v>70</v>
+      </c>
+      <c r="U42" s="3">
+        <v>30</v>
+      </c>
+      <c r="V42" s="3">
+        <v>30</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF42" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG42" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL42" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO42" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>143</v>
+      </c>
+      <c r="B43" s="3">
+        <v>140</v>
+      </c>
+      <c r="C43" s="3">
+        <v>6</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>10</v>
+      </c>
+      <c r="H43" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I43" s="3">
+        <v>200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>200</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>90</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P43" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>1</v>
+      </c>
+      <c r="R43" s="3">
+        <v>10</v>
+      </c>
+      <c r="S43" s="3">
+        <v>10</v>
+      </c>
+      <c r="T43" s="3">
+        <v>70</v>
+      </c>
+      <c r="U43" s="3">
+        <v>30</v>
+      </c>
+      <c r="V43" s="3">
+        <v>30</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF43" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG43" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL43" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO43" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>144</v>
+      </c>
+      <c r="B44" s="3">
+        <v>140</v>
+      </c>
+      <c r="C44" s="3">
+        <v>6</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>10</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I44" s="3">
+        <v>200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>200</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>90</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P44" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>1</v>
+      </c>
+      <c r="R44" s="3">
+        <v>10</v>
+      </c>
+      <c r="S44" s="3">
+        <v>10</v>
+      </c>
+      <c r="T44" s="3">
+        <v>70</v>
+      </c>
+      <c r="U44" s="3">
+        <v>30</v>
+      </c>
+      <c r="V44" s="3">
+        <v>30</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF44" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG44" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL44" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO44" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>145</v>
+      </c>
+      <c r="B45" s="3">
+        <v>140</v>
+      </c>
+      <c r="C45" s="3">
+        <v>6</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>10</v>
+      </c>
+      <c r="H45" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>200</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>90</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P45" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>1</v>
+      </c>
+      <c r="R45" s="3">
+        <v>10</v>
+      </c>
+      <c r="S45" s="3">
+        <v>10</v>
+      </c>
+      <c r="T45" s="3">
+        <v>70</v>
+      </c>
+      <c r="U45" s="3">
+        <v>30</v>
+      </c>
+      <c r="V45" s="3">
+        <v>30</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF45" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG45" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK45" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL45" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN45" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO45" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>146</v>
+      </c>
+      <c r="B46" s="3">
+        <v>140</v>
+      </c>
+      <c r="C46" s="3">
+        <v>6</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>10</v>
+      </c>
+      <c r="H46" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I46" s="3">
+        <v>200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>200</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>90</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P46" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>1</v>
+      </c>
+      <c r="R46" s="3">
+        <v>10</v>
+      </c>
+      <c r="S46" s="3">
+        <v>10</v>
+      </c>
+      <c r="T46" s="3">
+        <v>70</v>
+      </c>
+      <c r="U46" s="3">
+        <v>30</v>
+      </c>
+      <c r="V46" s="3">
+        <v>30</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF46" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG46" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL46" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN46" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO46" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>147</v>
+      </c>
+      <c r="B47" s="3">
+        <v>140</v>
+      </c>
+      <c r="C47" s="3">
+        <v>6</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>10</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I47" s="3">
+        <v>200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>200</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>90</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P47" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>1</v>
+      </c>
+      <c r="R47" s="3">
+        <v>10</v>
+      </c>
+      <c r="S47" s="3">
+        <v>10</v>
+      </c>
+      <c r="T47" s="3">
+        <v>70</v>
+      </c>
+      <c r="U47" s="3">
+        <v>30</v>
+      </c>
+      <c r="V47" s="3">
+        <v>30</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF47" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG47" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK47" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL47" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN47" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO47" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>148</v>
+      </c>
+      <c r="B48" s="3">
+        <v>140</v>
+      </c>
+      <c r="C48" s="3">
+        <v>6</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>10</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I48" s="3">
+        <v>200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>200</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>90</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P48" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>1</v>
+      </c>
+      <c r="R48" s="3">
+        <v>10</v>
+      </c>
+      <c r="S48" s="3">
+        <v>10</v>
+      </c>
+      <c r="T48" s="3">
+        <v>70</v>
+      </c>
+      <c r="U48" s="3">
+        <v>30</v>
+      </c>
+      <c r="V48" s="3">
+        <v>30</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF48" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG48" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL48" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN48" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO48" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>149</v>
+      </c>
+      <c r="B49" s="3">
+        <v>140</v>
+      </c>
+      <c r="C49" s="3">
+        <v>6</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>10</v>
+      </c>
+      <c r="H49" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I49" s="3">
+        <v>200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>200</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>90</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P49" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>1</v>
+      </c>
+      <c r="R49" s="3">
+        <v>10</v>
+      </c>
+      <c r="S49" s="3">
+        <v>10</v>
+      </c>
+      <c r="T49" s="3">
+        <v>70</v>
+      </c>
+      <c r="U49" s="3">
+        <v>30</v>
+      </c>
+      <c r="V49" s="3">
+        <v>30</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF49" s="3">
+        <v>20</v>
+      </c>
+      <c r="AG49" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK49" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL49" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN49" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO49" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>160</v>
+      </c>
+      <c r="B50" s="3">
+        <v>160</v>
+      </c>
+      <c r="C50" s="3">
+        <v>6</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>10</v>
+      </c>
+      <c r="H50" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I50" s="3">
+        <v>200</v>
+      </c>
+      <c r="J50" s="3">
+        <v>200</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>90</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P50" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>1</v>
+      </c>
+      <c r="R50" s="3">
+        <v>10</v>
+      </c>
+      <c r="S50" s="3">
+        <v>10</v>
+      </c>
+      <c r="T50" s="3">
+        <v>30</v>
+      </c>
+      <c r="U50" s="3">
+        <v>30</v>
+      </c>
+      <c r="V50" s="3">
+        <v>90</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF50" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG50" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL50" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN50" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO50" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>161</v>
+      </c>
+      <c r="B51" s="3">
+        <v>161</v>
+      </c>
+      <c r="C51" s="3">
+        <v>6</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
+        <v>20</v>
+      </c>
+      <c r="H51" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I51" s="3">
+        <v>400</v>
+      </c>
+      <c r="J51" s="3">
+        <v>400</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>90</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P51" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>1</v>
+      </c>
+      <c r="R51" s="3">
+        <v>10</v>
+      </c>
+      <c r="S51" s="3">
+        <v>10</v>
+      </c>
+      <c r="T51" s="3">
+        <v>50</v>
+      </c>
+      <c r="U51" s="3">
+        <v>30</v>
+      </c>
+      <c r="V51" s="3">
+        <v>90</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF51" s="3">
+        <v>50</v>
+      </c>
+      <c r="AG51" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL51" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN51" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO51" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>180</v>
+      </c>
+      <c r="B52" s="3">
+        <v>180</v>
+      </c>
+      <c r="C52" s="3">
+        <v>6</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>10</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I52" s="3">
+        <v>200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>200</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>90</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P52" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>10</v>
+      </c>
+      <c r="S52" s="3">
+        <v>10</v>
+      </c>
+      <c r="T52" s="3">
+        <v>80</v>
+      </c>
+      <c r="U52" s="3">
+        <v>30</v>
+      </c>
+      <c r="V52" s="3">
+        <v>30</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>80</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF52" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG52" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH52" s="3">
+        <v>80</v>
+      </c>
+      <c r="AI52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL52" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO52" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>181</v>
+      </c>
+      <c r="B53" s="3">
+        <v>180</v>
+      </c>
+      <c r="C53" s="3">
+        <v>6</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3">
+        <v>10</v>
+      </c>
+      <c r="H53" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I53" s="3">
+        <v>200</v>
+      </c>
+      <c r="J53" s="3">
+        <v>200</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>90</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P53" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>10</v>
+      </c>
+      <c r="S53" s="3">
+        <v>10</v>
+      </c>
+      <c r="T53" s="3">
+        <v>80</v>
+      </c>
+      <c r="U53" s="3">
+        <v>30</v>
+      </c>
+      <c r="V53" s="3">
+        <v>30</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>80</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG53" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH53" s="3">
+        <v>80</v>
+      </c>
+      <c r="AI53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL53" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN53" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO53" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>182</v>
+      </c>
+      <c r="B54" s="3">
+        <v>180</v>
+      </c>
+      <c r="C54" s="3">
+        <v>6</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>10</v>
+      </c>
+      <c r="H54" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I54" s="3">
+        <v>200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>200</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>90</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P54" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>10</v>
+      </c>
+      <c r="S54" s="3">
+        <v>10</v>
+      </c>
+      <c r="T54" s="3">
+        <v>80</v>
+      </c>
+      <c r="U54" s="3">
+        <v>30</v>
+      </c>
+      <c r="V54" s="3">
+        <v>30</v>
+      </c>
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3">
+        <v>80</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE54" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF54" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG54" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH54" s="3">
+        <v>80</v>
+      </c>
+      <c r="AI54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL54" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN54" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO54" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>183</v>
+      </c>
+      <c r="B55" s="3">
+        <v>180</v>
+      </c>
+      <c r="C55" s="3">
+        <v>6</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <v>10</v>
+      </c>
+      <c r="H55" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I55" s="3">
+        <v>200</v>
+      </c>
+      <c r="J55" s="3">
+        <v>200</v>
+      </c>
+      <c r="K55" s="3">
+        <v>0</v>
+      </c>
+      <c r="L55" s="3">
+        <v>0</v>
+      </c>
+      <c r="M55" s="3">
+        <v>90</v>
+      </c>
+      <c r="N55" s="3">
+        <v>0</v>
+      </c>
+      <c r="O55" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P55" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>0</v>
+      </c>
+      <c r="R55" s="3">
+        <v>10</v>
+      </c>
+      <c r="S55" s="3">
+        <v>10</v>
+      </c>
+      <c r="T55" s="3">
+        <v>80</v>
+      </c>
+      <c r="U55" s="3">
+        <v>30</v>
+      </c>
+      <c r="V55" s="3">
+        <v>30</v>
+      </c>
+      <c r="W55" s="3">
+        <v>0</v>
+      </c>
+      <c r="X55" s="3">
+        <v>80</v>
+      </c>
+      <c r="Y55" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB55" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC55" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD55" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE55" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF55" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG55" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH55" s="3">
+        <v>80</v>
+      </c>
+      <c r="AI55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL55" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN55" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO55" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>184</v>
+      </c>
+      <c r="B56" s="3">
+        <v>180</v>
+      </c>
+      <c r="C56" s="3">
+        <v>6</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>10</v>
+      </c>
+      <c r="H56" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I56" s="3">
+        <v>200</v>
+      </c>
+      <c r="J56" s="3">
+        <v>200</v>
+      </c>
+      <c r="K56" s="3">
+        <v>0</v>
+      </c>
+      <c r="L56" s="3">
+        <v>0</v>
+      </c>
+      <c r="M56" s="3">
+        <v>90</v>
+      </c>
+      <c r="N56" s="3">
+        <v>0</v>
+      </c>
+      <c r="O56" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P56" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>0</v>
+      </c>
+      <c r="R56" s="3">
+        <v>10</v>
+      </c>
+      <c r="S56" s="3">
+        <v>10</v>
+      </c>
+      <c r="T56" s="3">
+        <v>80</v>
+      </c>
+      <c r="U56" s="3">
+        <v>30</v>
+      </c>
+      <c r="V56" s="3">
+        <v>30</v>
+      </c>
+      <c r="W56" s="3">
+        <v>0</v>
+      </c>
+      <c r="X56" s="3">
+        <v>80</v>
+      </c>
+      <c r="Y56" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB56" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC56" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD56" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE56" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF56" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG56" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH56" s="3">
+        <v>80</v>
+      </c>
+      <c r="AI56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK56" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL56" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN56" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO56" s="7">
         <v>-1</v>
       </c>
     </row>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
@@ -950,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1537,7 +1537,7 @@
         <v>14</v>
       </c>
       <c r="AF6" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AG6" s="3">
         <v>50</v>
@@ -1790,7 +1790,7 @@
         <v>17</v>
       </c>
       <c r="AF8" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AG8" s="3">
         <v>38</v>
@@ -2543,7 +2543,7 @@
         <v>10</v>
       </c>
       <c r="AF14" s="3">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="AG14" s="3">
         <v>20</v>
@@ -2668,7 +2668,7 @@
         <v>50</v>
       </c>
       <c r="AF15" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AG15" s="3">
         <v>50</v>
@@ -2793,7 +2793,7 @@
         <v>50</v>
       </c>
       <c r="AF16" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AG16" s="3">
         <v>50</v>
@@ -2918,7 +2918,7 @@
         <v>50</v>
       </c>
       <c r="AF17" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AG17" s="3">
         <v>50</v>
@@ -3043,7 +3043,7 @@
         <v>50</v>
       </c>
       <c r="AF18" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AG18" s="3">
         <v>50</v>
@@ -3168,7 +3168,7 @@
         <v>50</v>
       </c>
       <c r="AF19" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AG19" s="3">
         <v>50</v>
@@ -3293,7 +3293,7 @@
         <v>50</v>
       </c>
       <c r="AF20" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AG20" s="3">
         <v>50</v>
@@ -3418,7 +3418,7 @@
         <v>50</v>
       </c>
       <c r="AF21" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AG21" s="3">
         <v>50</v>
@@ -3543,7 +3543,7 @@
         <v>50</v>
       </c>
       <c r="AF22" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AG22" s="3">
         <v>50</v>
@@ -3668,7 +3668,7 @@
         <v>50</v>
       </c>
       <c r="AF23" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AG23" s="3">
         <v>50</v>
@@ -3793,7 +3793,7 @@
         <v>50</v>
       </c>
       <c r="AF24" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AG24" s="3">
         <v>50</v>
@@ -3918,7 +3918,7 @@
         <v>50</v>
       </c>
       <c r="AF25" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AG25" s="3">
         <v>50</v>
@@ -4043,7 +4043,7 @@
         <v>50</v>
       </c>
       <c r="AF26" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AG26" s="3">
         <v>50</v>
@@ -4168,7 +4168,7 @@
         <v>50</v>
       </c>
       <c r="AF27" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AG27" s="3">
         <v>50</v>
@@ -4293,7 +4293,7 @@
         <v>50</v>
       </c>
       <c r="AF28" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AG28" s="3">
         <v>50</v>
@@ -4418,7 +4418,7 @@
         <v>50</v>
       </c>
       <c r="AF29" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AG29" s="3">
         <v>50</v>
@@ -4543,7 +4543,7 @@
         <v>50</v>
       </c>
       <c r="AF30" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AG30" s="3">
         <v>50</v>
@@ -4668,7 +4668,7 @@
         <v>50</v>
       </c>
       <c r="AF31" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AG31" s="3">
         <v>50</v>
@@ -4793,7 +4793,7 @@
         <v>50</v>
       </c>
       <c r="AF32" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AG32" s="3">
         <v>50</v>
@@ -4918,7 +4918,7 @@
         <v>46</v>
       </c>
       <c r="AF33" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AG33" s="3">
         <v>50</v>
@@ -5677,7 +5677,7 @@
         <v>12</v>
       </c>
       <c r="AF39" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AG39" s="3">
         <v>50</v>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
@@ -950,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="AF14" sqref="AF14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="R40" sqref="R40:R56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5763,7 +5763,7 @@
         <v>1</v>
       </c>
       <c r="R40" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="S40" s="3">
         <v>10</v>
@@ -5888,7 +5888,7 @@
         <v>1</v>
       </c>
       <c r="R41" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="S41" s="3">
         <v>10</v>
@@ -6013,7 +6013,7 @@
         <v>1</v>
       </c>
       <c r="R42" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="S42" s="3">
         <v>10</v>
@@ -6138,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="R43" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="S43" s="3">
         <v>10</v>
@@ -6263,7 +6263,7 @@
         <v>1</v>
       </c>
       <c r="R44" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="S44" s="3">
         <v>10</v>
@@ -6388,7 +6388,7 @@
         <v>1</v>
       </c>
       <c r="R45" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="S45" s="3">
         <v>10</v>
@@ -6513,7 +6513,7 @@
         <v>1</v>
       </c>
       <c r="R46" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="S46" s="3">
         <v>10</v>
@@ -6638,7 +6638,7 @@
         <v>1</v>
       </c>
       <c r="R47" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="S47" s="3">
         <v>10</v>
@@ -6763,7 +6763,7 @@
         <v>1</v>
       </c>
       <c r="R48" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="S48" s="3">
         <v>10</v>
@@ -6888,7 +6888,7 @@
         <v>1</v>
       </c>
       <c r="R49" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="S49" s="3">
         <v>10</v>
@@ -7013,7 +7013,7 @@
         <v>1</v>
       </c>
       <c r="R50" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="S50" s="3">
         <v>10</v>
@@ -7138,7 +7138,7 @@
         <v>1</v>
       </c>
       <c r="R51" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="S51" s="3">
         <v>10</v>
@@ -7263,7 +7263,7 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="S52" s="3">
         <v>10</v>
@@ -7388,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="R53" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="S53" s="3">
         <v>10</v>
@@ -7513,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="R54" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="S54" s="3">
         <v>10</v>
@@ -7638,7 +7638,7 @@
         <v>0</v>
       </c>
       <c r="R55" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="S55" s="3">
         <v>10</v>
@@ -7763,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="R56" s="3">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="S56" s="3">
         <v>10</v>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
@@ -950,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="R40" sqref="R40:R56"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1665,7 +1665,7 @@
         <v>10</v>
       </c>
       <c r="AF7" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AG7" s="3">
         <v>25</v>
@@ -1918,7 +1918,7 @@
         <v>10</v>
       </c>
       <c r="AF9" s="3">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AG9" s="3">
         <v>95</v>
@@ -2043,7 +2043,7 @@
         <v>20</v>
       </c>
       <c r="AF10" s="3">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AG10" s="3">
         <v>50</v>
@@ -2543,7 +2543,7 @@
         <v>10</v>
       </c>
       <c r="AF14" s="3">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AG14" s="3">
         <v>20</v>
@@ -5022,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="3">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="3">
         <v>60</v>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="3">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="3">
         <v>60</v>
@@ -7281,7 +7281,7 @@
         <v>0</v>
       </c>
       <c r="X52" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="3">
         <v>0</v>
@@ -7406,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="X53" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="3">
         <v>0</v>
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="X54" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="3">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="3">
         <v>0</v>
@@ -7781,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="X56" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="3">
         <v>0</v>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
@@ -950,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1665,7 +1665,7 @@
         <v>10</v>
       </c>
       <c r="AF7" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AG7" s="3">
         <v>25</v>
@@ -1918,7 +1918,7 @@
         <v>10</v>
       </c>
       <c r="AF9" s="3">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AG9" s="3">
         <v>95</v>
@@ -2043,7 +2043,7 @@
         <v>20</v>
       </c>
       <c r="AF10" s="3">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AG10" s="3">
         <v>50</v>
@@ -2543,7 +2543,7 @@
         <v>10</v>
       </c>
       <c r="AF14" s="3">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AG14" s="3">
         <v>20</v>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="148">
   <si>
     <t>Jyx2Configs.Jyx2ConfigCharacter</t>
   </si>
@@ -488,6 +488,30 @@
   </si>
   <si>
     <t>蓝隼士兵</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>160,600</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>160,700</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>160,800</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>140,700</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>140,800</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>140,800</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -948,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP56"/>
+  <dimension ref="A1:AP60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AG11" sqref="AG11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5715,7 +5739,7 @@
         <v>140</v>
       </c>
       <c r="B40" s="3">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C40" s="3">
         <v>6</v>
@@ -5840,7 +5864,7 @@
         <v>141</v>
       </c>
       <c r="B41" s="3">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C41" s="3">
         <v>6</v>
@@ -5954,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="AN41" s="7" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="AO41" s="7">
         <v>-1</v>
@@ -5965,7 +5989,7 @@
         <v>142</v>
       </c>
       <c r="B42" s="3">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C42" s="3">
         <v>6</v>
@@ -6079,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="7" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="AO42" s="7">
         <v>-1</v>
@@ -6090,7 +6114,7 @@
         <v>143</v>
       </c>
       <c r="B43" s="3">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C43" s="3">
         <v>6</v>
@@ -6204,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="AN43" s="7" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="AO43" s="7">
         <v>-1</v>
@@ -6215,7 +6239,7 @@
         <v>144</v>
       </c>
       <c r="B44" s="3">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C44" s="3">
         <v>6</v>
@@ -6329,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="AN44" s="7" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="AO44" s="7">
         <v>-1</v>
@@ -6340,7 +6364,7 @@
         <v>145</v>
       </c>
       <c r="B45" s="3">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C45" s="3">
         <v>6</v>
@@ -6465,7 +6489,7 @@
         <v>146</v>
       </c>
       <c r="B46" s="3">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C46" s="3">
         <v>6</v>
@@ -6590,7 +6614,7 @@
         <v>147</v>
       </c>
       <c r="B47" s="3">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C47" s="3">
         <v>6</v>
@@ -6715,7 +6739,7 @@
         <v>148</v>
       </c>
       <c r="B48" s="3">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C48" s="3">
         <v>6</v>
@@ -6829,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="AN48" s="7" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="AO48" s="7">
         <v>-1</v>
@@ -6840,7 +6864,7 @@
         <v>149</v>
       </c>
       <c r="B49" s="3">
-        <v>140</v>
+        <v>1410</v>
       </c>
       <c r="C49" s="3">
         <v>6</v>
@@ -6954,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="AN49" s="7" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="AO49" s="7">
         <v>-1</v>
@@ -6965,7 +6989,7 @@
         <v>160</v>
       </c>
       <c r="B50" s="3">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C50" s="3">
         <v>6</v>
@@ -7090,31 +7114,31 @@
         <v>161</v>
       </c>
       <c r="B51" s="3">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C51" s="3">
         <v>6</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
       </c>
       <c r="G51" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H51" s="3">
         <v>2250</v>
       </c>
       <c r="I51" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J51" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K51" s="3">
         <v>0</v>
@@ -7144,7 +7168,7 @@
         <v>10</v>
       </c>
       <c r="T51" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="U51" s="3">
         <v>30</v>
@@ -7180,7 +7204,7 @@
         <v>10</v>
       </c>
       <c r="AF51" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AG51" s="3">
         <v>50</v>
@@ -7204,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AN51" s="7" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="AO51" s="7">
         <v>-1</v>
@@ -7212,19 +7236,19 @@
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B52" s="3">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C52" s="3">
         <v>6</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -7260,7 +7284,7 @@
         <v>-1</v>
       </c>
       <c r="Q52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="3">
         <v>150</v>
@@ -7269,13 +7293,13 @@
         <v>10</v>
       </c>
       <c r="T52" s="3">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="U52" s="3">
         <v>30</v>
       </c>
       <c r="V52" s="3">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -7311,7 +7335,7 @@
         <v>50</v>
       </c>
       <c r="AH52" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AI52" s="3">
         <v>0</v>
@@ -7329,7 +7353,7 @@
         <v>0</v>
       </c>
       <c r="AN52" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="AO52" s="7">
         <v>-1</v>
@@ -7337,19 +7361,19 @@
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="B53" s="3">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="C53" s="3">
         <v>6</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
@@ -7385,7 +7409,7 @@
         <v>-1</v>
       </c>
       <c r="Q53" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="3">
         <v>150</v>
@@ -7394,13 +7418,13 @@
         <v>10</v>
       </c>
       <c r="T53" s="3">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="U53" s="3">
         <v>30</v>
       </c>
       <c r="V53" s="3">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="W53" s="3">
         <v>0</v>
@@ -7436,7 +7460,7 @@
         <v>50</v>
       </c>
       <c r="AH53" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AI53" s="3">
         <v>0</v>
@@ -7454,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="AN53" s="7" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="AO53" s="7">
         <v>-1</v>
@@ -7462,19 +7486,19 @@
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="B54" s="3">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C54" s="3">
         <v>6</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -7510,7 +7534,7 @@
         <v>-1</v>
       </c>
       <c r="Q54" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" s="3">
         <v>150</v>
@@ -7519,13 +7543,13 @@
         <v>10</v>
       </c>
       <c r="T54" s="3">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="U54" s="3">
         <v>30</v>
       </c>
       <c r="V54" s="3">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="W54" s="3">
         <v>0</v>
@@ -7561,7 +7585,7 @@
         <v>50</v>
       </c>
       <c r="AH54" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AI54" s="3">
         <v>0</v>
@@ -7579,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="AN54" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="AO54" s="7">
         <v>-1</v>
@@ -7587,34 +7611,34 @@
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="B55" s="3">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C55" s="3">
         <v>6</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
       </c>
       <c r="G55" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H55" s="3">
         <v>2250</v>
       </c>
       <c r="I55" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J55" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K55" s="3">
         <v>0</v>
@@ -7635,7 +7659,7 @@
         <v>-1</v>
       </c>
       <c r="Q55" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" s="3">
         <v>150</v>
@@ -7644,13 +7668,13 @@
         <v>10</v>
       </c>
       <c r="T55" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="U55" s="3">
         <v>30</v>
       </c>
       <c r="V55" s="3">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="W55" s="3">
         <v>0</v>
@@ -7680,13 +7704,13 @@
         <v>10</v>
       </c>
       <c r="AF55" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AG55" s="3">
         <v>50</v>
       </c>
       <c r="AH55" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AI55" s="3">
         <v>0</v>
@@ -7704,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="AN55" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="AO55" s="7">
         <v>-1</v>
@@ -7712,10 +7736,10 @@
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B56" s="3">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C56" s="3">
         <v>6</v>
@@ -7832,6 +7856,506 @@
         <v>131</v>
       </c>
       <c r="AO56" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>181</v>
+      </c>
+      <c r="B57" s="3">
+        <v>182</v>
+      </c>
+      <c r="C57" s="3">
+        <v>6</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>10</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>90</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P57" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>150</v>
+      </c>
+      <c r="S57" s="3">
+        <v>10</v>
+      </c>
+      <c r="T57" s="3">
+        <v>80</v>
+      </c>
+      <c r="U57" s="3">
+        <v>30</v>
+      </c>
+      <c r="V57" s="3">
+        <v>30</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF57" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG57" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH57" s="3">
+        <v>80</v>
+      </c>
+      <c r="AI57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL57" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN57" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO57" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>182</v>
+      </c>
+      <c r="B58" s="3">
+        <v>181</v>
+      </c>
+      <c r="C58" s="3">
+        <v>6</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>10</v>
+      </c>
+      <c r="H58" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I58" s="3">
+        <v>200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>200</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>90</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P58" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>150</v>
+      </c>
+      <c r="S58" s="3">
+        <v>10</v>
+      </c>
+      <c r="T58" s="3">
+        <v>80</v>
+      </c>
+      <c r="U58" s="3">
+        <v>30</v>
+      </c>
+      <c r="V58" s="3">
+        <v>30</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF58" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG58" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH58" s="3">
+        <v>80</v>
+      </c>
+      <c r="AI58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK58" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL58" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN58" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO58" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>183</v>
+      </c>
+      <c r="B59" s="3">
+        <v>181</v>
+      </c>
+      <c r="C59" s="3">
+        <v>6</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>10</v>
+      </c>
+      <c r="H59" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I59" s="3">
+        <v>200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>200</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>90</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P59" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>150</v>
+      </c>
+      <c r="S59" s="3">
+        <v>10</v>
+      </c>
+      <c r="T59" s="3">
+        <v>80</v>
+      </c>
+      <c r="U59" s="3">
+        <v>30</v>
+      </c>
+      <c r="V59" s="3">
+        <v>30</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF59" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG59" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH59" s="3">
+        <v>80</v>
+      </c>
+      <c r="AI59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK59" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL59" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN59" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO59" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>184</v>
+      </c>
+      <c r="B60" s="3">
+        <v>182</v>
+      </c>
+      <c r="C60" s="3">
+        <v>6</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>10</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I60" s="3">
+        <v>200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>200</v>
+      </c>
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>90</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P60" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>150</v>
+      </c>
+      <c r="S60" s="3">
+        <v>10</v>
+      </c>
+      <c r="T60" s="3">
+        <v>80</v>
+      </c>
+      <c r="U60" s="3">
+        <v>30</v>
+      </c>
+      <c r="V60" s="3">
+        <v>30</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF60" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG60" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH60" s="3">
+        <v>80</v>
+      </c>
+      <c r="AI60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK60" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL60" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN60" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO60" s="7">
         <v>-1</v>
       </c>
     </row>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="150">
   <si>
     <t>Jyx2Configs.Jyx2ConfigCharacter</t>
   </si>
@@ -512,6 +512,14 @@
   </si>
   <si>
     <t>140,800</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>61,500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>61,500</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -974,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2067,7 +2075,7 @@
         <v>20</v>
       </c>
       <c r="AF10" s="3">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG10" s="3">
         <v>50</v>
@@ -2457,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="3">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AL13" s="3">
         <v>-1</v>
@@ -2567,7 +2575,7 @@
         <v>10</v>
       </c>
       <c r="AF14" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AG14" s="3">
         <v>20</v>
@@ -2582,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL14" s="3">
         <v>-1</v>
@@ -2707,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AL15" s="3">
         <v>-1</v>
@@ -2832,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AL16" s="3">
         <v>-1</v>
@@ -2957,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AL17" s="3">
         <v>-1</v>
@@ -3082,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AL18" s="3">
         <v>-1</v>
@@ -3207,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AL19" s="3">
         <v>-1</v>
@@ -3332,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AL20" s="3">
         <v>-1</v>
@@ -3457,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AL21" s="3">
         <v>-1</v>
@@ -3582,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AL22" s="3">
         <v>-1</v>
@@ -3623,10 +3631,10 @@
         <v>6350</v>
       </c>
       <c r="I23" s="3">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="J23" s="3">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -3692,7 +3700,7 @@
         <v>50</v>
       </c>
       <c r="AF23" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AG23" s="3">
         <v>50</v>
@@ -3707,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AL23" s="3">
         <v>-1</v>
@@ -3716,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="AN23" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AO23" s="7" t="s">
         <v>77</v>
@@ -3748,10 +3756,10 @@
         <v>6350</v>
       </c>
       <c r="I24" s="3">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="J24" s="3">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -3817,7 +3825,7 @@
         <v>50</v>
       </c>
       <c r="AF24" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AG24" s="3">
         <v>50</v>
@@ -3832,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AL24" s="3">
         <v>-1</v>
@@ -3841,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="AN24" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="AO24" s="7" t="s">
         <v>77</v>
@@ -3873,10 +3881,10 @@
         <v>6350</v>
       </c>
       <c r="I25" s="3">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="J25" s="3">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="K25" s="3">
         <v>0</v>
@@ -3942,7 +3950,7 @@
         <v>50</v>
       </c>
       <c r="AF25" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AG25" s="3">
         <v>50</v>
@@ -3957,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AL25" s="3">
         <v>-1</v>
@@ -3966,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="AN25" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="AO25" s="7" t="s">
         <v>77</v>
@@ -3998,10 +4006,10 @@
         <v>6350</v>
       </c>
       <c r="I26" s="3">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="J26" s="3">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -4067,7 +4075,7 @@
         <v>50</v>
       </c>
       <c r="AF26" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AG26" s="3">
         <v>50</v>
@@ -4082,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AL26" s="3">
         <v>-1</v>
@@ -4091,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="AN26" s="7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AO26" s="7" t="s">
         <v>77</v>
@@ -4123,10 +4131,10 @@
         <v>6350</v>
       </c>
       <c r="I27" s="3">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="J27" s="3">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -4192,7 +4200,7 @@
         <v>50</v>
       </c>
       <c r="AF27" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AG27" s="3">
         <v>50</v>
@@ -4207,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AL27" s="3">
         <v>-1</v>
@@ -4216,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="AN27" s="7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AO27" s="7" t="s">
         <v>77</v>
@@ -4332,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AL28" s="3">
         <v>-1</v>
@@ -4457,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AL29" s="3">
         <v>-1</v>
@@ -4582,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="AK30" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AL30" s="3">
         <v>-1</v>
@@ -4707,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AL31" s="3">
         <v>-1</v>
@@ -4832,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AK32" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AL32" s="3">
         <v>-1</v>
@@ -4942,7 +4950,7 @@
         <v>46</v>
       </c>
       <c r="AF33" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AG33" s="3">
         <v>50</v>
@@ -4957,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="3">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AL33" s="3">
         <v>-1</v>
@@ -5320,7 +5328,7 @@
         <v>21</v>
       </c>
       <c r="AF36" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AG36" s="3">
         <v>50</v>
@@ -5448,7 +5456,7 @@
         <v>26</v>
       </c>
       <c r="AF37" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AG37" s="3">
         <v>50</v>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
@@ -313,9 +313,6 @@
     <t>茶恩寺住持方丈</t>
   </si>
   <si>
-    <t>30,900|31,900|32,900</t>
-  </si>
-  <si>
     <t>萨擎苍</t>
   </si>
   <si>
@@ -520,6 +517,10 @@
   </si>
   <si>
     <t>61,500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>31,900|32,900|33,900</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -982,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="W9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1093,7 +1094,7 @@
         <v>31</v>
       </c>
       <c r="AP2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.2">
@@ -1849,7 +1850,7 @@
         <v>88</v>
       </c>
       <c r="AO8" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AP8" s="3">
         <v>310</v>
@@ -1974,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="AN9" s="7" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="AO9" s="7" t="s">
         <v>77</v>
@@ -1991,10 +1992,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -2099,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="AN10" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AO10" s="7" t="s">
         <v>77</v>
@@ -2116,10 +2117,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -2224,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="AN11" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AO11" s="7" t="s">
         <v>77</v>
@@ -2241,10 +2242,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -2349,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="AN12" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AO12" s="7" t="s">
         <v>77</v>
@@ -2366,10 +2367,10 @@
         <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -2474,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="AN13" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AO13" s="7" t="s">
         <v>77</v>
@@ -2491,10 +2492,10 @@
         <v>5</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -2599,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="AN14" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AO14" s="7" t="s">
         <v>77</v>
@@ -2616,10 +2617,10 @@
         <v>4</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -2724,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="AN15" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AO15" s="7" t="s">
         <v>77</v>
@@ -2741,10 +2742,10 @@
         <v>4</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -2849,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="AN16" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AO16" s="7" t="s">
         <v>77</v>
@@ -2866,10 +2867,10 @@
         <v>4</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -2974,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="AN17" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AO17" s="7" t="s">
         <v>77</v>
@@ -2991,10 +2992,10 @@
         <v>4</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -3099,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="AN18" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AO18" s="7" t="s">
         <v>77</v>
@@ -3116,10 +3117,10 @@
         <v>4</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -3224,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="AN19" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AO19" s="7" t="s">
         <v>77</v>
@@ -3241,10 +3242,10 @@
         <v>4</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -3349,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AN20" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AO20" s="7" t="s">
         <v>77</v>
@@ -3366,10 +3367,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -3474,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="AN21" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AO21" s="7" t="s">
         <v>77</v>
@@ -3491,10 +3492,10 @@
         <v>4</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -3599,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="AN22" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AO22" s="7" t="s">
         <v>77</v>
@@ -3616,10 +3617,10 @@
         <v>4</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -3724,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="AN23" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AO23" s="7" t="s">
         <v>77</v>
@@ -3741,10 +3742,10 @@
         <v>4</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -3849,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="AN24" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AO24" s="7" t="s">
         <v>77</v>
@@ -3866,10 +3867,10 @@
         <v>4</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
@@ -3974,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="AN25" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AO25" s="7" t="s">
         <v>77</v>
@@ -3991,10 +3992,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -4099,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="AN26" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AO26" s="7" t="s">
         <v>77</v>
@@ -4116,10 +4117,10 @@
         <v>4</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -4224,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="AN27" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AO27" s="7" t="s">
         <v>77</v>
@@ -4241,10 +4242,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
@@ -4349,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="AN28" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AO28" s="7" t="s">
         <v>77</v>
@@ -4366,10 +4367,10 @@
         <v>4</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -4474,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="AN29" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AO29" s="7" t="s">
         <v>77</v>
@@ -4491,10 +4492,10 @@
         <v>4</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
@@ -4599,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="AN30" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AO30" s="7" t="s">
         <v>77</v>
@@ -4616,10 +4617,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
@@ -4724,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="AN31" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AO31" s="7" t="s">
         <v>77</v>
@@ -4741,10 +4742,10 @@
         <v>4</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -4849,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="AN32" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AO32" s="7" t="s">
         <v>77</v>
@@ -4866,10 +4867,10 @@
         <v>5</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="F33" s="3">
         <v>1</v>
@@ -4974,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="AN33" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AO33" s="7" t="s">
         <v>77</v>
@@ -4994,10 +4995,10 @@
         <v>5</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
@@ -5102,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="AN34" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AO34" s="7" t="s">
         <v>77</v>
@@ -5119,10 +5120,10 @@
         <v>5</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -5227,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="AN35" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AO35" s="7" t="s">
         <v>77</v>
@@ -5244,10 +5245,10 @@
         <v>5</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
@@ -5352,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="AN36" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AO36" s="7" t="s">
         <v>77</v>
@@ -5372,10 +5373,10 @@
         <v>5</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="F37" s="3">
         <v>1</v>
@@ -5480,10 +5481,10 @@
         <v>0</v>
       </c>
       <c r="AN37" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AO37" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AP37" s="3">
         <v>96</v>
@@ -5500,10 +5501,10 @@
         <v>7</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
@@ -5608,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="AN38" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO38" s="7" t="s">
         <v>77</v>
@@ -5625,10 +5626,10 @@
         <v>7</v>
       </c>
       <c r="D39" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
@@ -5733,10 +5734,10 @@
         <v>0</v>
       </c>
       <c r="AN39" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AO39" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AP39" s="3">
         <v>128</v>
@@ -5753,10 +5754,10 @@
         <v>6</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
@@ -5861,7 +5862,7 @@
         <v>0</v>
       </c>
       <c r="AN40" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AO40" s="7" t="s">
         <v>77</v>
@@ -5878,10 +5879,10 @@
         <v>6</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -5986,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="AN41" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO41" s="7">
         <v>-1</v>
@@ -6003,10 +6004,10 @@
         <v>6</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -6111,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AO42" s="7">
         <v>-1</v>
@@ -6128,10 +6129,10 @@
         <v>6</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -6236,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="AN43" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AO43" s="7">
         <v>-1</v>
@@ -6253,10 +6254,10 @@
         <v>6</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -6361,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="AN44" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO44" s="7">
         <v>-1</v>
@@ -6378,10 +6379,10 @@
         <v>6</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -6486,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="AN45" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AO45" s="7">
         <v>-1</v>
@@ -6503,10 +6504,10 @@
         <v>6</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -6611,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="AN46" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AO46" s="7">
         <v>-1</v>
@@ -6628,10 +6629,10 @@
         <v>6</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -6736,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="AN47" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AO47" s="7">
         <v>-1</v>
@@ -6753,10 +6754,10 @@
         <v>6</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -6861,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="AN48" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AO48" s="7">
         <v>-1</v>
@@ -6878,10 +6879,10 @@
         <v>6</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -6986,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="AN49" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO49" s="7">
         <v>-1</v>
@@ -7003,10 +7004,10 @@
         <v>6</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
@@ -7111,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="AN50" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AO50" s="7">
         <v>-1</v>
@@ -7128,10 +7129,10 @@
         <v>6</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
@@ -7236,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="AN51" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AO51" s="7">
         <v>-1</v>
@@ -7253,10 +7254,10 @@
         <v>6</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -7361,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="AN52" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AO52" s="7">
         <v>-1</v>
@@ -7378,10 +7379,10 @@
         <v>6</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
@@ -7486,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="AN53" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AO53" s="7">
         <v>-1</v>
@@ -7503,10 +7504,10 @@
         <v>6</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -7611,7 +7612,7 @@
         <v>0</v>
       </c>
       <c r="AN54" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AO54" s="7">
         <v>-1</v>
@@ -7628,10 +7629,10 @@
         <v>6</v>
       </c>
       <c r="D55" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
@@ -7736,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="AN55" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AO55" s="7">
         <v>-1</v>
@@ -7753,10 +7754,10 @@
         <v>6</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
@@ -7861,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="AN56" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AO56" s="7">
         <v>-1</v>
@@ -7878,10 +7879,10 @@
         <v>6</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -7986,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="AN57" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AO57" s="7">
         <v>-1</v>
@@ -8003,10 +8004,10 @@
         <v>6</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -8111,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="AN58" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AO58" s="7">
         <v>-1</v>
@@ -8128,10 +8129,10 @@
         <v>6</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -8236,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="AN59" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AO59" s="7">
         <v>-1</v>
@@ -8253,10 +8254,10 @@
         <v>6</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -8361,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="AN60" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AO60" s="7">
         <v>-1</v>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="151">
   <si>
     <t>Jyx2Configs.Jyx2ConfigCharacter</t>
   </si>
@@ -521,6 +521,10 @@
   </si>
   <si>
     <t>31,900|32,900|33,900</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>75,1|76,1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -983,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="W9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4978,7 +4982,7 @@
         <v>105</v>
       </c>
       <c r="AO33" s="7" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="AP33" s="3">
         <v>714</v>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25005"/>
+    <workbookView windowWidth="16200" windowHeight="25005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="144">
   <si>
     <t>Jyx2Configs.Jyx2ConfigCharacter</t>
   </si>
@@ -38,7 +33,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>N</t>
@@ -48,7 +42,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ame</t>
@@ -136,6 +129,9 @@
     <t>Items</t>
   </si>
   <si>
+    <t>LeaveStoryId</t>
+  </si>
+  <si>
     <t>代号</t>
   </si>
   <si>
@@ -298,6 +294,15 @@
     <t>20,900</t>
   </si>
   <si>
+    <t>童岿然</t>
+  </si>
+  <si>
+    <t>万烛书苑二当家</t>
+  </si>
+  <si>
+    <t>20,800</t>
+  </si>
+  <si>
     <t>虚寂</t>
   </si>
   <si>
@@ -307,12 +312,18 @@
     <t>30,100</t>
   </si>
   <si>
+    <t>34,1</t>
+  </si>
+  <si>
     <t>寿眉大师</t>
   </si>
   <si>
     <t>茶恩寺住持方丈</t>
   </si>
   <si>
+    <t>31,900|32,900|33,900</t>
+  </si>
+  <si>
     <t>萨擎苍</t>
   </si>
   <si>
@@ -340,6 +351,12 @@
     <t>王远</t>
   </si>
   <si>
+    <t>将军府大将军</t>
+  </si>
+  <si>
+    <t>60,700|61,900</t>
+  </si>
+  <si>
     <t>伏格多</t>
   </si>
   <si>
@@ -349,6 +366,18 @@
     <t>62,900</t>
   </si>
   <si>
+    <t>将军府士兵</t>
+  </si>
+  <si>
+    <t>61,500</t>
+  </si>
+  <si>
+    <t>61,700</t>
+  </si>
+  <si>
+    <t>蓝隼士兵</t>
+  </si>
+  <si>
     <t>佟雯</t>
   </si>
   <si>
@@ -358,6 +387,12 @@
     <t>70,500|71,400</t>
   </si>
   <si>
+    <t>75,1|76,1</t>
+  </si>
+  <si>
+    <t>罂粟谷弟子</t>
+  </si>
+  <si>
     <t>童四二</t>
   </si>
   <si>
@@ -373,6 +408,9 @@
     <t>90,300</t>
   </si>
   <si>
+    <t>91,1</t>
+  </si>
+  <si>
     <t>牛不三</t>
   </si>
   <si>
@@ -382,157 +420,62 @@
     <t>90,800</t>
   </si>
   <si>
+    <t>隋青竹</t>
+  </si>
+  <si>
+    <t>隋仙堂神医</t>
+  </si>
+  <si>
+    <t>0,0|120,800</t>
+  </si>
+  <si>
     <t>野狼</t>
   </si>
   <si>
     <t>140,600</t>
   </si>
   <si>
-    <t>隋青竹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>隋仙堂神医</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>140,700</t>
+  </si>
+  <si>
+    <t>140,800</t>
   </si>
   <si>
     <t>黑熊</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>160,500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>160,600</t>
+  </si>
+  <si>
+    <t>160,800</t>
+  </si>
+  <si>
+    <t>160,700</t>
   </si>
   <si>
     <t>巨型黑熊</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨型黑熊</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>160,800</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>罂粟谷弟子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0|120,800</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>91,1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>毒蛇</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>180,600</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeaveStoryId</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>将军府大将军</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>将军府士兵</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,700|61,900</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>61,500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>61,700</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>将军府士兵</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>将军府士兵</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝隼士兵</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝隼士兵</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>160,600</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>160,700</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>160,800</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>140,700</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>140,800</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>140,800</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>61,500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>61,500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>31,900|32,900|33,900</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>75,1|76,1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -543,52 +486,373 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -596,25 +860,267 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -632,23 +1138,66 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1"/>
-    <cellStyle name="普通 2" xfId="2"/>
-    <cellStyle name="普通 3" xfId="4"/>
-    <cellStyle name="普通 4" xfId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="普通 4" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -979,31 +1528,31 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AP61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="U57" sqref="$A57:$XFD57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="6" max="39" width="9" customWidth="1"/>
-    <col min="40" max="40" width="41.125" style="1" customWidth="1"/>
-    <col min="41" max="41" width="22.75" style="1" customWidth="1"/>
+    <col min="40" max="40" width="41.1238938053097" style="1" customWidth="1"/>
+    <col min="41" max="41" width="22.7522123893805" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:42">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1098,138 +1647,138 @@
         <v>31</v>
       </c>
       <c r="AP2" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AL3" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AM3" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AN3" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AO3" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AP3" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1240,10 +1789,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -1348,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="AN4" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO4" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41">
       <c r="A5" s="3">
         <v>10</v>
       </c>
@@ -1365,10 +1914,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -1473,13 +2022,13 @@
         <v>0</v>
       </c>
       <c r="AN5" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AO5" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42">
       <c r="A6" s="3">
         <v>11</v>
       </c>
@@ -1490,10 +2039,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -1598,16 +2147,16 @@
         <v>0</v>
       </c>
       <c r="AN6" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AO6" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AP6" s="3">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41">
       <c r="A7" s="3">
         <v>20</v>
       </c>
@@ -1618,10 +2167,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -1702,7 +2251,7 @@
         <v>10</v>
       </c>
       <c r="AF7" s="3">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG7" s="3">
         <v>25</v>
@@ -1726,42 +2275,42 @@
         <v>0</v>
       </c>
       <c r="AN7" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO7" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41">
       <c r="A8" s="3">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3">
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H8" s="3">
-        <v>750</v>
+        <v>-30036</v>
       </c>
       <c r="I8" s="3">
-        <v>182</v>
+        <v>622</v>
       </c>
       <c r="J8" s="3">
-        <v>182</v>
+        <v>622</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -1782,22 +2331,22 @@
         <v>-1</v>
       </c>
       <c r="Q8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R8" s="3">
-        <v>386</v>
+        <v>860</v>
       </c>
       <c r="S8" s="3">
-        <v>386</v>
+        <v>860</v>
       </c>
       <c r="T8" s="3">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="U8" s="3">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="V8" s="3">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W8" s="3">
         <v>0</v>
@@ -1812,84 +2361,81 @@
         <v>0</v>
       </c>
       <c r="AA8" s="3">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="AB8" s="3">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="AC8" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AD8" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>70</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>25</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>70</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO8" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
+      <c r="A9" s="3">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>6</v>
       </c>
-      <c r="AE8" s="3">
-        <v>17</v>
-      </c>
-      <c r="AF8" s="3">
-        <v>60</v>
-      </c>
-      <c r="AG8" s="3">
-        <v>38</v>
-      </c>
-      <c r="AH8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="3">
-        <v>61</v>
-      </c>
-      <c r="AL8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AM8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO8" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP8" s="3">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>31</v>
-      </c>
-      <c r="B9" s="3">
-        <v>31</v>
-      </c>
-      <c r="C9" s="3">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>36</v>
-      </c>
       <c r="H9" s="3">
-        <v>-9036</v>
+        <v>750</v>
       </c>
       <c r="I9" s="3">
-        <v>992</v>
+        <v>182</v>
       </c>
       <c r="J9" s="3">
-        <v>992</v>
+        <v>182</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -1913,19 +2459,19 @@
         <v>1</v>
       </c>
       <c r="R9" s="3">
-        <v>999</v>
+        <v>386</v>
       </c>
       <c r="S9" s="3">
-        <v>999</v>
+        <v>386</v>
       </c>
       <c r="T9" s="3">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="U9" s="3">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="V9" s="3">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="W9" s="3">
         <v>0</v>
@@ -1940,25 +2486,25 @@
         <v>0</v>
       </c>
       <c r="AA9" s="3">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="AB9" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC9" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AD9" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE9" s="3">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AF9" s="3">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AG9" s="3">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AH9" s="3">
         <v>0</v>
@@ -1970,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="AK9" s="3">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="AL9" s="3">
         <v>-1</v>
@@ -1979,42 +2525,45 @@
         <v>0</v>
       </c>
       <c r="AN9" s="7" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="AO9" s="7" t="s">
-        <v>77</v>
+        <v>93</v>
+      </c>
+      <c r="AP9" s="3">
+        <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41">
       <c r="A10" s="3">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H10" s="3">
         <v>-9036</v>
       </c>
       <c r="I10" s="3">
-        <v>885</v>
+        <v>992</v>
       </c>
       <c r="J10" s="3">
-        <v>885</v>
+        <v>992</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -2038,52 +2587,52 @@
         <v>1</v>
       </c>
       <c r="R10" s="3">
-        <v>900</v>
+        <v>999</v>
       </c>
       <c r="S10" s="3">
-        <v>900</v>
+        <v>999</v>
       </c>
       <c r="T10" s="3">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="U10" s="3">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="V10" s="3">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="W10" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X10" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="3">
         <v>0</v>
       </c>
       <c r="AA10" s="3">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AB10" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AC10" s="3">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="AD10" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE10" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AF10" s="3">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG10" s="3">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="AH10" s="3">
         <v>0</v>
@@ -2095,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="3">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AL10" s="3">
         <v>-1</v>
@@ -2104,42 +2653,42 @@
         <v>0</v>
       </c>
       <c r="AN10" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AO10" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41">
       <c r="A11" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3">
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H11" s="3">
-        <v>6350</v>
+        <v>-9036</v>
       </c>
       <c r="I11" s="3">
-        <v>230</v>
+        <v>885</v>
       </c>
       <c r="J11" s="3">
-        <v>230</v>
+        <v>885</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
@@ -2163,49 +2712,49 @@
         <v>1</v>
       </c>
       <c r="R11" s="3">
-        <v>290</v>
+        <v>900</v>
       </c>
       <c r="S11" s="3">
-        <v>290</v>
+        <v>900</v>
       </c>
       <c r="T11" s="3">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U11" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="V11" s="3">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="W11" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X11" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y11" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z11" s="3">
         <v>0</v>
       </c>
       <c r="AA11" s="3">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="AB11" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AC11" s="3">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="AD11" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AF11" s="3">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AG11" s="3">
         <v>50</v>
@@ -2220,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="3">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AL11" s="3">
         <v>-1</v>
@@ -2229,36 +2778,36 @@
         <v>0</v>
       </c>
       <c r="AN11" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AO11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41">
       <c r="A12" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3">
         <v>4</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H12" s="3">
-        <v>2250</v>
+        <v>6350</v>
       </c>
       <c r="I12" s="3">
         <v>230</v>
@@ -2288,19 +2837,19 @@
         <v>1</v>
       </c>
       <c r="R12" s="3">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="S12" s="3">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="T12" s="3">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="U12" s="3">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="V12" s="3">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="W12" s="3">
         <v>0</v>
@@ -2324,16 +2873,16 @@
         <v>10</v>
       </c>
       <c r="AD12" s="3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE12" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AF12" s="3">
         <v>50</v>
       </c>
       <c r="AG12" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AH12" s="3">
         <v>0</v>
@@ -2354,42 +2903,42 @@
         <v>0</v>
       </c>
       <c r="AN12" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AO12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41">
       <c r="A13" s="3">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B13" s="3">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H13" s="3">
-        <v>-22086</v>
+        <v>2250</v>
       </c>
       <c r="I13" s="3">
-        <v>999</v>
+        <v>230</v>
       </c>
       <c r="J13" s="3">
-        <v>999</v>
+        <v>230</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
@@ -2413,19 +2962,19 @@
         <v>1</v>
       </c>
       <c r="R13" s="3">
-        <v>900</v>
+        <v>280</v>
       </c>
       <c r="S13" s="3">
-        <v>900</v>
+        <v>280</v>
       </c>
       <c r="T13" s="3">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="U13" s="3">
         <v>68</v>
       </c>
       <c r="V13" s="3">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="W13" s="3">
         <v>0</v>
@@ -2440,25 +2989,25 @@
         <v>0</v>
       </c>
       <c r="AA13" s="3">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="AB13" s="3">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="AC13" s="3">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="AD13" s="3">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="AE13" s="3">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="AF13" s="3">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AG13" s="3">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="AH13" s="3">
         <v>0</v>
@@ -2470,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="3">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AL13" s="3">
         <v>-1</v>
@@ -2479,36 +3028,36 @@
         <v>0</v>
       </c>
       <c r="AN13" s="7" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="AO13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41">
       <c r="A14" s="3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="H14" s="3">
-        <v>-9036</v>
+        <v>-22086</v>
       </c>
       <c r="I14" s="3">
         <v>999</v>
@@ -2538,16 +3087,16 @@
         <v>1</v>
       </c>
       <c r="R14" s="3">
-        <v>999</v>
+        <v>900</v>
       </c>
       <c r="S14" s="3">
-        <v>999</v>
+        <v>900</v>
       </c>
       <c r="T14" s="3">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="U14" s="3">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="V14" s="3">
         <v>99</v>
@@ -2562,31 +3111,31 @@
         <v>0</v>
       </c>
       <c r="Z14" s="3">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="3">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="AB14" s="3">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="AC14" s="3">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="AD14" s="3">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="AE14" s="3">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="AF14" s="3">
         <v>70</v>
       </c>
       <c r="AG14" s="3">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="AH14" s="3">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AI14" s="3">
         <v>0</v>
@@ -2604,42 +3153,42 @@
         <v>0</v>
       </c>
       <c r="AN14" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AO14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41">
       <c r="A15" s="3">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="3">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="H15" s="3">
-        <v>6350</v>
+        <v>-9036</v>
       </c>
       <c r="I15" s="3">
-        <v>230</v>
+        <v>999</v>
       </c>
       <c r="J15" s="3">
-        <v>230</v>
+        <v>999</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -2663,19 +3212,19 @@
         <v>1</v>
       </c>
       <c r="R15" s="3">
-        <v>290</v>
+        <v>999</v>
       </c>
       <c r="S15" s="3">
-        <v>290</v>
+        <v>999</v>
       </c>
       <c r="T15" s="3">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="U15" s="3">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="V15" s="3">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -2687,10 +3236,10 @@
         <v>0</v>
       </c>
       <c r="Z15" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AA15" s="3">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="AB15" s="3">
         <v>10</v>
@@ -2699,19 +3248,19 @@
         <v>10</v>
       </c>
       <c r="AD15" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AE15" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AF15" s="3">
+        <v>80</v>
+      </c>
+      <c r="AG15" s="3">
         <v>20</v>
       </c>
-      <c r="AG15" s="3">
-        <v>50</v>
-      </c>
       <c r="AH15" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI15" s="3">
         <v>0</v>
@@ -2720,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AL15" s="3">
         <v>-1</v>
@@ -2729,15 +3278,15 @@
         <v>0</v>
       </c>
       <c r="AN15" s="7" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="AO15" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41">
       <c r="A16" s="3">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="3">
         <v>62</v>
@@ -2746,10 +3295,10 @@
         <v>4</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -2854,15 +3403,15 @@
         <v>0</v>
       </c>
       <c r="AN16" s="7" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="AO16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41">
       <c r="A17" s="3">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="3">
         <v>62</v>
@@ -2871,10 +3420,10 @@
         <v>4</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -2979,15 +3528,15 @@
         <v>0</v>
       </c>
       <c r="AN17" s="7" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="AO17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41">
       <c r="A18" s="3">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="3">
         <v>62</v>
@@ -2996,10 +3545,10 @@
         <v>4</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -3104,15 +3653,15 @@
         <v>0</v>
       </c>
       <c r="AN18" s="7" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="AO18" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41">
       <c r="A19" s="3">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="3">
         <v>62</v>
@@ -3121,10 +3670,10 @@
         <v>4</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -3136,10 +3685,10 @@
         <v>6350</v>
       </c>
       <c r="I19" s="3">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="J19" s="3">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="K19" s="3">
         <v>0</v>
@@ -3163,10 +3712,10 @@
         <v>1</v>
       </c>
       <c r="R19" s="3">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="S19" s="3">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="T19" s="3">
         <v>77</v>
@@ -3229,15 +3778,15 @@
         <v>0</v>
       </c>
       <c r="AN19" s="7" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="AO19" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41">
       <c r="A20" s="3">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="3">
         <v>62</v>
@@ -3246,10 +3795,10 @@
         <v>4</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -3354,15 +3903,15 @@
         <v>0</v>
       </c>
       <c r="AN20" s="7" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="AO20" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41">
       <c r="A21" s="3">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="3">
         <v>62</v>
@@ -3371,10 +3920,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -3479,15 +4028,15 @@
         <v>0</v>
       </c>
       <c r="AN21" s="7" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="AO21" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41">
       <c r="A22" s="3">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="3">
         <v>62</v>
@@ -3496,10 +4045,10 @@
         <v>4</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -3604,27 +4153,27 @@
         <v>0</v>
       </c>
       <c r="AN22" s="7" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="AO22" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41">
       <c r="A23" s="3">
-        <v>610</v>
+        <v>69</v>
       </c>
       <c r="B23" s="3">
-        <v>610</v>
+        <v>62</v>
       </c>
       <c r="C23" s="3">
         <v>4</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -3636,10 +4185,10 @@
         <v>6350</v>
       </c>
       <c r="I23" s="3">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="J23" s="3">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -3705,7 +4254,7 @@
         <v>50</v>
       </c>
       <c r="AF23" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AG23" s="3">
         <v>50</v>
@@ -3729,15 +4278,15 @@
         <v>0</v>
       </c>
       <c r="AN23" s="7" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="AO23" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:41">
       <c r="A24" s="3">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B24" s="3">
         <v>610</v>
@@ -3746,10 +4295,10 @@
         <v>4</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -3854,15 +4403,15 @@
         <v>0</v>
       </c>
       <c r="AN24" s="7" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="AO24" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:41">
       <c r="A25" s="3">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B25" s="3">
         <v>610</v>
@@ -3871,10 +4420,10 @@
         <v>4</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
@@ -3979,15 +4528,15 @@
         <v>0</v>
       </c>
       <c r="AN25" s="7" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="AO25" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:41">
       <c r="A26" s="3">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B26" s="3">
         <v>610</v>
@@ -3996,10 +4545,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -4104,15 +4653,15 @@
         <v>0</v>
       </c>
       <c r="AN26" s="7" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="AO26" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:41">
       <c r="A27" s="3">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B27" s="3">
         <v>610</v>
@@ -4121,10 +4670,10 @@
         <v>4</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -4229,15 +4778,15 @@
         <v>0</v>
       </c>
       <c r="AN27" s="7" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="AO27" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:41">
       <c r="A28" s="3">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B28" s="3">
         <v>610</v>
@@ -4246,10 +4795,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
@@ -4261,10 +4810,10 @@
         <v>6350</v>
       </c>
       <c r="I28" s="3">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="J28" s="3">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="K28" s="3">
         <v>0</v>
@@ -4330,7 +4879,7 @@
         <v>50</v>
       </c>
       <c r="AF28" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AG28" s="3">
         <v>50</v>
@@ -4354,15 +4903,15 @@
         <v>0</v>
       </c>
       <c r="AN28" s="7" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="AO28" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:41">
       <c r="A29" s="3">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B29" s="3">
         <v>610</v>
@@ -4371,10 +4920,10 @@
         <v>4</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -4479,15 +5028,15 @@
         <v>0</v>
       </c>
       <c r="AN29" s="7" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="AO29" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:41">
       <c r="A30" s="3">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B30" s="3">
         <v>610</v>
@@ -4496,10 +5045,10 @@
         <v>4</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
@@ -4604,15 +5153,15 @@
         <v>0</v>
       </c>
       <c r="AN30" s="7" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="AO30" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:41">
       <c r="A31" s="3">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B31" s="3">
         <v>610</v>
@@ -4621,10 +5170,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
@@ -4729,15 +5278,15 @@
         <v>0</v>
       </c>
       <c r="AN31" s="7" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="AO31" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:41">
       <c r="A32" s="3">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B32" s="3">
         <v>610</v>
@@ -4746,10 +5295,10 @@
         <v>4</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -4854,42 +5403,42 @@
         <v>0</v>
       </c>
       <c r="AN32" s="7" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="AO32" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:41">
       <c r="A33" s="3">
-        <v>70</v>
+        <v>619</v>
       </c>
       <c r="B33" s="3">
-        <v>70</v>
+        <v>610</v>
       </c>
       <c r="C33" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F33" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H33" s="3">
-        <v>2250</v>
+        <v>6350</v>
       </c>
       <c r="I33" s="3">
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="J33" s="3">
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -4910,58 +5459,58 @@
         <v>-1</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="3">
-        <v>102</v>
+        <v>300</v>
       </c>
       <c r="S33" s="3">
-        <v>102</v>
+        <v>300</v>
       </c>
       <c r="T33" s="3">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="U33" s="3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="V33" s="3">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="W33" s="3">
         <v>0</v>
       </c>
       <c r="X33" s="3">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="3">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="AB33" s="3">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="AC33" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD33" s="3">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AE33" s="3">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AF33" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AG33" s="3">
         <v>50</v>
       </c>
       <c r="AH33" s="3">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="3">
         <v>0</v>
@@ -4970,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="3">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AL33" s="3">
         <v>-1</v>
@@ -4979,33 +5528,30 @@
         <v>0</v>
       </c>
       <c r="AN33" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AO33" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP33" s="3">
-        <v>714</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:42">
       <c r="A34" s="3">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" s="3">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="3">
         <v>5</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>124</v>
+      <c r="D34" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="F34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="3">
         <v>10</v>
@@ -5059,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="3">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="Y34" s="3">
         <v>60</v>
@@ -5083,7 +5629,7 @@
         <v>46</v>
       </c>
       <c r="AF34" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AG34" s="3">
         <v>50</v>
@@ -5098,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="3">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AL34" s="3">
         <v>-1</v>
@@ -5107,27 +5653,30 @@
         <v>0</v>
       </c>
       <c r="AN34" s="7" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="AO34" s="7" t="s">
-        <v>77</v>
+        <v>118</v>
+      </c>
+      <c r="AP34" s="3">
+        <v>714</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:41">
       <c r="A35" s="3">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B35" s="3">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" s="3">
         <v>5</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>124</v>
+      <c r="D35" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -5232,42 +5781,42 @@
         <v>0</v>
       </c>
       <c r="AN35" s="7" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="AO35" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:41">
       <c r="A36" s="3">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B36" s="3">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C36" s="3">
         <v>5</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H36" s="3">
-        <v>50</v>
+        <v>2250</v>
       </c>
       <c r="I36" s="3">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="J36" s="3">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="K36" s="3">
         <v>0</v>
@@ -5288,22 +5837,22 @@
         <v>-1</v>
       </c>
       <c r="Q36" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R36" s="3">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="S36" s="3">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="T36" s="3">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="U36" s="3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="V36" s="3">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="W36" s="3">
         <v>0</v>
@@ -5312,25 +5861,25 @@
         <v>0</v>
       </c>
       <c r="Y36" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Z36" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA36" s="3">
+        <v>52</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>44</v>
+      </c>
+      <c r="AC36" s="3">
         <v>12</v>
       </c>
-      <c r="AB36" s="3">
-        <v>36</v>
-      </c>
-      <c r="AC36" s="3">
-        <v>6</v>
-      </c>
       <c r="AD36" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="AE36" s="3">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="AF36" s="3">
         <v>30</v>
@@ -5339,7 +5888,7 @@
         <v>50</v>
       </c>
       <c r="AH36" s="3">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AI36" s="3">
         <v>0</v>
@@ -5348,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="3">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AL36" s="3">
         <v>-1</v>
@@ -5357,33 +5906,30 @@
         <v>0</v>
       </c>
       <c r="AN36" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AO36" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP36" s="3">
-        <v>813</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:42">
       <c r="A37" s="3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B37" s="3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C37" s="3">
         <v>5</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="F37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="3">
         <v>2</v>
@@ -5392,10 +5938,10 @@
         <v>50</v>
       </c>
       <c r="I37" s="3">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="J37" s="3">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="K37" s="3">
         <v>0</v>
@@ -5404,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N37" s="3">
         <v>0</v>
@@ -5416,22 +5962,22 @@
         <v>-1</v>
       </c>
       <c r="Q37" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R37" s="3">
+        <v>25</v>
+      </c>
+      <c r="S37" s="3">
+        <v>25</v>
+      </c>
+      <c r="T37" s="3">
         <v>21</v>
       </c>
-      <c r="S37" s="3">
-        <v>21</v>
-      </c>
-      <c r="T37" s="3">
-        <v>14</v>
-      </c>
       <c r="U37" s="3">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="V37" s="3">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="W37" s="3">
         <v>0</v>
@@ -5446,19 +5992,19 @@
         <v>0</v>
       </c>
       <c r="AA37" s="3">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AB37" s="3">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AC37" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD37" s="3">
         <v>3</v>
       </c>
       <c r="AE37" s="3">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AF37" s="3">
         <v>30</v>
@@ -5476,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="3">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AL37" s="3">
         <v>-1</v>
@@ -5485,114 +6031,114 @@
         <v>0</v>
       </c>
       <c r="AN37" s="7" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="AO37" s="7" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="AP37" s="3">
-        <v>96</v>
+        <v>813</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:42">
       <c r="A38" s="3">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B38" s="3">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="3">
+        <v>5</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>2</v>
+      </c>
+      <c r="H38" s="3">
+        <v>50</v>
+      </c>
+      <c r="I38" s="3">
+        <v>38</v>
+      </c>
+      <c r="J38" s="3">
+        <v>38</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
+        <v>100</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0</v>
+      </c>
+      <c r="O38" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P38" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>0</v>
+      </c>
+      <c r="R38" s="3">
+        <v>21</v>
+      </c>
+      <c r="S38" s="3">
+        <v>21</v>
+      </c>
+      <c r="T38" s="3">
+        <v>14</v>
+      </c>
+      <c r="U38" s="3">
+        <v>30</v>
+      </c>
+      <c r="V38" s="3">
+        <v>22</v>
+      </c>
+      <c r="W38" s="3">
+        <v>0</v>
+      </c>
+      <c r="X38" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>23</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>18</v>
+      </c>
+      <c r="AC38" s="3">
         <v>7</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3">
-        <v>16</v>
-      </c>
-      <c r="H38" s="3">
-        <v>9250</v>
-      </c>
-      <c r="I38" s="3">
-        <v>308</v>
-      </c>
-      <c r="J38" s="3">
-        <v>308</v>
-      </c>
-      <c r="K38" s="3">
-        <v>0</v>
-      </c>
-      <c r="L38" s="3">
-        <v>0</v>
-      </c>
-      <c r="M38" s="3">
-        <v>90</v>
-      </c>
-      <c r="N38" s="3">
-        <v>0</v>
-      </c>
-      <c r="O38" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P38" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>1</v>
-      </c>
-      <c r="R38" s="3">
-        <v>590</v>
-      </c>
-      <c r="S38" s="3">
-        <v>590</v>
-      </c>
-      <c r="T38" s="3">
-        <v>65</v>
-      </c>
-      <c r="U38" s="3">
-        <v>60</v>
-      </c>
-      <c r="V38" s="3">
-        <v>72</v>
-      </c>
-      <c r="W38" s="3">
-        <v>0</v>
-      </c>
-      <c r="X38" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="3">
-        <v>75</v>
-      </c>
-      <c r="AB38" s="3">
-        <v>56</v>
-      </c>
-      <c r="AC38" s="3">
-        <v>43</v>
-      </c>
       <c r="AD38" s="3">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="AE38" s="3">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="AF38" s="3">
         <v>30</v>
       </c>
       <c r="AG38" s="3">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="AH38" s="3">
         <v>0</v>
@@ -5613,42 +6159,45 @@
         <v>0</v>
       </c>
       <c r="AN38" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AO38" s="7" t="s">
-        <v>77</v>
+        <v>125</v>
+      </c>
+      <c r="AP38" s="3">
+        <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:41">
       <c r="A39" s="3">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="B39" s="3">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="C39" s="3">
         <v>7</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>117</v>
+      <c r="D39" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
       </c>
       <c r="G39" s="3">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H39" s="3">
-        <v>500</v>
+        <v>9250</v>
       </c>
       <c r="I39" s="3">
-        <v>95</v>
+        <v>308</v>
       </c>
       <c r="J39" s="3">
-        <v>95</v>
+        <v>308</v>
       </c>
       <c r="K39" s="3">
         <v>0</v>
@@ -5669,55 +6218,55 @@
         <v>-1</v>
       </c>
       <c r="Q39" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R39" s="3">
-        <v>35</v>
+        <v>590</v>
       </c>
       <c r="S39" s="3">
-        <v>35</v>
+        <v>590</v>
       </c>
       <c r="T39" s="3">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="U39" s="3">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="V39" s="3">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="W39" s="3">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="X39" s="3">
         <v>0</v>
       </c>
       <c r="Y39" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>75</v>
+      </c>
+      <c r="AB39" s="3">
         <v>56</v>
       </c>
-      <c r="Z39" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="3">
-        <v>21</v>
-      </c>
-      <c r="AB39" s="3">
-        <v>8</v>
-      </c>
       <c r="AC39" s="3">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="AD39" s="3">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AE39" s="3">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="AF39" s="3">
         <v>50</v>
       </c>
       <c r="AG39" s="3">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="AH39" s="3">
         <v>0</v>
@@ -5738,45 +6287,42 @@
         <v>0</v>
       </c>
       <c r="AN39" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AO39" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AP39" s="3">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:42">
       <c r="A40" s="3">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B40" s="3">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C40" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
       </c>
       <c r="G40" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H40" s="3">
-        <v>2250</v>
+        <v>500</v>
       </c>
       <c r="I40" s="3">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="J40" s="3">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="K40" s="3">
         <v>0</v>
@@ -5797,52 +6343,52 @@
         <v>-1</v>
       </c>
       <c r="Q40" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R40" s="3">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="S40" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="T40" s="3">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="U40" s="3">
+        <v>35</v>
+      </c>
+      <c r="V40" s="3">
+        <v>35</v>
+      </c>
+      <c r="W40" s="3">
+        <v>74</v>
+      </c>
+      <c r="X40" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>56</v>
+      </c>
+      <c r="Z40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="3">
+        <v>21</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>8</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>6</v>
+      </c>
+      <c r="AD40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="3">
+        <v>12</v>
+      </c>
+      <c r="AF40" s="3">
         <v>30</v>
-      </c>
-      <c r="V40" s="3">
-        <v>30</v>
-      </c>
-      <c r="W40" s="3">
-        <v>0</v>
-      </c>
-      <c r="X40" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB40" s="3">
-        <v>10</v>
-      </c>
-      <c r="AC40" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD40" s="3">
-        <v>10</v>
-      </c>
-      <c r="AE40" s="3">
-        <v>10</v>
-      </c>
-      <c r="AF40" s="3">
-        <v>20</v>
       </c>
       <c r="AG40" s="3">
         <v>50</v>
@@ -5866,27 +6412,30 @@
         <v>0</v>
       </c>
       <c r="AN40" s="7" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="AO40" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AP40" s="3">
+        <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:41">
       <c r="A41" s="3">
+        <v>140</v>
+      </c>
+      <c r="B41" s="3">
         <v>141</v>
-      </c>
-      <c r="B41" s="3">
-        <v>142</v>
       </c>
       <c r="C41" s="3">
         <v>6</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -5991,27 +6540,27 @@
         <v>0</v>
       </c>
       <c r="AN41" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="AO41" s="7">
-        <v>-1</v>
+        <v>133</v>
+      </c>
+      <c r="AO41" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:41">
       <c r="A42" s="3">
+        <v>141</v>
+      </c>
+      <c r="B42" s="3">
         <v>142</v>
-      </c>
-      <c r="B42" s="3">
-        <v>143</v>
       </c>
       <c r="C42" s="3">
         <v>6</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -6116,27 +6665,27 @@
         <v>0</v>
       </c>
       <c r="AN42" s="7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="AO42" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:41">
       <c r="A43" s="3">
+        <v>142</v>
+      </c>
+      <c r="B43" s="3">
         <v>143</v>
-      </c>
-      <c r="B43" s="3">
-        <v>144</v>
       </c>
       <c r="C43" s="3">
         <v>6</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -6241,27 +6790,27 @@
         <v>0</v>
       </c>
       <c r="AN43" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="AO43" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:41">
       <c r="A44" s="3">
+        <v>143</v>
+      </c>
+      <c r="B44" s="3">
         <v>144</v>
-      </c>
-      <c r="B44" s="3">
-        <v>145</v>
       </c>
       <c r="C44" s="3">
         <v>6</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -6366,27 +6915,27 @@
         <v>0</v>
       </c>
       <c r="AN44" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AO44" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41">
+      <c r="A45" s="3">
         <v>144</v>
       </c>
-      <c r="AO44" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+      <c r="B45" s="3">
         <v>145</v>
-      </c>
-      <c r="B45" s="3">
-        <v>146</v>
       </c>
       <c r="C45" s="3">
         <v>6</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -6491,27 +7040,27 @@
         <v>0</v>
       </c>
       <c r="AN45" s="7" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="AO45" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:41">
       <c r="A46" s="3">
+        <v>145</v>
+      </c>
+      <c r="B46" s="3">
         <v>146</v>
-      </c>
-      <c r="B46" s="3">
-        <v>147</v>
       </c>
       <c r="C46" s="3">
         <v>6</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -6616,27 +7165,27 @@
         <v>0</v>
       </c>
       <c r="AN46" s="7" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="AO46" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:41">
       <c r="A47" s="3">
+        <v>146</v>
+      </c>
+      <c r="B47" s="3">
         <v>147</v>
-      </c>
-      <c r="B47" s="3">
-        <v>148</v>
       </c>
       <c r="C47" s="3">
         <v>6</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -6741,27 +7290,27 @@
         <v>0</v>
       </c>
       <c r="AN47" s="7" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="AO47" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:41">
       <c r="A48" s="3">
+        <v>147</v>
+      </c>
+      <c r="B48" s="3">
         <v>148</v>
-      </c>
-      <c r="B48" s="3">
-        <v>149</v>
       </c>
       <c r="C48" s="3">
         <v>6</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -6866,27 +7415,27 @@
         <v>0</v>
       </c>
       <c r="AN48" s="7" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="AO48" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:41">
       <c r="A49" s="3">
+        <v>148</v>
+      </c>
+      <c r="B49" s="3">
         <v>149</v>
-      </c>
-      <c r="B49" s="3">
-        <v>1410</v>
       </c>
       <c r="C49" s="3">
         <v>6</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -6991,27 +7540,27 @@
         <v>0</v>
       </c>
       <c r="AN49" s="7" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="AO49" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:41">
       <c r="A50" s="3">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B50" s="3">
-        <v>163</v>
+        <v>1410</v>
       </c>
       <c r="C50" s="3">
         <v>6</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
@@ -7056,13 +7605,13 @@
         <v>10</v>
       </c>
       <c r="T50" s="3">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="U50" s="3">
         <v>30</v>
       </c>
       <c r="V50" s="3">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="W50" s="3">
         <v>0</v>
@@ -7092,7 +7641,7 @@
         <v>10</v>
       </c>
       <c r="AF50" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AG50" s="3">
         <v>50</v>
@@ -7116,27 +7665,27 @@
         <v>0</v>
       </c>
       <c r="AN50" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="AO50" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:41">
       <c r="A51" s="3">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B51" s="3">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C51" s="3">
         <v>6</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
@@ -7217,7 +7766,7 @@
         <v>10</v>
       </c>
       <c r="AF51" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AG51" s="3">
         <v>50</v>
@@ -7241,27 +7790,27 @@
         <v>0</v>
       </c>
       <c r="AN51" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AO51" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:41">
       <c r="A52" s="3">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B52" s="3">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C52" s="3">
         <v>6</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -7342,7 +7891,7 @@
         <v>10</v>
       </c>
       <c r="AF52" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AG52" s="3">
         <v>50</v>
@@ -7366,27 +7915,27 @@
         <v>0</v>
       </c>
       <c r="AN52" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AO52" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:41">
       <c r="A53" s="3">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B53" s="3">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C53" s="3">
         <v>6</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
@@ -7467,7 +8016,7 @@
         <v>10</v>
       </c>
       <c r="AF53" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AG53" s="3">
         <v>50</v>
@@ -7491,27 +8040,27 @@
         <v>0</v>
       </c>
       <c r="AN53" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AO53" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:41">
       <c r="A54" s="3">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B54" s="3">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C54" s="3">
         <v>6</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -7592,7 +8141,7 @@
         <v>10</v>
       </c>
       <c r="AF54" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AG54" s="3">
         <v>50</v>
@@ -7616,42 +8165,42 @@
         <v>0</v>
       </c>
       <c r="AN54" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AO54" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:41">
       <c r="A55" s="3">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B55" s="3">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C55" s="3">
         <v>6</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
       </c>
       <c r="G55" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H55" s="3">
         <v>2250</v>
       </c>
       <c r="I55" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J55" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K55" s="3">
         <v>0</v>
@@ -7681,7 +8230,7 @@
         <v>10</v>
       </c>
       <c r="T55" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="U55" s="3">
         <v>30</v>
@@ -7741,42 +8290,42 @@
         <v>0</v>
       </c>
       <c r="AN55" s="7" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="AO55" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:41">
       <c r="A56" s="3">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B56" s="3">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C56" s="3">
         <v>6</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
       </c>
       <c r="G56" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H56" s="3">
         <v>2250</v>
       </c>
       <c r="I56" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J56" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K56" s="3">
         <v>0</v>
@@ -7797,7 +8346,7 @@
         <v>-1</v>
       </c>
       <c r="Q56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="3">
         <v>150</v>
@@ -7806,13 +8355,13 @@
         <v>10</v>
       </c>
       <c r="T56" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="U56" s="3">
         <v>30</v>
       </c>
       <c r="V56" s="3">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="W56" s="3">
         <v>0</v>
@@ -7842,13 +8391,13 @@
         <v>10</v>
       </c>
       <c r="AF56" s="3">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AG56" s="3">
         <v>50</v>
       </c>
       <c r="AH56" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AI56" s="3">
         <v>0</v>
@@ -7866,27 +8415,27 @@
         <v>0</v>
       </c>
       <c r="AN56" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="AO56" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:41">
       <c r="A57" s="3">
+        <v>180</v>
+      </c>
+      <c r="B57" s="3">
         <v>181</v>
-      </c>
-      <c r="B57" s="3">
-        <v>182</v>
       </c>
       <c r="C57" s="3">
         <v>6</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -7991,27 +8540,27 @@
         <v>0</v>
       </c>
       <c r="AN57" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="AO57" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:41">
       <c r="A58" s="3">
+        <v>181</v>
+      </c>
+      <c r="B58" s="3">
         <v>182</v>
-      </c>
-      <c r="B58" s="3">
-        <v>181</v>
       </c>
       <c r="C58" s="3">
         <v>6</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -8116,15 +8665,15 @@
         <v>0</v>
       </c>
       <c r="AN58" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="AO58" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:41">
       <c r="A59" s="3">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B59" s="3">
         <v>181</v>
@@ -8133,10 +8682,10 @@
         <v>6</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -8241,27 +8790,27 @@
         <v>0</v>
       </c>
       <c r="AN59" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="AO59" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:41">
       <c r="A60" s="3">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B60" s="3">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C60" s="3">
         <v>6</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -8366,16 +8915,140 @@
         <v>0</v>
       </c>
       <c r="AN60" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="AO60" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:41">
+      <c r="A61" s="3">
+        <v>184</v>
+      </c>
+      <c r="B61" s="3">
+        <v>182</v>
+      </c>
+      <c r="C61" s="3">
+        <v>6</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>10</v>
+      </c>
+      <c r="H61" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I61" s="3">
+        <v>200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>200</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>90</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P61" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>150</v>
+      </c>
+      <c r="S61" s="3">
+        <v>10</v>
+      </c>
+      <c r="T61" s="3">
+        <v>80</v>
+      </c>
+      <c r="U61" s="3">
+        <v>30</v>
+      </c>
+      <c r="V61" s="3">
+        <v>30</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF61" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG61" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH61" s="3">
+        <v>80</v>
+      </c>
+      <c r="AI61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK61" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL61" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN61" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO61" s="7">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="25005"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="154">
   <si>
     <t>Jyx2Configs.Jyx2ConfigCharacter</t>
   </si>
@@ -464,18 +469,52 @@
   <si>
     <t>180,600</t>
   </si>
+  <si>
+    <t>路人乙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>路人乙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>42,700</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘子蝉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>万烛书苑少当家</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>张老板</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果摊老板</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,700</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,800</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -486,7 +525,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -502,357 +541,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -860,267 +574,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1138,66 +610,23 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="普通" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="普通 2" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="普通 4" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="普通 3" xfId="52"/>
+    <cellStyle name="普通" xfId="1"/>
+    <cellStyle name="普通 2" xfId="2"/>
+    <cellStyle name="普通 3" xfId="4"/>
+    <cellStyle name="普通 4" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1528,31 +957,31 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AP61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="U57" sqref="$A57:$XFD57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="39" width="9" customWidth="1"/>
-    <col min="40" max="40" width="41.1238938053097" style="1" customWidth="1"/>
-    <col min="41" max="41" width="22.7522123893805" style="1" customWidth="1"/>
+    <col min="40" max="40" width="41.125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="22.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1650,7 +1079,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -1778,7 +1207,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1903,7 +1332,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>10</v>
       </c>
@@ -2028,7 +1457,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>11</v>
       </c>
@@ -2156,7 +1585,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>20</v>
       </c>
@@ -2281,7 +1710,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>21</v>
       </c>
@@ -2406,36 +1835,36 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>91</v>
+      <c r="D9" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H9" s="3">
-        <v>750</v>
+        <v>-30036</v>
       </c>
       <c r="I9" s="3">
-        <v>182</v>
+        <v>522</v>
       </c>
       <c r="J9" s="3">
-        <v>182</v>
+        <v>522</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -2456,22 +1885,22 @@
         <v>-1</v>
       </c>
       <c r="Q9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R9" s="3">
-        <v>386</v>
+        <v>560</v>
       </c>
       <c r="S9" s="3">
-        <v>386</v>
+        <v>560</v>
       </c>
       <c r="T9" s="3">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="U9" s="3">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="V9" s="3">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="W9" s="3">
         <v>0</v>
@@ -2486,84 +1915,81 @@
         <v>0</v>
       </c>
       <c r="AA9" s="3">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="AB9" s="3">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="AC9" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AD9" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>60</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>25</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="3">
+        <v>70</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO9" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>6</v>
       </c>
-      <c r="AE9" s="3">
-        <v>17</v>
-      </c>
-      <c r="AF9" s="3">
-        <v>50</v>
-      </c>
-      <c r="AG9" s="3">
-        <v>38</v>
-      </c>
-      <c r="AH9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="3">
-        <v>61</v>
-      </c>
-      <c r="AL9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AM9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO9" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP9" s="3">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41">
-      <c r="A10" s="3">
-        <v>31</v>
-      </c>
-      <c r="B10" s="3">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3">
-        <v>4</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>36</v>
-      </c>
       <c r="H10" s="3">
-        <v>-9036</v>
+        <v>750</v>
       </c>
       <c r="I10" s="3">
-        <v>992</v>
+        <v>182</v>
       </c>
       <c r="J10" s="3">
-        <v>992</v>
+        <v>182</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -2587,19 +2013,19 @@
         <v>1</v>
       </c>
       <c r="R10" s="3">
-        <v>999</v>
+        <v>386</v>
       </c>
       <c r="S10" s="3">
-        <v>999</v>
+        <v>386</v>
       </c>
       <c r="T10" s="3">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="U10" s="3">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="V10" s="3">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="W10" s="3">
         <v>0</v>
@@ -2614,25 +2040,25 @@
         <v>0</v>
       </c>
       <c r="AA10" s="3">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="AB10" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC10" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AD10" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE10" s="3">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AF10" s="3">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AG10" s="3">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AH10" s="3">
         <v>0</v>
@@ -2644,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="3">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="AL10" s="3">
         <v>-1</v>
@@ -2653,42 +2079,45 @@
         <v>0</v>
       </c>
       <c r="AN10" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AO10" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
+      </c>
+      <c r="AP10" s="3">
+        <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3">
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H11" s="3">
         <v>-9036</v>
       </c>
       <c r="I11" s="3">
-        <v>885</v>
+        <v>992</v>
       </c>
       <c r="J11" s="3">
-        <v>885</v>
+        <v>992</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
@@ -2712,52 +2141,52 @@
         <v>1</v>
       </c>
       <c r="R11" s="3">
-        <v>900</v>
+        <v>999</v>
       </c>
       <c r="S11" s="3">
-        <v>900</v>
+        <v>999</v>
       </c>
       <c r="T11" s="3">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="U11" s="3">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="V11" s="3">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="W11" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X11" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="3">
         <v>0</v>
       </c>
       <c r="AA11" s="3">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AB11" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AC11" s="3">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="AD11" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE11" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AF11" s="3">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG11" s="3">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="AH11" s="3">
         <v>0</v>
@@ -2769,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="3">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AL11" s="3">
         <v>-1</v>
@@ -2778,42 +2207,42 @@
         <v>0</v>
       </c>
       <c r="AN11" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AO11" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3">
         <v>4</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H12" s="3">
-        <v>6350</v>
+        <v>-9036</v>
       </c>
       <c r="I12" s="3">
-        <v>230</v>
+        <v>885</v>
       </c>
       <c r="J12" s="3">
-        <v>230</v>
+        <v>885</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -2837,49 +2266,49 @@
         <v>1</v>
       </c>
       <c r="R12" s="3">
-        <v>290</v>
+        <v>900</v>
       </c>
       <c r="S12" s="3">
-        <v>290</v>
+        <v>900</v>
       </c>
       <c r="T12" s="3">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U12" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="V12" s="3">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="W12" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X12" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y12" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z12" s="3">
         <v>0</v>
       </c>
       <c r="AA12" s="3">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="AB12" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AC12" s="3">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="AD12" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AF12" s="3">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AG12" s="3">
         <v>50</v>
@@ -2894,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="3">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AL12" s="3">
         <v>-1</v>
@@ -2903,24 +2332,24 @@
         <v>0</v>
       </c>
       <c r="AN12" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AO12" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3">
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>101</v>
@@ -2929,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H13" s="3">
-        <v>2250</v>
+        <v>6350</v>
       </c>
       <c r="I13" s="3">
         <v>230</v>
@@ -2962,19 +2391,19 @@
         <v>1</v>
       </c>
       <c r="R13" s="3">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="S13" s="3">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="T13" s="3">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="U13" s="3">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="V13" s="3">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="W13" s="3">
         <v>0</v>
@@ -2998,16 +2427,16 @@
         <v>10</v>
       </c>
       <c r="AD13" s="3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE13" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AF13" s="3">
         <v>50</v>
       </c>
       <c r="AG13" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AH13" s="3">
         <v>0</v>
@@ -3028,42 +2457,42 @@
         <v>0</v>
       </c>
       <c r="AN13" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AO13" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B14" s="3">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C14" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H14" s="3">
-        <v>-22086</v>
+        <v>2250</v>
       </c>
       <c r="I14" s="3">
-        <v>999</v>
+        <v>230</v>
       </c>
       <c r="J14" s="3">
-        <v>999</v>
+        <v>230</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -3087,19 +2516,19 @@
         <v>1</v>
       </c>
       <c r="R14" s="3">
-        <v>900</v>
+        <v>280</v>
       </c>
       <c r="S14" s="3">
-        <v>900</v>
+        <v>280</v>
       </c>
       <c r="T14" s="3">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="U14" s="3">
         <v>68</v>
       </c>
       <c r="V14" s="3">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -3114,25 +2543,25 @@
         <v>0</v>
       </c>
       <c r="AA14" s="3">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="AB14" s="3">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="AC14" s="3">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="AD14" s="3">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="AE14" s="3">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="AF14" s="3">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AG14" s="3">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="AH14" s="3">
         <v>0</v>
@@ -3144,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="3">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AL14" s="3">
         <v>-1</v>
@@ -3153,36 +2582,36 @@
         <v>0</v>
       </c>
       <c r="AN14" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AO14" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="H15" s="3">
-        <v>-9036</v>
+        <v>-22086</v>
       </c>
       <c r="I15" s="3">
         <v>999</v>
@@ -3212,16 +2641,16 @@
         <v>1</v>
       </c>
       <c r="R15" s="3">
-        <v>999</v>
+        <v>900</v>
       </c>
       <c r="S15" s="3">
-        <v>999</v>
+        <v>900</v>
       </c>
       <c r="T15" s="3">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="U15" s="3">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="V15" s="3">
         <v>99</v>
@@ -3236,31 +2665,31 @@
         <v>0</v>
       </c>
       <c r="Z15" s="3">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="3">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="AB15" s="3">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="AC15" s="3">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="AD15" s="3">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="AE15" s="3">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="AF15" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AG15" s="3">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="AH15" s="3">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AI15" s="3">
         <v>0</v>
@@ -3278,42 +2707,42 @@
         <v>0</v>
       </c>
       <c r="AN15" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AO15" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="3">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="H16" s="3">
-        <v>6350</v>
+        <v>-9036</v>
       </c>
       <c r="I16" s="3">
-        <v>230</v>
+        <v>999</v>
       </c>
       <c r="J16" s="3">
-        <v>230</v>
+        <v>999</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
@@ -3337,19 +2766,19 @@
         <v>1</v>
       </c>
       <c r="R16" s="3">
-        <v>290</v>
+        <v>999</v>
       </c>
       <c r="S16" s="3">
-        <v>290</v>
+        <v>999</v>
       </c>
       <c r="T16" s="3">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="U16" s="3">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="V16" s="3">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="W16" s="3">
         <v>0</v>
@@ -3361,10 +2790,10 @@
         <v>0</v>
       </c>
       <c r="Z16" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AA16" s="3">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="AB16" s="3">
         <v>10</v>
@@ -3373,19 +2802,19 @@
         <v>10</v>
       </c>
       <c r="AD16" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AE16" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AF16" s="3">
+        <v>80</v>
+      </c>
+      <c r="AG16" s="3">
         <v>20</v>
       </c>
-      <c r="AG16" s="3">
-        <v>50</v>
-      </c>
       <c r="AH16" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI16" s="3">
         <v>0</v>
@@ -3394,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AL16" s="3">
         <v>-1</v>
@@ -3403,15 +2832,15 @@
         <v>0</v>
       </c>
       <c r="AN16" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AO16" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="3">
         <v>62</v>
@@ -3534,9 +2963,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="3">
         <v>62</v>
@@ -3659,9 +3088,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="3">
         <v>62</v>
@@ -3784,9 +3213,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="3">
         <v>62</v>
@@ -3810,10 +3239,10 @@
         <v>6350</v>
       </c>
       <c r="I20" s="3">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="J20" s="3">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -3837,10 +3266,10 @@
         <v>1</v>
       </c>
       <c r="R20" s="3">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="S20" s="3">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="T20" s="3">
         <v>77</v>
@@ -3903,15 +3332,15 @@
         <v>0</v>
       </c>
       <c r="AN20" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AO20" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="3">
         <v>62</v>
@@ -4034,9 +3463,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="3">
         <v>62</v>
@@ -4159,9 +3588,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" s="3">
         <v>62</v>
@@ -4284,21 +3713,21 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>610</v>
+        <v>69</v>
       </c>
       <c r="B24" s="3">
-        <v>610</v>
+        <v>62</v>
       </c>
       <c r="C24" s="3">
         <v>4</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -4310,10 +3739,10 @@
         <v>6350</v>
       </c>
       <c r="I24" s="3">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="J24" s="3">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -4379,7 +3808,7 @@
         <v>50</v>
       </c>
       <c r="AF24" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AG24" s="3">
         <v>50</v>
@@ -4403,15 +3832,15 @@
         <v>0</v>
       </c>
       <c r="AN24" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AO24" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B25" s="3">
         <v>610</v>
@@ -4534,9 +3963,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B26" s="3">
         <v>610</v>
@@ -4659,9 +4088,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B27" s="3">
         <v>610</v>
@@ -4784,9 +4213,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B28" s="3">
         <v>610</v>
@@ -4909,9 +4338,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B29" s="3">
         <v>610</v>
@@ -4935,10 +4364,10 @@
         <v>6350</v>
       </c>
       <c r="I29" s="3">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="J29" s="3">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -5004,7 +4433,7 @@
         <v>50</v>
       </c>
       <c r="AF29" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AG29" s="3">
         <v>50</v>
@@ -5028,15 +4457,15 @@
         <v>0</v>
       </c>
       <c r="AN29" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AO29" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B30" s="3">
         <v>610</v>
@@ -5159,9 +4588,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B31" s="3">
         <v>610</v>
@@ -5284,9 +4713,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B32" s="3">
         <v>610</v>
@@ -5409,9 +4838,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B33" s="3">
         <v>610</v>
@@ -5534,36 +4963,36 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:42">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>70</v>
+        <v>619</v>
       </c>
       <c r="B34" s="3">
-        <v>70</v>
+        <v>610</v>
       </c>
       <c r="C34" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H34" s="3">
-        <v>2250</v>
+        <v>6350</v>
       </c>
       <c r="I34" s="3">
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="J34" s="3">
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="K34" s="3">
         <v>0</v>
@@ -5584,58 +5013,58 @@
         <v>-1</v>
       </c>
       <c r="Q34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="3">
-        <v>102</v>
+        <v>300</v>
       </c>
       <c r="S34" s="3">
-        <v>102</v>
+        <v>300</v>
       </c>
       <c r="T34" s="3">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="U34" s="3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="V34" s="3">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="W34" s="3">
         <v>0</v>
       </c>
       <c r="X34" s="3">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="3">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="AB34" s="3">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="AC34" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD34" s="3">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AE34" s="3">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AF34" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AG34" s="3">
         <v>50</v>
       </c>
       <c r="AH34" s="3">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AI34" s="3">
         <v>0</v>
@@ -5644,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="3">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AL34" s="3">
         <v>-1</v>
@@ -5653,33 +5082,30 @@
         <v>0</v>
       </c>
       <c r="AN34" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AO34" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AP34" s="3">
-        <v>714</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B35" s="3">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" s="3">
         <v>5</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="3">
         <v>10</v>
@@ -5733,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="3">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="Y35" s="3">
         <v>60</v>
@@ -5757,7 +5183,7 @@
         <v>46</v>
       </c>
       <c r="AF35" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AG35" s="3">
         <v>50</v>
@@ -5772,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="3">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AL35" s="3">
         <v>-1</v>
@@ -5784,15 +5210,18 @@
         <v>117</v>
       </c>
       <c r="AO35" s="7" t="s">
-        <v>78</v>
+        <v>118</v>
+      </c>
+      <c r="AP35" s="3">
+        <v>714</v>
       </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B36" s="3">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="3">
         <v>5</v>
@@ -5912,36 +5341,36 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:42">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B37" s="3">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C37" s="3">
         <v>5</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
       </c>
       <c r="G37" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H37" s="3">
-        <v>50</v>
+        <v>2250</v>
       </c>
       <c r="I37" s="3">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="J37" s="3">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="K37" s="3">
         <v>0</v>
@@ -5962,22 +5391,22 @@
         <v>-1</v>
       </c>
       <c r="Q37" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R37" s="3">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="S37" s="3">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="T37" s="3">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="U37" s="3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="V37" s="3">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="W37" s="3">
         <v>0</v>
@@ -5986,25 +5415,25 @@
         <v>0</v>
       </c>
       <c r="Y37" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Z37" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA37" s="3">
+        <v>52</v>
+      </c>
+      <c r="AB37" s="3">
+        <v>44</v>
+      </c>
+      <c r="AC37" s="3">
         <v>12</v>
       </c>
-      <c r="AB37" s="3">
-        <v>36</v>
-      </c>
-      <c r="AC37" s="3">
-        <v>6</v>
-      </c>
       <c r="AD37" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="AE37" s="3">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="AF37" s="3">
         <v>30</v>
@@ -6013,7 +5442,7 @@
         <v>50</v>
       </c>
       <c r="AH37" s="3">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AI37" s="3">
         <v>0</v>
@@ -6022,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="3">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AL37" s="3">
         <v>-1</v>
@@ -6031,33 +5460,30 @@
         <v>0</v>
       </c>
       <c r="AN37" s="7" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AO37" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AP37" s="3">
-        <v>813</v>
-      </c>
     </row>
-    <row r="38" spans="1:42">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B38" s="3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C38" s="3">
         <v>5</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="3">
         <v>2</v>
@@ -6066,10 +5492,10 @@
         <v>50</v>
       </c>
       <c r="I38" s="3">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="J38" s="3">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="K38" s="3">
         <v>0</v>
@@ -6078,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N38" s="3">
         <v>0</v>
@@ -6090,22 +5516,22 @@
         <v>-1</v>
       </c>
       <c r="Q38" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R38" s="3">
+        <v>25</v>
+      </c>
+      <c r="S38" s="3">
+        <v>25</v>
+      </c>
+      <c r="T38" s="3">
         <v>21</v>
       </c>
-      <c r="S38" s="3">
-        <v>21</v>
-      </c>
-      <c r="T38" s="3">
-        <v>14</v>
-      </c>
       <c r="U38" s="3">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="V38" s="3">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="W38" s="3">
         <v>0</v>
@@ -6120,19 +5546,19 @@
         <v>0</v>
       </c>
       <c r="AA38" s="3">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AB38" s="3">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AC38" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD38" s="3">
         <v>3</v>
       </c>
       <c r="AE38" s="3">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AF38" s="3">
         <v>30</v>
@@ -6150,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="3">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AL38" s="3">
         <v>-1</v>
@@ -6159,114 +5585,114 @@
         <v>0</v>
       </c>
       <c r="AN38" s="7" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="AO38" s="7" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="AP38" s="3">
-        <v>96</v>
+        <v>813</v>
       </c>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B39" s="3">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" s="3">
+        <v>5</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>2</v>
+      </c>
+      <c r="H39" s="3">
+        <v>50</v>
+      </c>
+      <c r="I39" s="3">
+        <v>38</v>
+      </c>
+      <c r="J39" s="3">
+        <v>38</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
+        <v>100</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0</v>
+      </c>
+      <c r="O39" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P39" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>0</v>
+      </c>
+      <c r="R39" s="3">
+        <v>21</v>
+      </c>
+      <c r="S39" s="3">
+        <v>21</v>
+      </c>
+      <c r="T39" s="3">
+        <v>14</v>
+      </c>
+      <c r="U39" s="3">
+        <v>30</v>
+      </c>
+      <c r="V39" s="3">
+        <v>22</v>
+      </c>
+      <c r="W39" s="3">
+        <v>0</v>
+      </c>
+      <c r="X39" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>23</v>
+      </c>
+      <c r="AB39" s="3">
+        <v>18</v>
+      </c>
+      <c r="AC39" s="3">
         <v>7</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0</v>
-      </c>
-      <c r="G39" s="3">
-        <v>16</v>
-      </c>
-      <c r="H39" s="3">
-        <v>9250</v>
-      </c>
-      <c r="I39" s="3">
-        <v>308</v>
-      </c>
-      <c r="J39" s="3">
-        <v>308</v>
-      </c>
-      <c r="K39" s="3">
-        <v>0</v>
-      </c>
-      <c r="L39" s="3">
-        <v>0</v>
-      </c>
-      <c r="M39" s="3">
-        <v>90</v>
-      </c>
-      <c r="N39" s="3">
-        <v>0</v>
-      </c>
-      <c r="O39" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P39" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>1</v>
-      </c>
-      <c r="R39" s="3">
-        <v>590</v>
-      </c>
-      <c r="S39" s="3">
-        <v>590</v>
-      </c>
-      <c r="T39" s="3">
-        <v>65</v>
-      </c>
-      <c r="U39" s="3">
-        <v>60</v>
-      </c>
-      <c r="V39" s="3">
-        <v>72</v>
-      </c>
-      <c r="W39" s="3">
-        <v>0</v>
-      </c>
-      <c r="X39" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="3">
-        <v>75</v>
-      </c>
-      <c r="AB39" s="3">
-        <v>56</v>
-      </c>
-      <c r="AC39" s="3">
-        <v>43</v>
-      </c>
       <c r="AD39" s="3">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="AE39" s="3">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="AF39" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AG39" s="3">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="AH39" s="3">
         <v>0</v>
@@ -6287,42 +5713,45 @@
         <v>0</v>
       </c>
       <c r="AN39" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AO39" s="7" t="s">
-        <v>78</v>
+        <v>125</v>
+      </c>
+      <c r="AP39" s="3">
+        <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:42">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="B40" s="3">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="C40" s="3">
         <v>7</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
       </c>
       <c r="G40" s="3">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H40" s="3">
-        <v>500</v>
+        <v>9250</v>
       </c>
       <c r="I40" s="3">
-        <v>95</v>
+        <v>308</v>
       </c>
       <c r="J40" s="3">
-        <v>95</v>
+        <v>308</v>
       </c>
       <c r="K40" s="3">
         <v>0</v>
@@ -6343,55 +5772,55 @@
         <v>-1</v>
       </c>
       <c r="Q40" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R40" s="3">
-        <v>35</v>
+        <v>590</v>
       </c>
       <c r="S40" s="3">
-        <v>35</v>
+        <v>590</v>
       </c>
       <c r="T40" s="3">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="U40" s="3">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="V40" s="3">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="W40" s="3">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="X40" s="3">
         <v>0</v>
       </c>
       <c r="Y40" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="3">
+        <v>75</v>
+      </c>
+      <c r="AB40" s="3">
         <v>56</v>
       </c>
-      <c r="Z40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="3">
-        <v>21</v>
-      </c>
-      <c r="AB40" s="3">
-        <v>8</v>
-      </c>
       <c r="AC40" s="3">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="AD40" s="3">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AE40" s="3">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="AF40" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AG40" s="3">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="AH40" s="3">
         <v>0</v>
@@ -6412,45 +5841,42 @@
         <v>0</v>
       </c>
       <c r="AN40" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AO40" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AP40" s="3">
-        <v>128</v>
-      </c>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B41" s="3">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="C41" s="3">
+        <v>8</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>6</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>10</v>
-      </c>
       <c r="H41" s="3">
-        <v>2250</v>
+        <v>750</v>
       </c>
       <c r="I41" s="3">
-        <v>200</v>
+        <v>482</v>
       </c>
       <c r="J41" s="3">
-        <v>200</v>
+        <v>482</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -6474,19 +5900,19 @@
         <v>1</v>
       </c>
       <c r="R41" s="3">
-        <v>150</v>
+        <v>486</v>
       </c>
       <c r="S41" s="3">
-        <v>10</v>
+        <v>486</v>
       </c>
       <c r="T41" s="3">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="U41" s="3">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="V41" s="3">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
@@ -6501,25 +5927,25 @@
         <v>0</v>
       </c>
       <c r="AA41" s="3">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="AB41" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC41" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AD41" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE41" s="3">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AF41" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AG41" s="3">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AH41" s="3">
         <v>0</v>
@@ -6531,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL41" s="3">
         <v>-1</v>
@@ -6540,42 +5966,43 @@
         <v>0</v>
       </c>
       <c r="AN41" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="AO41" s="7" t="s">
-        <v>78</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="AP41" s="3"/>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B42" s="3">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C42" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H42" s="3">
-        <v>2250</v>
+        <v>500</v>
       </c>
       <c r="I42" s="3">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="J42" s="3">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -6596,52 +6023,52 @@
         <v>-1</v>
       </c>
       <c r="Q42" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R42" s="3">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="S42" s="3">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="T42" s="3">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="U42" s="3">
+        <v>35</v>
+      </c>
+      <c r="V42" s="3">
+        <v>35</v>
+      </c>
+      <c r="W42" s="3">
+        <v>74</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>56</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>21</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>8</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>6</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>12</v>
+      </c>
+      <c r="AF42" s="3">
         <v>30</v>
-      </c>
-      <c r="V42" s="3">
-        <v>30</v>
-      </c>
-      <c r="W42" s="3">
-        <v>0</v>
-      </c>
-      <c r="X42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB42" s="3">
-        <v>10</v>
-      </c>
-      <c r="AC42" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD42" s="3">
-        <v>10</v>
-      </c>
-      <c r="AE42" s="3">
-        <v>10</v>
-      </c>
-      <c r="AF42" s="3">
-        <v>20</v>
       </c>
       <c r="AG42" s="3">
         <v>50</v>
@@ -6665,18 +6092,21 @@
         <v>0</v>
       </c>
       <c r="AN42" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO42" s="7">
-        <v>-1</v>
+        <v>131</v>
+      </c>
+      <c r="AO42" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP42" s="3">
+        <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B43" s="3">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C43" s="3">
         <v>6</v>
@@ -6790,18 +6220,18 @@
         <v>0</v>
       </c>
       <c r="AN43" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO43" s="7">
-        <v>-1</v>
+        <v>133</v>
+      </c>
+      <c r="AO43" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B44" s="3">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C44" s="3">
         <v>6</v>
@@ -6915,18 +6345,18 @@
         <v>0</v>
       </c>
       <c r="AN44" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AO44" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B45" s="3">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C45" s="3">
         <v>6</v>
@@ -7040,18 +6470,18 @@
         <v>0</v>
       </c>
       <c r="AN45" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AO45" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B46" s="3">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C46" s="3">
         <v>6</v>
@@ -7165,18 +6595,18 @@
         <v>0</v>
       </c>
       <c r="AN46" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AO46" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B47" s="3">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C47" s="3">
         <v>6</v>
@@ -7290,18 +6720,18 @@
         <v>0</v>
       </c>
       <c r="AN47" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AO47" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B48" s="3">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C48" s="3">
         <v>6</v>
@@ -7421,12 +6851,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:41">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B49" s="3">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C49" s="3">
         <v>6</v>
@@ -7540,18 +6970,18 @@
         <v>0</v>
       </c>
       <c r="AN49" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AO49" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:41">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B50" s="3">
-        <v>1410</v>
+        <v>148</v>
       </c>
       <c r="C50" s="3">
         <v>6</v>
@@ -7665,27 +7095,27 @@
         <v>0</v>
       </c>
       <c r="AN50" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AO50" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:41">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B51" s="3">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C51" s="3">
         <v>6</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
@@ -7730,13 +7160,13 @@
         <v>10</v>
       </c>
       <c r="T51" s="3">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="U51" s="3">
         <v>30</v>
       </c>
       <c r="V51" s="3">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="W51" s="3">
         <v>0</v>
@@ -7766,7 +7196,7 @@
         <v>10</v>
       </c>
       <c r="AF51" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AG51" s="3">
         <v>50</v>
@@ -7790,27 +7220,27 @@
         <v>0</v>
       </c>
       <c r="AN51" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AO51" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:41">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B52" s="3">
-        <v>164</v>
+        <v>1410</v>
       </c>
       <c r="C52" s="3">
         <v>6</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -7855,13 +7285,13 @@
         <v>10</v>
       </c>
       <c r="T52" s="3">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="U52" s="3">
         <v>30</v>
       </c>
       <c r="V52" s="3">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -7891,7 +7321,7 @@
         <v>10</v>
       </c>
       <c r="AF52" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AG52" s="3">
         <v>50</v>
@@ -7915,18 +7345,18 @@
         <v>0</v>
       </c>
       <c r="AN52" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AO52" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:41">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B53" s="3">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C53" s="3">
         <v>6</v>
@@ -8040,18 +7470,18 @@
         <v>0</v>
       </c>
       <c r="AN53" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AO53" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:41">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B54" s="3">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C54" s="3">
         <v>6</v>
@@ -8165,18 +7595,18 @@
         <v>0</v>
       </c>
       <c r="AN54" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AO54" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:41">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B55" s="3">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C55" s="3">
         <v>6</v>
@@ -8290,42 +7720,42 @@
         <v>0</v>
       </c>
       <c r="AN55" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AO55" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:41">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B56" s="3">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C56" s="3">
         <v>6</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
       </c>
       <c r="G56" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H56" s="3">
         <v>2250</v>
       </c>
       <c r="I56" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J56" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K56" s="3">
         <v>0</v>
@@ -8355,7 +7785,7 @@
         <v>10</v>
       </c>
       <c r="T56" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="U56" s="3">
         <v>30</v>
@@ -8391,7 +7821,7 @@
         <v>10</v>
       </c>
       <c r="AF56" s="3">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AG56" s="3">
         <v>50</v>
@@ -8415,27 +7845,27 @@
         <v>0</v>
       </c>
       <c r="AN56" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AO56" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:41">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B57" s="3">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C57" s="3">
         <v>6</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -8471,7 +7901,7 @@
         <v>-1</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="3">
         <v>150</v>
@@ -8480,13 +7910,13 @@
         <v>10</v>
       </c>
       <c r="T57" s="3">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="U57" s="3">
         <v>30</v>
       </c>
       <c r="V57" s="3">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="W57" s="3">
         <v>0</v>
@@ -8516,13 +7946,13 @@
         <v>10</v>
       </c>
       <c r="AF57" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AG57" s="3">
         <v>50</v>
       </c>
       <c r="AH57" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AI57" s="3">
         <v>0</v>
@@ -8540,42 +7970,42 @@
         <v>0</v>
       </c>
       <c r="AN57" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AO57" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:41">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B58" s="3">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C58" s="3">
         <v>6</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H58" s="3">
         <v>2250</v>
       </c>
       <c r="I58" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J58" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -8596,7 +8026,7 @@
         <v>-1</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="3">
         <v>150</v>
@@ -8605,13 +8035,13 @@
         <v>10</v>
       </c>
       <c r="T58" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="U58" s="3">
         <v>30</v>
       </c>
       <c r="V58" s="3">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -8641,13 +8071,13 @@
         <v>10</v>
       </c>
       <c r="AF58" s="3">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AG58" s="3">
         <v>50</v>
       </c>
       <c r="AH58" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AI58" s="3">
         <v>0</v>
@@ -8665,15 +8095,15 @@
         <v>0</v>
       </c>
       <c r="AN58" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AO58" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:41">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B59" s="3">
         <v>181</v>
@@ -8796,12 +8226,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:41">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B60" s="3">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C60" s="3">
         <v>6</v>
@@ -8921,12 +8351,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:41">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B61" s="3">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C61" s="3">
         <v>6</v>
@@ -9046,9 +8476,385 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>183</v>
+      </c>
+      <c r="B62" s="3">
+        <v>181</v>
+      </c>
+      <c r="C62" s="3">
+        <v>6</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>10</v>
+      </c>
+      <c r="H62" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I62" s="3">
+        <v>200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>200</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>90</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P62" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>150</v>
+      </c>
+      <c r="S62" s="3">
+        <v>10</v>
+      </c>
+      <c r="T62" s="3">
+        <v>80</v>
+      </c>
+      <c r="U62" s="3">
+        <v>30</v>
+      </c>
+      <c r="V62" s="3">
+        <v>30</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF62" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG62" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH62" s="3">
+        <v>80</v>
+      </c>
+      <c r="AI62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK62" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL62" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN62" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO62" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>184</v>
+      </c>
+      <c r="B63" s="3">
+        <v>182</v>
+      </c>
+      <c r="C63" s="3">
+        <v>6</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3">
+        <v>10</v>
+      </c>
+      <c r="H63" s="3">
+        <v>2250</v>
+      </c>
+      <c r="I63" s="3">
+        <v>200</v>
+      </c>
+      <c r="J63" s="3">
+        <v>200</v>
+      </c>
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>90</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P63" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>150</v>
+      </c>
+      <c r="S63" s="3">
+        <v>10</v>
+      </c>
+      <c r="T63" s="3">
+        <v>80</v>
+      </c>
+      <c r="U63" s="3">
+        <v>30</v>
+      </c>
+      <c r="V63" s="3">
+        <v>30</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF63" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG63" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH63" s="3">
+        <v>80</v>
+      </c>
+      <c r="AI63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK63" s="3">
+        <v>60</v>
+      </c>
+      <c r="AL63" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN63" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO63" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>190</v>
+      </c>
+      <c r="B64" s="3">
+        <v>190</v>
+      </c>
+      <c r="C64" s="3">
+        <v>4</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3">
+        <v>14</v>
+      </c>
+      <c r="H64" s="3">
+        <v>6350</v>
+      </c>
+      <c r="I64" s="3">
+        <v>230</v>
+      </c>
+      <c r="J64" s="3">
+        <v>230</v>
+      </c>
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>90</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P64" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>1</v>
+      </c>
+      <c r="R64" s="3">
+        <v>300</v>
+      </c>
+      <c r="S64" s="3">
+        <v>300</v>
+      </c>
+      <c r="T64" s="3">
+        <v>77</v>
+      </c>
+      <c r="U64" s="3">
+        <v>60</v>
+      </c>
+      <c r="V64" s="3">
+        <v>65</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>50</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>50</v>
+      </c>
+      <c r="AF64" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG64" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK64" s="3">
+        <v>40</v>
+      </c>
+      <c r="AL64" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN64" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO64" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25005"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="152">
   <si>
     <t>Jyx2Configs.Jyx2ConfigCharacter</t>
   </si>
@@ -308,6 +303,15 @@
     <t>20,800</t>
   </si>
   <si>
+    <t>刘子蝉</t>
+  </si>
+  <si>
+    <t>万烛书苑少当家</t>
+  </si>
+  <si>
+    <t>20,700</t>
+  </si>
+  <si>
     <t>虚寂</t>
   </si>
   <si>
@@ -386,7 +390,7 @@
     <t>佟雯</t>
   </si>
   <si>
-    <t>罂粟谷掌门</t>
+    <t>曼陀谷掌门</t>
   </si>
   <si>
     <t>70,500|71,400</t>
@@ -395,7 +399,7 @@
     <t>75,1|76,1</t>
   </si>
   <si>
-    <t>罂粟谷弟子</t>
+    <t>曼陀谷弟子</t>
   </si>
   <si>
     <t>童四二</t>
@@ -425,6 +429,15 @@
     <t>90,800</t>
   </si>
   <si>
+    <t>张老板</t>
+  </si>
+  <si>
+    <t>水果摊老板</t>
+  </si>
+  <si>
+    <t>30,800</t>
+  </si>
+  <si>
     <t>隋青竹</t>
   </si>
   <si>
@@ -471,50 +484,22 @@
   </si>
   <si>
     <t>路人乙</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>路人乙</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>42,700</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘子蝉</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>万烛书苑少当家</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>张老板</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果摊老板</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,700</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,800</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -525,7 +510,13 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -541,32 +532,351 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -574,21 +884,263 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -604,29 +1156,73 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1"/>
-    <cellStyle name="普通 2" xfId="2"/>
-    <cellStyle name="普通 3" xfId="4"/>
-    <cellStyle name="普通 4" xfId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="普通 4" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -957,31 +1553,31 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="6" max="39" width="9" customWidth="1"/>
     <col min="40" max="40" width="41.125" style="1" customWidth="1"/>
     <col min="41" max="41" width="22.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:42">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1069,17 +1665,17 @@
       <c r="AK2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AN2" s="5" t="s">
+      <c r="AN2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AO2" s="5" t="s">
+      <c r="AO2" s="6" t="s">
         <v>31</v>
       </c>
       <c r="AP2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -1197,17 +1793,17 @@
       <c r="AM3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AN3" s="6" t="s">
+      <c r="AN3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AO3" s="6" t="s">
+      <c r="AO3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AP3" s="8" t="s">
+      <c r="AP3" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1325,14 +1921,14 @@
       <c r="AM4" s="3">
         <v>0</v>
       </c>
-      <c r="AN4" s="7" t="s">
+      <c r="AN4" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AO4" s="7" t="s">
+      <c r="AO4" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41">
       <c r="A5" s="3">
         <v>10</v>
       </c>
@@ -1450,14 +2046,14 @@
       <c r="AM5" s="3">
         <v>0</v>
       </c>
-      <c r="AN5" s="7" t="s">
+      <c r="AN5" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AO5" s="7" t="s">
+      <c r="AO5" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42">
       <c r="A6" s="3">
         <v>11</v>
       </c>
@@ -1575,17 +2171,17 @@
       <c r="AM6" s="3">
         <v>0</v>
       </c>
-      <c r="AN6" s="7" t="s">
+      <c r="AN6" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AO6" s="7" t="s">
+      <c r="AO6" s="8" t="s">
         <v>78</v>
       </c>
       <c r="AP6" s="3">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41">
       <c r="A7" s="3">
         <v>20</v>
       </c>
@@ -1703,14 +2299,14 @@
       <c r="AM7" s="3">
         <v>0</v>
       </c>
-      <c r="AN7" s="7" t="s">
+      <c r="AN7" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AO7" s="7" t="s">
+      <c r="AO7" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41">
       <c r="A8" s="3">
         <v>21</v>
       </c>
@@ -1828,14 +2424,14 @@
       <c r="AM8" s="3">
         <v>0</v>
       </c>
-      <c r="AN8" s="7" t="s">
+      <c r="AN8" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AO8" s="7" t="s">
+      <c r="AO8" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41">
       <c r="A9" s="3">
         <v>22</v>
       </c>
@@ -1845,11 +2441,11 @@
       <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>148</v>
+      <c r="D9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -1953,14 +2549,14 @@
       <c r="AM9" s="3">
         <v>0</v>
       </c>
-      <c r="AN9" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO9" s="7" t="s">
+      <c r="AN9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO9" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42">
       <c r="A10" s="3">
         <v>30</v>
       </c>
@@ -1971,10 +2567,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -2078,17 +2674,17 @@
       <c r="AM10" s="3">
         <v>0</v>
       </c>
-      <c r="AN10" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO10" s="7" t="s">
-        <v>93</v>
+      <c r="AN10" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO10" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="AP10" s="3">
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41">
       <c r="A11" s="3">
         <v>31</v>
       </c>
@@ -2099,10 +2695,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -2206,14 +2802,14 @@
       <c r="AM11" s="3">
         <v>0</v>
       </c>
-      <c r="AN11" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO11" s="7" t="s">
+      <c r="AN11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO11" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41">
       <c r="A12" s="3">
         <v>40</v>
       </c>
@@ -2224,10 +2820,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -2331,14 +2927,14 @@
       <c r="AM12" s="3">
         <v>0</v>
       </c>
-      <c r="AN12" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO12" s="7" t="s">
+      <c r="AN12" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO12" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41">
       <c r="A13" s="3">
         <v>41</v>
       </c>
@@ -2349,10 +2945,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -2456,14 +3052,14 @@
       <c r="AM13" s="3">
         <v>0</v>
       </c>
-      <c r="AN13" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO13" s="7" t="s">
+      <c r="AN13" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO13" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41">
       <c r="A14" s="3">
         <v>42</v>
       </c>
@@ -2474,10 +3070,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -2581,14 +3177,14 @@
       <c r="AM14" s="3">
         <v>0</v>
       </c>
-      <c r="AN14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO14" s="7" t="s">
+      <c r="AN14" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO14" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41">
       <c r="A15" s="3">
         <v>60</v>
       </c>
@@ -2599,10 +3195,10 @@
         <v>7</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -2706,14 +3302,14 @@
       <c r="AM15" s="3">
         <v>0</v>
       </c>
-      <c r="AN15" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO15" s="7" t="s">
+      <c r="AN15" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO15" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41">
       <c r="A16" s="3">
         <v>61</v>
       </c>
@@ -2724,10 +3320,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -2831,14 +3427,14 @@
       <c r="AM16" s="3">
         <v>0</v>
       </c>
-      <c r="AN16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO16" s="7" t="s">
+      <c r="AN16" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO16" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41">
       <c r="A17" s="3">
         <v>62</v>
       </c>
@@ -2849,10 +3445,10 @@
         <v>4</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -2956,14 +3552,14 @@
       <c r="AM17" s="3">
         <v>0</v>
       </c>
-      <c r="AN17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO17" s="7" t="s">
+      <c r="AN17" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO17" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41">
       <c r="A18" s="3">
         <v>63</v>
       </c>
@@ -2974,10 +3570,10 @@
         <v>4</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -3081,14 +3677,14 @@
       <c r="AM18" s="3">
         <v>0</v>
       </c>
-      <c r="AN18" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO18" s="7" t="s">
+      <c r="AN18" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO18" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41">
       <c r="A19" s="3">
         <v>64</v>
       </c>
@@ -3099,10 +3695,10 @@
         <v>4</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -3206,14 +3802,14 @@
       <c r="AM19" s="3">
         <v>0</v>
       </c>
-      <c r="AN19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO19" s="7" t="s">
+      <c r="AN19" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO19" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41">
       <c r="A20" s="3">
         <v>65</v>
       </c>
@@ -3224,10 +3820,10 @@
         <v>4</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -3331,14 +3927,14 @@
       <c r="AM20" s="3">
         <v>0</v>
       </c>
-      <c r="AN20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO20" s="7" t="s">
+      <c r="AN20" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO20" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41">
       <c r="A21" s="3">
         <v>66</v>
       </c>
@@ -3349,10 +3945,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -3456,14 +4052,14 @@
       <c r="AM21" s="3">
         <v>0</v>
       </c>
-      <c r="AN21" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO21" s="7" t="s">
+      <c r="AN21" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO21" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41">
       <c r="A22" s="3">
         <v>67</v>
       </c>
@@ -3474,10 +4070,10 @@
         <v>4</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -3581,14 +4177,14 @@
       <c r="AM22" s="3">
         <v>0</v>
       </c>
-      <c r="AN22" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO22" s="7" t="s">
+      <c r="AN22" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO22" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41">
       <c r="A23" s="3">
         <v>68</v>
       </c>
@@ -3599,10 +4195,10 @@
         <v>4</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -3706,14 +4302,14 @@
       <c r="AM23" s="3">
         <v>0</v>
       </c>
-      <c r="AN23" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO23" s="7" t="s">
+      <c r="AN23" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO23" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:41">
       <c r="A24" s="3">
         <v>69</v>
       </c>
@@ -3724,10 +4320,10 @@
         <v>4</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -3831,14 +4427,14 @@
       <c r="AM24" s="3">
         <v>0</v>
       </c>
-      <c r="AN24" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO24" s="7" t="s">
+      <c r="AN24" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO24" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:41">
       <c r="A25" s="3">
         <v>610</v>
       </c>
@@ -3849,10 +4445,10 @@
         <v>4</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
@@ -3956,14 +4552,14 @@
       <c r="AM25" s="3">
         <v>0</v>
       </c>
-      <c r="AN25" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO25" s="7" t="s">
+      <c r="AN25" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO25" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:41">
       <c r="A26" s="3">
         <v>611</v>
       </c>
@@ -3974,10 +4570,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -4081,14 +4677,14 @@
       <c r="AM26" s="3">
         <v>0</v>
       </c>
-      <c r="AN26" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO26" s="7" t="s">
+      <c r="AN26" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO26" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:41">
       <c r="A27" s="3">
         <v>612</v>
       </c>
@@ -4099,10 +4695,10 @@
         <v>4</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -4206,14 +4802,14 @@
       <c r="AM27" s="3">
         <v>0</v>
       </c>
-      <c r="AN27" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO27" s="7" t="s">
+      <c r="AN27" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO27" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:41">
       <c r="A28" s="3">
         <v>613</v>
       </c>
@@ -4224,10 +4820,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
@@ -4331,14 +4927,14 @@
       <c r="AM28" s="3">
         <v>0</v>
       </c>
-      <c r="AN28" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO28" s="7" t="s">
+      <c r="AN28" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO28" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:41">
       <c r="A29" s="3">
         <v>614</v>
       </c>
@@ -4349,10 +4945,10 @@
         <v>4</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -4456,14 +5052,14 @@
       <c r="AM29" s="3">
         <v>0</v>
       </c>
-      <c r="AN29" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO29" s="7" t="s">
+      <c r="AN29" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO29" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:41">
       <c r="A30" s="3">
         <v>615</v>
       </c>
@@ -4474,10 +5070,10 @@
         <v>4</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
@@ -4581,14 +5177,14 @@
       <c r="AM30" s="3">
         <v>0</v>
       </c>
-      <c r="AN30" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO30" s="7" t="s">
+      <c r="AN30" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO30" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:41">
       <c r="A31" s="3">
         <v>616</v>
       </c>
@@ -4599,10 +5195,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
@@ -4706,14 +5302,14 @@
       <c r="AM31" s="3">
         <v>0</v>
       </c>
-      <c r="AN31" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO31" s="7" t="s">
+      <c r="AN31" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO31" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:41">
       <c r="A32" s="3">
         <v>617</v>
       </c>
@@ -4724,10 +5320,10 @@
         <v>4</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -4831,14 +5427,14 @@
       <c r="AM32" s="3">
         <v>0</v>
       </c>
-      <c r="AN32" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO32" s="7" t="s">
+      <c r="AN32" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO32" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:41">
       <c r="A33" s="3">
         <v>618</v>
       </c>
@@ -4849,10 +5445,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -4956,14 +5552,14 @@
       <c r="AM33" s="3">
         <v>0</v>
       </c>
-      <c r="AN33" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO33" s="7" t="s">
+      <c r="AN33" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO33" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:41">
       <c r="A34" s="3">
         <v>619</v>
       </c>
@@ -4974,10 +5570,10 @@
         <v>4</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
@@ -5081,14 +5677,14 @@
       <c r="AM34" s="3">
         <v>0</v>
       </c>
-      <c r="AN34" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO34" s="7" t="s">
+      <c r="AN34" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO34" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:42">
       <c r="A35" s="3">
         <v>70</v>
       </c>
@@ -5099,10 +5695,10 @@
         <v>5</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F35" s="3">
         <v>1</v>
@@ -5206,17 +5802,17 @@
       <c r="AM35" s="3">
         <v>0</v>
       </c>
-      <c r="AN35" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO35" s="7" t="s">
-        <v>118</v>
+      <c r="AN35" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO35" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="AP35" s="3">
         <v>714</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:41">
       <c r="A36" s="3">
         <v>71</v>
       </c>
@@ -5227,10 +5823,10 @@
         <v>5</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
@@ -5334,14 +5930,14 @@
       <c r="AM36" s="3">
         <v>0</v>
       </c>
-      <c r="AN36" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO36" s="7" t="s">
+      <c r="AN36" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO36" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:41">
       <c r="A37" s="3">
         <v>72</v>
       </c>
@@ -5352,10 +5948,10 @@
         <v>5</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
@@ -5459,14 +6055,14 @@
       <c r="AM37" s="3">
         <v>0</v>
       </c>
-      <c r="AN37" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO37" s="7" t="s">
+      <c r="AN37" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO37" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:42">
       <c r="A38" s="3">
         <v>80</v>
       </c>
@@ -5477,10 +6073,10 @@
         <v>5</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
@@ -5584,17 +6180,17 @@
       <c r="AM38" s="3">
         <v>0</v>
       </c>
-      <c r="AN38" s="7" t="s">
+      <c r="AN38" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AO38" s="7" t="s">
+      <c r="AO38" s="8" t="s">
         <v>78</v>
       </c>
       <c r="AP38" s="3">
         <v>813</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:42">
       <c r="A39" s="3">
         <v>90</v>
       </c>
@@ -5605,10 +6201,10 @@
         <v>5</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F39" s="3">
         <v>1</v>
@@ -5712,17 +6308,17 @@
       <c r="AM39" s="3">
         <v>0</v>
       </c>
-      <c r="AN39" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AO39" s="7" t="s">
-        <v>125</v>
+      <c r="AN39" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO39" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="AP39" s="3">
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:41">
       <c r="A40" s="3">
         <v>91</v>
       </c>
@@ -5733,10 +6329,10 @@
         <v>7</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
@@ -5840,14 +6436,14 @@
       <c r="AM40" s="3">
         <v>0</v>
       </c>
-      <c r="AN40" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO40" s="7" t="s">
+      <c r="AN40" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO40" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:42">
       <c r="A41" s="3">
         <v>111</v>
       </c>
@@ -5857,11 +6453,11 @@
       <c r="C41" s="3">
         <v>8</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>150</v>
+      <c r="D41" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -5965,15 +6561,15 @@
       <c r="AM41" s="3">
         <v>0</v>
       </c>
-      <c r="AN41" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO41" s="7" t="s">
-        <v>153</v>
+      <c r="AN41" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AO41" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="AP41" s="3"/>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:42">
       <c r="A42" s="3">
         <v>123</v>
       </c>
@@ -5984,10 +6580,10 @@
         <v>7</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -6091,17 +6687,17 @@
       <c r="AM42" s="3">
         <v>0</v>
       </c>
-      <c r="AN42" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AO42" s="7" t="s">
+      <c r="AN42" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO42" s="8" t="s">
         <v>78</v>
       </c>
       <c r="AP42" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:41">
       <c r="A43" s="3">
         <v>140</v>
       </c>
@@ -6112,10 +6708,10 @@
         <v>6</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -6219,14 +6815,14 @@
       <c r="AM43" s="3">
         <v>0</v>
       </c>
-      <c r="AN43" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AO43" s="7" t="s">
+      <c r="AN43" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO43" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:41">
       <c r="A44" s="3">
         <v>141</v>
       </c>
@@ -6237,10 +6833,10 @@
         <v>6</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -6344,14 +6940,14 @@
       <c r="AM44" s="3">
         <v>0</v>
       </c>
-      <c r="AN44" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO44" s="7">
+      <c r="AN44" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO44" s="8">
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:41">
       <c r="A45" s="3">
         <v>142</v>
       </c>
@@ -6362,10 +6958,10 @@
         <v>6</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -6469,14 +7065,14 @@
       <c r="AM45" s="3">
         <v>0</v>
       </c>
-      <c r="AN45" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO45" s="7">
+      <c r="AN45" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO45" s="8">
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:41">
       <c r="A46" s="3">
         <v>143</v>
       </c>
@@ -6487,10 +7083,10 @@
         <v>6</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -6594,14 +7190,14 @@
       <c r="AM46" s="3">
         <v>0</v>
       </c>
-      <c r="AN46" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO46" s="7">
+      <c r="AN46" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO46" s="8">
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:41">
       <c r="A47" s="3">
         <v>144</v>
       </c>
@@ -6612,10 +7208,10 @@
         <v>6</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -6719,14 +7315,14 @@
       <c r="AM47" s="3">
         <v>0</v>
       </c>
-      <c r="AN47" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO47" s="7">
+      <c r="AN47" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO47" s="8">
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:41">
       <c r="A48" s="3">
         <v>145</v>
       </c>
@@ -6737,10 +7333,10 @@
         <v>6</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -6844,14 +7440,14 @@
       <c r="AM48" s="3">
         <v>0</v>
       </c>
-      <c r="AN48" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AO48" s="7">
+      <c r="AN48" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO48" s="8">
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:41">
       <c r="A49" s="3">
         <v>146</v>
       </c>
@@ -6862,10 +7458,10 @@
         <v>6</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -6969,14 +7565,14 @@
       <c r="AM49" s="3">
         <v>0</v>
       </c>
-      <c r="AN49" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AO49" s="7">
+      <c r="AN49" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO49" s="8">
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:41">
       <c r="A50" s="3">
         <v>147</v>
       </c>
@@ -6987,10 +7583,10 @@
         <v>6</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
@@ -7094,14 +7690,14 @@
       <c r="AM50" s="3">
         <v>0</v>
       </c>
-      <c r="AN50" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AO50" s="7">
+      <c r="AN50" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO50" s="8">
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:41">
       <c r="A51" s="3">
         <v>148</v>
       </c>
@@ -7112,10 +7708,10 @@
         <v>6</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
@@ -7219,14 +7815,14 @@
       <c r="AM51" s="3">
         <v>0</v>
       </c>
-      <c r="AN51" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO51" s="7">
+      <c r="AN51" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO51" s="8">
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:41">
       <c r="A52" s="3">
         <v>149</v>
       </c>
@@ -7237,10 +7833,10 @@
         <v>6</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -7344,14 +7940,14 @@
       <c r="AM52" s="3">
         <v>0</v>
       </c>
-      <c r="AN52" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO52" s="7">
+      <c r="AN52" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO52" s="8">
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:41">
       <c r="A53" s="3">
         <v>160</v>
       </c>
@@ -7362,10 +7958,10 @@
         <v>6</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
@@ -7469,14 +8065,14 @@
       <c r="AM53" s="3">
         <v>0</v>
       </c>
-      <c r="AN53" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="AO53" s="7">
+      <c r="AN53" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO53" s="8">
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:41">
       <c r="A54" s="3">
         <v>161</v>
       </c>
@@ -7487,10 +8083,10 @@
         <v>6</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -7594,14 +8190,14 @@
       <c r="AM54" s="3">
         <v>0</v>
       </c>
-      <c r="AN54" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="AO54" s="7">
+      <c r="AN54" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO54" s="8">
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:41">
       <c r="A55" s="3">
         <v>162</v>
       </c>
@@ -7612,10 +8208,10 @@
         <v>6</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
@@ -7719,14 +8315,14 @@
       <c r="AM55" s="3">
         <v>0</v>
       </c>
-      <c r="AN55" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO55" s="7">
+      <c r="AN55" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO55" s="8">
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:41">
       <c r="A56" s="3">
         <v>163</v>
       </c>
@@ -7737,10 +8333,10 @@
         <v>6</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
@@ -7844,14 +8440,14 @@
       <c r="AM56" s="3">
         <v>0</v>
       </c>
-      <c r="AN56" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO56" s="7">
+      <c r="AN56" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO56" s="8">
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:41">
       <c r="A57" s="3">
         <v>164</v>
       </c>
@@ -7862,10 +8458,10 @@
         <v>6</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -7969,14 +8565,14 @@
       <c r="AM57" s="3">
         <v>0</v>
       </c>
-      <c r="AN57" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="AO57" s="7">
+      <c r="AN57" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO57" s="8">
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:41">
       <c r="A58" s="3">
         <v>165</v>
       </c>
@@ -7987,10 +8583,10 @@
         <v>6</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -8094,14 +8690,14 @@
       <c r="AM58" s="3">
         <v>0</v>
       </c>
-      <c r="AN58" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO58" s="7">
+      <c r="AN58" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO58" s="8">
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:41">
       <c r="A59" s="3">
         <v>180</v>
       </c>
@@ -8112,10 +8708,10 @@
         <v>6</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -8219,14 +8815,14 @@
       <c r="AM59" s="3">
         <v>0</v>
       </c>
-      <c r="AN59" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="AO59" s="7">
+      <c r="AN59" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO59" s="8">
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:41">
       <c r="A60" s="3">
         <v>181</v>
       </c>
@@ -8237,10 +8833,10 @@
         <v>6</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -8344,14 +8940,14 @@
       <c r="AM60" s="3">
         <v>0</v>
       </c>
-      <c r="AN60" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="AO60" s="7">
+      <c r="AN60" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO60" s="8">
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:41">
       <c r="A61" s="3">
         <v>182</v>
       </c>
@@ -8362,10 +8958,10 @@
         <v>6</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -8469,14 +9065,14 @@
       <c r="AM61" s="3">
         <v>0</v>
       </c>
-      <c r="AN61" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="AO61" s="7">
+      <c r="AN61" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO61" s="8">
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:41">
       <c r="A62" s="3">
         <v>183</v>
       </c>
@@ -8487,10 +9083,10 @@
         <v>6</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -8594,14 +9190,14 @@
       <c r="AM62" s="3">
         <v>0</v>
       </c>
-      <c r="AN62" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="AO62" s="7">
+      <c r="AN62" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO62" s="8">
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:41">
       <c r="A63" s="3">
         <v>184</v>
       </c>
@@ -8612,10 +9208,10 @@
         <v>6</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
@@ -8719,14 +9315,14 @@
       <c r="AM63" s="3">
         <v>0</v>
       </c>
-      <c r="AN63" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="AO63" s="7">
+      <c r="AN63" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO63" s="8">
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:41">
       <c r="A64" s="3">
         <v>190</v>
       </c>
@@ -8737,10 +9333,10 @@
         <v>4</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
@@ -8844,17 +9440,16 @@
       <c r="AM64" s="3">
         <v>0</v>
       </c>
-      <c r="AN64" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO64" s="7" t="s">
+      <c r="AN64" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO64" s="8" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/人物.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="154">
   <si>
     <t>Jyx2Configs.Jyx2ConfigCharacter</t>
   </si>
@@ -132,6 +132,9 @@
     <t>LeaveStoryId</t>
   </si>
   <si>
+    <t>ModelFileKey</t>
+  </si>
+  <si>
     <t>代号</t>
   </si>
   <si>
@@ -256,6 +259,9 @@
   </si>
   <si>
     <t>离场对话</t>
+  </si>
+  <si>
+    <t>模型文件名</t>
   </si>
   <si>
     <t>莫穿林</t>
@@ -499,7 +505,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -510,12 +516,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -987,31 +987,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1020,19 +1029,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1044,107 +1047,104 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1156,13 +1156,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1559,10 +1558,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AP64"/>
+  <dimension ref="A1:AQ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AO12" sqref="AO12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1570,6 +1569,7 @@
     <col min="6" max="39" width="9" customWidth="1"/>
     <col min="40" max="40" width="41.125" style="1" customWidth="1"/>
     <col min="41" max="41" width="22.75" style="1" customWidth="1"/>
+    <col min="42" max="42" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:43">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1665,145 +1665,151 @@
       <c r="AK2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AN2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AO2" s="5" t="s">
         <v>31</v>
       </c>
       <c r="AP2" t="s">
         <v>32</v>
       </c>
+      <c r="AQ2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:43">
       <c r="A3" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AL3" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AM3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AO3" s="7" t="s">
+      <c r="AN3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AP3" s="9" t="s">
+      <c r="AO3" s="6" t="s">
         <v>74</v>
       </c>
+      <c r="AP3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:43">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1814,10 +1820,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -1921,14 +1927,18 @@
       <c r="AM4" s="3">
         <v>0</v>
       </c>
-      <c r="AN4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO4" s="8" t="s">
-        <v>78</v>
+      <c r="AN4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ4" t="str">
+        <f>D4</f>
+        <v>莫穿林</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:43">
       <c r="A5" s="3">
         <v>10</v>
       </c>
@@ -1939,10 +1949,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -2046,14 +2056,18 @@
       <c r="AM5" s="3">
         <v>0</v>
       </c>
-      <c r="AN5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO5" s="8" t="s">
-        <v>78</v>
+      <c r="AN5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ5" t="str">
+        <f t="shared" ref="AQ5:AQ36" si="0">D5</f>
+        <v>何云多</v>
       </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:43">
       <c r="A6" s="3">
         <v>11</v>
       </c>
@@ -2064,10 +2078,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -2171,17 +2185,21 @@
       <c r="AM6" s="3">
         <v>0</v>
       </c>
-      <c r="AN6" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO6" s="8" t="s">
-        <v>78</v>
+      <c r="AN6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO6" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="AP6" s="3">
         <v>115</v>
       </c>
+      <c r="AQ6" t="str">
+        <f t="shared" si="0"/>
+        <v>朱云天</v>
+      </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:43">
       <c r="A7" s="3">
         <v>20</v>
       </c>
@@ -2192,10 +2210,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -2299,14 +2317,18 @@
       <c r="AM7" s="3">
         <v>0</v>
       </c>
-      <c r="AN7" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO7" s="8" t="s">
-        <v>78</v>
+      <c r="AN7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ7" t="str">
+        <f t="shared" si="0"/>
+        <v>刘灯剑</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:43">
       <c r="A8" s="3">
         <v>21</v>
       </c>
@@ -2317,10 +2339,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -2424,14 +2446,18 @@
       <c r="AM8" s="3">
         <v>0</v>
       </c>
-      <c r="AN8" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO8" s="8" t="s">
-        <v>78</v>
+      <c r="AN8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ8" t="str">
+        <f t="shared" si="0"/>
+        <v>童岿然</v>
       </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:43">
       <c r="A9" s="3">
         <v>22</v>
       </c>
@@ -2441,11 +2467,11 @@
       <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>91</v>
+      <c r="D9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -2549,14 +2575,18 @@
       <c r="AM9" s="3">
         <v>0</v>
       </c>
-      <c r="AN9" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO9" s="8" t="s">
-        <v>78</v>
+      <c r="AN9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ9" t="str">
+        <f t="shared" si="0"/>
+        <v>刘子蝉</v>
       </c>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:43">
       <c r="A10" s="3">
         <v>30</v>
       </c>
@@ -2567,10 +2597,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -2674,17 +2704,21 @@
       <c r="AM10" s="3">
         <v>0</v>
       </c>
-      <c r="AN10" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO10" s="8" t="s">
-        <v>96</v>
+      <c r="AN10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO10" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="AP10" s="3">
         <v>310</v>
       </c>
+      <c r="AQ10" t="str">
+        <f t="shared" si="0"/>
+        <v>虚寂</v>
+      </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:43">
       <c r="A11" s="3">
         <v>31</v>
       </c>
@@ -2695,10 +2729,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -2802,14 +2836,18 @@
       <c r="AM11" s="3">
         <v>0</v>
       </c>
-      <c r="AN11" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO11" s="8" t="s">
-        <v>78</v>
+      <c r="AN11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ11" t="str">
+        <f t="shared" si="0"/>
+        <v>寿眉大师</v>
       </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:43">
       <c r="A12" s="3">
         <v>40</v>
       </c>
@@ -2820,10 +2858,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -2927,14 +2965,18 @@
       <c r="AM12" s="3">
         <v>0</v>
       </c>
-      <c r="AN12" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO12" s="8" t="s">
-        <v>78</v>
+      <c r="AN12" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ12" t="str">
+        <f t="shared" si="0"/>
+        <v>萨擎苍</v>
       </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:43">
       <c r="A13" s="3">
         <v>41</v>
       </c>
@@ -2945,10 +2987,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -3052,14 +3094,18 @@
       <c r="AM13" s="3">
         <v>0</v>
       </c>
-      <c r="AN13" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO13" s="8" t="s">
-        <v>78</v>
+      <c r="AN13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ13" t="str">
+        <f t="shared" si="0"/>
+        <v>周理</v>
       </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:43">
       <c r="A14" s="3">
         <v>42</v>
       </c>
@@ -3070,10 +3116,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -3177,14 +3223,18 @@
       <c r="AM14" s="3">
         <v>0</v>
       </c>
-      <c r="AN14" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO14" s="8" t="s">
-        <v>78</v>
+      <c r="AN14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ14" t="str">
+        <f t="shared" si="0"/>
+        <v>周璟</v>
       </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:43">
       <c r="A15" s="3">
         <v>60</v>
       </c>
@@ -3195,10 +3245,10 @@
         <v>7</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -3302,14 +3352,18 @@
       <c r="AM15" s="3">
         <v>0</v>
       </c>
-      <c r="AN15" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO15" s="8" t="s">
-        <v>78</v>
+      <c r="AN15" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ15" t="str">
+        <f t="shared" si="0"/>
+        <v>王远</v>
       </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:43">
       <c r="A16" s="3">
         <v>61</v>
       </c>
@@ -3320,10 +3374,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -3427,14 +3481,18 @@
       <c r="AM16" s="3">
         <v>0</v>
       </c>
-      <c r="AN16" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO16" s="8" t="s">
-        <v>78</v>
+      <c r="AN16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ16" t="str">
+        <f t="shared" si="0"/>
+        <v>伏格多</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:43">
       <c r="A17" s="3">
         <v>62</v>
       </c>
@@ -3445,10 +3503,10 @@
         <v>4</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -3552,14 +3610,18 @@
       <c r="AM17" s="3">
         <v>0</v>
       </c>
-      <c r="AN17" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AO17" s="8" t="s">
-        <v>78</v>
+      <c r="AN17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ17" t="str">
+        <f t="shared" si="0"/>
+        <v>将军府士兵</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:43">
       <c r="A18" s="3">
         <v>63</v>
       </c>
@@ -3570,10 +3632,10 @@
         <v>4</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -3677,14 +3739,18 @@
       <c r="AM18" s="3">
         <v>0</v>
       </c>
-      <c r="AN18" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AO18" s="8" t="s">
-        <v>78</v>
+      <c r="AN18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ18" t="str">
+        <f t="shared" si="0"/>
+        <v>将军府士兵</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:43">
       <c r="A19" s="3">
         <v>64</v>
       </c>
@@ -3695,10 +3761,10 @@
         <v>4</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -3802,14 +3868,18 @@
       <c r="AM19" s="3">
         <v>0</v>
       </c>
-      <c r="AN19" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AO19" s="8" t="s">
-        <v>78</v>
+      <c r="AN19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ19" t="str">
+        <f t="shared" si="0"/>
+        <v>将军府士兵</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:43">
       <c r="A20" s="3">
         <v>65</v>
       </c>
@@ -3820,10 +3890,10 @@
         <v>4</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -3927,14 +3997,18 @@
       <c r="AM20" s="3">
         <v>0</v>
       </c>
-      <c r="AN20" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AO20" s="8" t="s">
-        <v>78</v>
+      <c r="AN20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ20" t="str">
+        <f t="shared" si="0"/>
+        <v>将军府士兵</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:43">
       <c r="A21" s="3">
         <v>66</v>
       </c>
@@ -3945,10 +4019,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -4052,14 +4126,18 @@
       <c r="AM21" s="3">
         <v>0</v>
       </c>
-      <c r="AN21" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO21" s="8" t="s">
-        <v>78</v>
+      <c r="AN21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ21" t="str">
+        <f t="shared" si="0"/>
+        <v>将军府士兵</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:43">
       <c r="A22" s="3">
         <v>67</v>
       </c>
@@ -4070,10 +4148,10 @@
         <v>4</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -4177,14 +4255,18 @@
       <c r="AM22" s="3">
         <v>0</v>
       </c>
-      <c r="AN22" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO22" s="8" t="s">
-        <v>78</v>
+      <c r="AN22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ22" t="str">
+        <f t="shared" si="0"/>
+        <v>将军府士兵</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:43">
       <c r="A23" s="3">
         <v>68</v>
       </c>
@@ -4195,10 +4277,10 @@
         <v>4</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -4302,14 +4384,18 @@
       <c r="AM23" s="3">
         <v>0</v>
       </c>
-      <c r="AN23" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO23" s="8" t="s">
-        <v>78</v>
+      <c r="AN23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ23" t="str">
+        <f t="shared" si="0"/>
+        <v>将军府士兵</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:43">
       <c r="A24" s="3">
         <v>69</v>
       </c>
@@ -4320,10 +4406,10 @@
         <v>4</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -4427,14 +4513,18 @@
       <c r="AM24" s="3">
         <v>0</v>
       </c>
-      <c r="AN24" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO24" s="8" t="s">
-        <v>78</v>
+      <c r="AN24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ24" t="str">
+        <f t="shared" si="0"/>
+        <v>将军府士兵</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:43">
       <c r="A25" s="3">
         <v>610</v>
       </c>
@@ -4445,10 +4535,10 @@
         <v>4</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
@@ -4552,14 +4642,18 @@
       <c r="AM25" s="3">
         <v>0</v>
       </c>
-      <c r="AN25" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AO25" s="8" t="s">
-        <v>78</v>
+      <c r="AN25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ25" t="str">
+        <f t="shared" si="0"/>
+        <v>蓝隼士兵</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:43">
       <c r="A26" s="3">
         <v>611</v>
       </c>
@@ -4570,10 +4664,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -4677,14 +4771,18 @@
       <c r="AM26" s="3">
         <v>0</v>
       </c>
-      <c r="AN26" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AO26" s="8" t="s">
-        <v>78</v>
+      <c r="AN26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ26" t="str">
+        <f t="shared" si="0"/>
+        <v>蓝隼士兵</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:43">
       <c r="A27" s="3">
         <v>612</v>
       </c>
@@ -4695,10 +4793,10 @@
         <v>4</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -4802,14 +4900,18 @@
       <c r="AM27" s="3">
         <v>0</v>
       </c>
-      <c r="AN27" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AO27" s="8" t="s">
-        <v>78</v>
+      <c r="AN27" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ27" t="str">
+        <f t="shared" si="0"/>
+        <v>蓝隼士兵</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:43">
       <c r="A28" s="3">
         <v>613</v>
       </c>
@@ -4820,10 +4922,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
@@ -4927,14 +5029,18 @@
       <c r="AM28" s="3">
         <v>0</v>
       </c>
-      <c r="AN28" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AO28" s="8" t="s">
-        <v>78</v>
+      <c r="AN28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ28" t="str">
+        <f t="shared" si="0"/>
+        <v>蓝隼士兵</v>
       </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:43">
       <c r="A29" s="3">
         <v>614</v>
       </c>
@@ -4945,10 +5051,10 @@
         <v>4</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -5052,14 +5158,18 @@
       <c r="AM29" s="3">
         <v>0</v>
       </c>
-      <c r="AN29" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AO29" s="8" t="s">
-        <v>78</v>
+      <c r="AN29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO29" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ29" t="str">
+        <f t="shared" si="0"/>
+        <v>蓝隼士兵</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:43">
       <c r="A30" s="3">
         <v>615</v>
       </c>
@@ -5070,10 +5180,10 @@
         <v>4</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
@@ -5177,14 +5287,18 @@
       <c r="AM30" s="3">
         <v>0</v>
       </c>
-      <c r="AN30" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO30" s="8" t="s">
-        <v>78</v>
+      <c r="AN30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ30" t="str">
+        <f t="shared" si="0"/>
+        <v>蓝隼士兵</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:43">
       <c r="A31" s="3">
         <v>616</v>
       </c>
@@ -5195,10 +5309,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
@@ -5302,14 +5416,18 @@
       <c r="AM31" s="3">
         <v>0</v>
       </c>
-      <c r="AN31" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO31" s="8" t="s">
-        <v>78</v>
+      <c r="AN31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO31" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ31" t="str">
+        <f t="shared" si="0"/>
+        <v>蓝隼士兵</v>
       </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:43">
       <c r="A32" s="3">
         <v>617</v>
       </c>
@@ -5320,10 +5438,10 @@
         <v>4</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -5427,14 +5545,18 @@
       <c r="AM32" s="3">
         <v>0</v>
       </c>
-      <c r="AN32" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO32" s="8" t="s">
-        <v>78</v>
+      <c r="AN32" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO32" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ32" t="str">
+        <f t="shared" si="0"/>
+        <v>蓝隼士兵</v>
       </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:43">
       <c r="A33" s="3">
         <v>618</v>
       </c>
@@ -5445,10 +5567,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -5552,14 +5674,18 @@
       <c r="AM33" s="3">
         <v>0</v>
       </c>
-      <c r="AN33" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO33" s="8" t="s">
-        <v>78</v>
+      <c r="AN33" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO33" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ33" t="str">
+        <f t="shared" si="0"/>
+        <v>蓝隼士兵</v>
       </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:43">
       <c r="A34" s="3">
         <v>619</v>
       </c>
@@ -5570,10 +5696,10 @@
         <v>4</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
@@ -5677,14 +5803,18 @@
       <c r="AM34" s="3">
         <v>0</v>
       </c>
-      <c r="AN34" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO34" s="8" t="s">
-        <v>78</v>
+      <c r="AN34" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ34" t="str">
+        <f t="shared" si="0"/>
+        <v>蓝隼士兵</v>
       </c>
     </row>
-    <row r="35" spans="1:42">
+    <row r="35" spans="1:43">
       <c r="A35" s="3">
         <v>70</v>
       </c>
@@ -5695,10 +5825,10 @@
         <v>5</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F35" s="3">
         <v>1</v>
@@ -5802,17 +5932,21 @@
       <c r="AM35" s="3">
         <v>0</v>
       </c>
-      <c r="AN35" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO35" s="8" t="s">
-        <v>121</v>
+      <c r="AN35" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO35" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="AP35" s="3">
         <v>714</v>
       </c>
+      <c r="AQ35" t="str">
+        <f t="shared" si="0"/>
+        <v>佟雯</v>
+      </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:43">
       <c r="A36" s="3">
         <v>71</v>
       </c>
@@ -5823,10 +5957,10 @@
         <v>5</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
@@ -5930,14 +6064,18 @@
       <c r="AM36" s="3">
         <v>0</v>
       </c>
-      <c r="AN36" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO36" s="8" t="s">
-        <v>78</v>
+      <c r="AN36" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO36" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ36" t="str">
+        <f t="shared" si="0"/>
+        <v>曼陀谷弟子</v>
       </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:43">
       <c r="A37" s="3">
         <v>72</v>
       </c>
@@ -5948,10 +6086,10 @@
         <v>5</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
@@ -6055,14 +6193,18 @@
       <c r="AM37" s="3">
         <v>0</v>
       </c>
-      <c r="AN37" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO37" s="8" t="s">
-        <v>78</v>
+      <c r="AN37" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO37" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ37" t="str">
+        <f t="shared" ref="AQ37:AQ64" si="1">D37</f>
+        <v>曼陀谷弟子</v>
       </c>
     </row>
-    <row r="38" spans="1:42">
+    <row r="38" spans="1:43">
       <c r="A38" s="3">
         <v>80</v>
       </c>
@@ -6073,10 +6215,10 @@
         <v>5</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
@@ -6180,17 +6322,21 @@
       <c r="AM38" s="3">
         <v>0</v>
       </c>
-      <c r="AN38" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO38" s="8" t="s">
-        <v>78</v>
+      <c r="AN38" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO38" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="AP38" s="3">
         <v>813</v>
       </c>
+      <c r="AQ38" t="str">
+        <f t="shared" si="1"/>
+        <v>童四二</v>
+      </c>
     </row>
-    <row r="39" spans="1:42">
+    <row r="39" spans="1:43">
       <c r="A39" s="3">
         <v>90</v>
       </c>
@@ -6201,10 +6347,10 @@
         <v>5</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F39" s="3">
         <v>1</v>
@@ -6308,17 +6454,21 @@
       <c r="AM39" s="3">
         <v>0</v>
       </c>
-      <c r="AN39" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO39" s="8" t="s">
-        <v>128</v>
+      <c r="AN39" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO39" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="AP39" s="3">
         <v>96</v>
       </c>
+      <c r="AQ39" t="str">
+        <f t="shared" si="1"/>
+        <v>牛妞妞</v>
+      </c>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:43">
       <c r="A40" s="3">
         <v>91</v>
       </c>
@@ -6329,10 +6479,10 @@
         <v>7</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
@@ -6436,14 +6586,18 @@
       <c r="AM40" s="3">
         <v>0</v>
       </c>
-      <c r="AN40" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="AO40" s="8" t="s">
-        <v>78</v>
+      <c r="AN40" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO40" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ40" t="str">
+        <f t="shared" si="1"/>
+        <v>牛不三</v>
       </c>
     </row>
-    <row r="41" spans="1:42">
+    <row r="41" spans="1:43">
       <c r="A41" s="3">
         <v>111</v>
       </c>
@@ -6453,11 +6607,11 @@
       <c r="C41" s="3">
         <v>8</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>133</v>
+      <c r="D41" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -6561,15 +6715,19 @@
       <c r="AM41" s="3">
         <v>0</v>
       </c>
-      <c r="AN41" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO41" s="8" t="s">
-        <v>78</v>
+      <c r="AN41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO41" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="AP41" s="3"/>
+      <c r="AQ41" t="str">
+        <f t="shared" si="1"/>
+        <v>张老板</v>
+      </c>
     </row>
-    <row r="42" spans="1:42">
+    <row r="42" spans="1:43">
       <c r="A42" s="3">
         <v>123</v>
       </c>
@@ -6580,10 +6738,10 @@
         <v>7</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -6687,17 +6845,21 @@
       <c r="AM42" s="3">
         <v>0</v>
       </c>
-      <c r="AN42" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="AO42" s="8" t="s">
-        <v>78</v>
+      <c r="AN42" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO42" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="AP42" s="3">
         <v>128</v>
       </c>
+      <c r="AQ42" t="str">
+        <f t="shared" si="1"/>
+        <v>隋青竹</v>
+      </c>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:43">
       <c r="A43" s="3">
         <v>140</v>
       </c>
@@ -6708,10 +6870,10 @@
         <v>6</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -6815,14 +6977,18 @@
       <c r="AM43" s="3">
         <v>0</v>
       </c>
-      <c r="AN43" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO43" s="8" t="s">
-        <v>78</v>
+      <c r="AN43" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO43" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ43" t="str">
+        <f t="shared" si="1"/>
+        <v>野狼</v>
       </c>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:43">
       <c r="A44" s="3">
         <v>141</v>
       </c>
@@ -6833,10 +6999,10 @@
         <v>6</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -6940,14 +7106,18 @@
       <c r="AM44" s="3">
         <v>0</v>
       </c>
-      <c r="AN44" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO44" s="8">
-        <v>-1</v>
+      <c r="AN44" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO44" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AQ44" t="str">
+        <f t="shared" si="1"/>
+        <v>野狼</v>
       </c>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:43">
       <c r="A45" s="3">
         <v>142</v>
       </c>
@@ -6958,10 +7128,10 @@
         <v>6</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -7065,14 +7235,18 @@
       <c r="AM45" s="3">
         <v>0</v>
       </c>
-      <c r="AN45" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="AO45" s="8">
-        <v>-1</v>
+      <c r="AN45" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO45" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AQ45" t="str">
+        <f t="shared" si="1"/>
+        <v>野狼</v>
       </c>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:43">
       <c r="A46" s="3">
         <v>143</v>
       </c>
@@ -7083,10 +7257,10 @@
         <v>6</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -7190,14 +7364,18 @@
       <c r="AM46" s="3">
         <v>0</v>
       </c>
-      <c r="AN46" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="AO46" s="8">
-        <v>-1</v>
+      <c r="AN46" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO46" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AQ46" t="str">
+        <f t="shared" si="1"/>
+        <v>野狼</v>
       </c>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:43">
       <c r="A47" s="3">
         <v>144</v>
       </c>
@@ -7208,10 +7386,10 @@
         <v>6</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -7315,14 +7493,18 @@
       <c r="AM47" s="3">
         <v>0</v>
       </c>
-      <c r="AN47" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO47" s="8">
-        <v>-1</v>
+      <c r="AN47" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO47" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AQ47" t="str">
+        <f t="shared" si="1"/>
+        <v>野狼</v>
       </c>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:43">
       <c r="A48" s="3">
         <v>145</v>
       </c>
@@ -7333,10 +7515,10 @@
         <v>6</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -7440,14 +7622,18 @@
       <c r="AM48" s="3">
         <v>0</v>
       </c>
-      <c r="AN48" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO48" s="8">
-        <v>-1</v>
+      <c r="AN48" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO48" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AQ48" t="str">
+        <f t="shared" si="1"/>
+        <v>野狼</v>
       </c>
     </row>
-    <row r="49" spans="1:41">
+    <row r="49" spans="1:43">
       <c r="A49" s="3">
         <v>146</v>
       </c>
@@ -7458,10 +7644,10 @@
         <v>6</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -7565,14 +7751,18 @@
       <c r="AM49" s="3">
         <v>0</v>
       </c>
-      <c r="AN49" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO49" s="8">
-        <v>-1</v>
+      <c r="AN49" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO49" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AQ49" t="str">
+        <f t="shared" si="1"/>
+        <v>野狼</v>
       </c>
     </row>
-    <row r="50" spans="1:41">
+    <row r="50" spans="1:43">
       <c r="A50" s="3">
         <v>147</v>
       </c>
@@ -7583,10 +7773,10 @@
         <v>6</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
@@ -7690,14 +7880,18 @@
       <c r="AM50" s="3">
         <v>0</v>
       </c>
-      <c r="AN50" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO50" s="8">
-        <v>-1</v>
+      <c r="AN50" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO50" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AQ50" t="str">
+        <f t="shared" si="1"/>
+        <v>野狼</v>
       </c>
     </row>
-    <row r="51" spans="1:41">
+    <row r="51" spans="1:43">
       <c r="A51" s="3">
         <v>148</v>
       </c>
@@ -7708,10 +7902,10 @@
         <v>6</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
@@ -7815,14 +8009,18 @@
       <c r="AM51" s="3">
         <v>0</v>
       </c>
-      <c r="AN51" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="AO51" s="8">
-        <v>-1</v>
+      <c r="AN51" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO51" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AQ51" t="str">
+        <f t="shared" si="1"/>
+        <v>野狼</v>
       </c>
     </row>
-    <row r="52" spans="1:41">
+    <row r="52" spans="1:43">
       <c r="A52" s="3">
         <v>149</v>
       </c>
@@ -7833,10 +8031,10 @@
         <v>6</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -7940,14 +8138,18 @@
       <c r="AM52" s="3">
         <v>0</v>
       </c>
-      <c r="AN52" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO52" s="8">
-        <v>-1</v>
+      <c r="AN52" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO52" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AQ52" t="str">
+        <f t="shared" si="1"/>
+        <v>野狼</v>
       </c>
     </row>
-    <row r="53" spans="1:41">
+    <row r="53" spans="1:43">
       <c r="A53" s="3">
         <v>160</v>
       </c>
@@ -7958,10 +8160,10 @@
         <v>6</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
@@ -8065,14 +8267,18 @@
       <c r="AM53" s="3">
         <v>0</v>
       </c>
-      <c r="AN53" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="AO53" s="8">
-        <v>-1</v>
+      <c r="AN53" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO53" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AQ53" t="str">
+        <f t="shared" si="1"/>
+        <v>黑熊</v>
       </c>
     </row>
-    <row r="54" spans="1:41">
+    <row r="54" spans="1:43">
       <c r="A54" s="3">
         <v>161</v>
       </c>
@@ -8083,10 +8289,10 @@
         <v>6</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -8190,14 +8396,18 @@
       <c r="AM54" s="3">
         <v>0</v>
       </c>
-      <c r="AN54" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="AO54" s="8">
-        <v>-1</v>
+      <c r="AN54" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO54" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AQ54" t="str">
+        <f t="shared" si="1"/>
+        <v>黑熊</v>
       </c>
     </row>
-    <row r="55" spans="1:41">
+    <row r="55" spans="1:43">
       <c r="A55" s="3">
         <v>162</v>
       </c>
@@ -8208,10 +8418,10 @@
         <v>6</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
@@ -8315,14 +8525,18 @@
       <c r="AM55" s="3">
         <v>0</v>
       </c>
-      <c r="AN55" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO55" s="8">
-        <v>-1</v>
+      <c r="AN55" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO55" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AQ55" t="str">
+        <f t="shared" si="1"/>
+        <v>黑熊</v>
       </c>
     </row>
-    <row r="56" spans="1:41">
+    <row r="56" spans="1:43">
       <c r="A56" s="3">
         <v>163</v>
       </c>
@@ -8333,10 +8547,10 @@
         <v>6</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
@@ -8440,14 +8654,18 @@
       <c r="AM56" s="3">
         <v>0</v>
       </c>
-      <c r="AN56" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO56" s="8">
-        <v>-1</v>
+      <c r="AN56" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO56" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AQ56" t="str">
+        <f t="shared" si="1"/>
+        <v>黑熊</v>
       </c>
     </row>
-    <row r="57" spans="1:41">
+    <row r="57" spans="1:43">
       <c r="A57" s="3">
         <v>164</v>
       </c>
@@ -8458,10 +8676,10 @@
         <v>6</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -8565,14 +8783,18 @@
       <c r="AM57" s="3">
         <v>0</v>
       </c>
-      <c r="AN57" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="AO57" s="8">
-        <v>-1</v>
+      <c r="AN57" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO57" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AQ57" t="str">
+        <f t="shared" si="1"/>
+        <v>黑熊</v>
       </c>
     </row>
-    <row r="58" spans="1:41">
+    <row r="58" spans="1:43">
       <c r="A58" s="3">
         <v>165</v>
       </c>
@@ -8583,10 +8805,10 @@
         <v>6</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -8690,14 +8912,18 @@
       <c r="AM58" s="3">
         <v>0</v>
       </c>
-      <c r="AN58" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO58" s="8">
-        <v>-1</v>
+      <c r="AN58" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO58" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AQ58" t="str">
+        <f t="shared" si="1"/>
+        <v>巨型黑熊</v>
       </c>
     </row>
-    <row r="59" spans="1:41">
+    <row r="59" spans="1:43">
       <c r="A59" s="3">
         <v>180</v>
       </c>
@@ -8708,10 +8934,10 @@
         <v>6</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -8815,14 +9041,18 @@
       <c r="AM59" s="3">
         <v>0</v>
       </c>
-      <c r="AN59" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO59" s="8">
-        <v>-1</v>
+      <c r="AN59" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO59" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AQ59" t="str">
+        <f t="shared" si="1"/>
+        <v>毒蛇</v>
       </c>
     </row>
-    <row r="60" spans="1:41">
+    <row r="60" spans="1:43">
       <c r="A60" s="3">
         <v>181</v>
       </c>
@@ -8833,10 +9063,10 @@
         <v>6</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -8940,14 +9170,18 @@
       <c r="AM60" s="3">
         <v>0</v>
       </c>
-      <c r="AN60" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO60" s="8">
-        <v>-1</v>
+      <c r="AN60" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO60" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AQ60" t="str">
+        <f t="shared" si="1"/>
+        <v>毒蛇</v>
       </c>
     </row>
-    <row r="61" spans="1:41">
+    <row r="61" spans="1:43">
       <c r="A61" s="3">
         <v>182</v>
       </c>
@@ -8958,10 +9192,10 @@
         <v>6</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -9065,14 +9299,18 @@
       <c r="AM61" s="3">
         <v>0</v>
       </c>
-      <c r="AN61" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO61" s="8">
-        <v>-1</v>
+      <c r="AN61" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO61" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AQ61" t="str">
+        <f t="shared" si="1"/>
+        <v>毒蛇</v>
       </c>
     </row>
-    <row r="62" spans="1:41">
+    <row r="62" spans="1:43">
       <c r="A62" s="3">
         <v>183</v>
       </c>
@@ -9083,10 +9321,10 @@
         <v>6</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -9190,14 +9428,18 @@
       <c r="AM62" s="3">
         <v>0</v>
       </c>
-      <c r="AN62" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO62" s="8">
-        <v>-1</v>
+      <c r="AN62" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO62" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AQ62" t="str">
+        <f t="shared" si="1"/>
+        <v>毒蛇</v>
       </c>
     </row>
-    <row r="63" spans="1:41">
+    <row r="63" spans="1:43">
       <c r="A63" s="3">
         <v>184</v>
       </c>
@@ -9208,10 +9450,10 @@
         <v>6</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
@@ -9315,14 +9557,18 @@
       <c r="AM63" s="3">
         <v>0</v>
       </c>
-      <c r="AN63" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO63" s="8">
-        <v>-1</v>
+      <c r="AN63" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO63" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AQ63" t="str">
+        <f t="shared" si="1"/>
+        <v>毒蛇</v>
       </c>
     </row>
-    <row r="64" spans="1:41">
+    <row r="64" spans="1:43">
       <c r="A64" s="3">
         <v>190</v>
       </c>
@@ -9333,10 +9579,10 @@
         <v>4</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
@@ -9440,11 +9686,15 @@
       <c r="AM64" s="3">
         <v>0</v>
       </c>
-      <c r="AN64" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO64" s="8" t="s">
-        <v>78</v>
+      <c r="AN64" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO64" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ64" t="str">
+        <f t="shared" si="1"/>
+        <v>路人乙</v>
       </c>
     </row>
   </sheetData>
